--- a/excel/samsung.xlsx
+++ b/excel/samsung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF702B92-0EBB-4EFE-A63F-70D70F48295C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20EB25F-92AC-4E6F-B523-C878F91A32B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3598,9 +3598,6 @@
     <t>https://ibb.co/nnH1L4X</t>
   </si>
   <si>
-    <t>https://ibb.co/LQGrg3z</t>
-  </si>
-  <si>
     <t>https://ibb.co/tPX47mb</t>
   </si>
   <si>
@@ -3635,9 +3632,6 @@
   </si>
   <si>
     <t>https://ibb.co/mt91zkm</t>
-  </si>
-  <si>
-    <t>https://ibb.co/XCrNngG</t>
   </si>
   <si>
     <t>https://ibb.co/2vhbj4P</t>
@@ -4269,6 +4263,12 @@
   </si>
   <si>
     <t>Galaxy Z Flip3 5G</t>
+  </si>
+  <si>
+    <t>https://ibb.co/nwphzTn</t>
+  </si>
+  <si>
+    <t>https://ibb.co/jDzYXF8</t>
   </si>
 </sst>
 </file>
@@ -4481,6 +4481,9 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4494,9 +4497,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4817,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="131.25" customHeight="1"/>
@@ -4832,64 +4832,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="36.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="22" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="23" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="24" t="s">
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
     </row>
     <row r="2" spans="1:48" ht="131.25" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -5039,10 +5039,10 @@
     </row>
     <row r="3" spans="1:48" ht="131.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>810</v>
@@ -5096,7 +5096,7 @@
         <v>797</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>967</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="4" spans="1:48" ht="131.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>990</v>
@@ -5242,7 +5242,7 @@
         <v>797</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>612</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="5" spans="1:48" ht="131.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>991</v>
@@ -5388,7 +5388,7 @@
         <v>797</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>148</v>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="6" spans="1:48" ht="131.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>992</v>
@@ -5534,7 +5534,7 @@
         <v>797</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>539</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="7" spans="1:48" ht="131.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>993</v>
@@ -5680,7 +5680,7 @@
         <v>797</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>927</v>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="8" spans="1:48" ht="131.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>994</v>
@@ -5820,7 +5820,7 @@
         <v>797</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>612</v>
@@ -5841,7 +5841,7 @@
         <v>610</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AB8" s="13" t="s">
         <v>566</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="9" spans="1:48" ht="131.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>995</v>
@@ -5963,7 +5963,7 @@
         <v>797</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>542</v>
@@ -5984,7 +5984,7 @@
         <v>588</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AB9" s="13" t="s">
         <v>566</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="10" spans="1:48" ht="131.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>996</v>
@@ -6106,7 +6106,7 @@
         <v>797</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>927</v>
@@ -6127,7 +6127,7 @@
         <v>610</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AB10" s="7" t="s">
         <v>537</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="11" spans="1:48" ht="131.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>997</v>
@@ -6246,7 +6246,7 @@
         <v>797</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>913</v>
@@ -6267,7 +6267,7 @@
         <v>610</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AB11" s="7" t="s">
         <v>537</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="12" spans="1:48" ht="131.25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>998</v>
@@ -6389,7 +6389,7 @@
         <v>797</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U12" s="7" t="s">
         <v>568</v>
@@ -6410,7 +6410,7 @@
         <v>564</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AB12" s="7" t="s">
         <v>537</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="13" spans="1:48" ht="131.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>999</v>
@@ -6532,7 +6532,7 @@
         <v>797</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U13" s="7" t="s">
         <v>542</v>
@@ -6553,7 +6553,7 @@
         <v>538</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AB13" s="7" t="s">
         <v>537</v>
@@ -6675,7 +6675,7 @@
         <v>797</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U14" s="7" t="s">
         <v>125</v>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="15" spans="1:48" ht="131.25" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>1001</v>
@@ -6821,7 +6821,7 @@
         <v>797</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>902</v>
@@ -6842,7 +6842,7 @@
         <v>892</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AB15" s="7" t="s">
         <v>537</v>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="16" spans="1:48" ht="131.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>1002</v>
@@ -6964,7 +6964,7 @@
         <v>797</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U16" s="7" t="s">
         <v>879</v>
@@ -6985,7 +6985,7 @@
         <v>892</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AB16" s="7" t="s">
         <v>537</v>
@@ -7104,7 +7104,7 @@
         <v>797</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>125</v>
@@ -7125,7 +7125,7 @@
         <v>270</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AB17" s="13" t="s">
         <v>127</v>
@@ -7202,10 +7202,10 @@
         <v>934</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>839</v>
@@ -7214,10 +7214,10 @@
         <v>884</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>59</v>
@@ -7229,34 +7229,34 @@
         <v>61</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>616</v>
       </c>
       <c r="P18" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>1042</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>1044</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>797</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="W18" s="7" t="s">
         <v>818</v>
@@ -7265,10 +7265,10 @@
         <v>566</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AA18" s="7" t="s">
         <v>75</v>
@@ -7283,7 +7283,7 @@
         <v>891</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AF18" s="8" t="s">
         <v>889</v>
@@ -7292,7 +7292,7 @@
         <v>811</v>
       </c>
       <c r="AH18" s="8" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="AI18" s="8">
         <v>186642</v>
@@ -7313,7 +7313,7 @@
         <v>605</v>
       </c>
       <c r="AO18" s="9" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AP18" s="9" t="s">
         <v>162</v>
@@ -7396,7 +7396,7 @@
         <v>797</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>288</v>
@@ -7542,7 +7542,7 @@
         <v>797</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>125</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="21" spans="1:48" ht="131.25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>1007</v>
@@ -7688,7 +7688,7 @@
         <v>797</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>879</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="22" spans="1:48" ht="131.25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>1008</v>
@@ -7831,7 +7831,7 @@
         <v>797</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U22" s="7" t="s">
         <v>863</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="23" spans="1:48" ht="131.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>1009</v>
@@ -7974,7 +7974,7 @@
         <v>797</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>542</v>
@@ -8117,7 +8117,7 @@
         <v>797</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>125</v>
@@ -8209,7 +8209,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>52</v>
@@ -8352,7 +8352,7 @@
     </row>
     <row r="26" spans="1:48" ht="131.25" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>1011</v>
@@ -8409,7 +8409,7 @@
         <v>797</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U26" s="7" t="s">
         <v>835</v>
@@ -8495,7 +8495,7 @@
     </row>
     <row r="27" spans="1:48" ht="131.25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>1011</v>
@@ -8552,7 +8552,7 @@
         <v>797</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>820</v>
@@ -8632,7 +8632,7 @@
     </row>
     <row r="28" spans="1:48" ht="131.25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>1012</v>
@@ -8689,7 +8689,7 @@
         <v>797</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U28" s="7" t="s">
         <v>796</v>
@@ -8832,7 +8832,7 @@
         <v>797</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -9213,10 +9213,10 @@
     </row>
     <row r="32" spans="1:48" ht="131.25" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>1016</v>
+        <v>1214</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>1225</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>677</v>
@@ -9228,7 +9228,7 @@
         <v>782</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>781</v>
@@ -9267,7 +9267,7 @@
         <v>774</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="T32" s="10" t="s">
         <v>773</v>
@@ -9353,7 +9353,7 @@
         <v>494</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>368</v>
@@ -9496,31 +9496,31 @@
     </row>
     <row r="34" spans="1:48" ht="131.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>1057</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>1059</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>500</v>
@@ -9532,70 +9532,70 @@
         <v>61</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="O34" s="10" t="s">
         <v>503</v>
       </c>
       <c r="P34" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R34" s="10" t="s">
         <v>1062</v>
       </c>
-      <c r="Q34" s="10" t="s">
+      <c r="S34" s="10" t="s">
         <v>1063</v>
       </c>
-      <c r="R34" s="10" t="s">
+      <c r="T34" s="10" t="s">
         <v>1064</v>
-      </c>
-      <c r="S34" s="10" t="s">
-        <v>1065</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>1066</v>
       </c>
       <c r="U34" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V34" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="X34" s="7" t="s">
         <v>1067</v>
-      </c>
-      <c r="W34" s="7" t="s">
-        <v>1068</v>
-      </c>
-      <c r="X34" s="7" t="s">
-        <v>1069</v>
       </c>
       <c r="Y34" s="7" t="s">
         <v>893</v>
       </c>
       <c r="Z34" s="7" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AA34" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AB34" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AC34" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AD34" s="8" t="s">
         <v>1071</v>
       </c>
-      <c r="AC34" s="8" t="s">
+      <c r="AE34" s="8" t="s">
         <v>1072</v>
       </c>
-      <c r="AD34" s="8" t="s">
+      <c r="AF34" s="8" t="s">
         <v>1073</v>
-      </c>
-      <c r="AE34" s="8" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AF34" s="8" t="s">
-        <v>1075</v>
       </c>
       <c r="AG34" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH34" s="8" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AI34" s="8">
         <v>780874</v>
@@ -9613,10 +9613,10 @@
         <v>491</v>
       </c>
       <c r="AN34" s="9" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AO34" s="9" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AP34" s="9" t="s">
         <v>162</v>
@@ -9634,7 +9634,7 @@
         <v>162</v>
       </c>
       <c r="AU34" s="9" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AV34" s="9" t="s">
         <v>522</v>
@@ -9642,10 +9642,10 @@
     </row>
     <row r="35" spans="1:48" ht="131.25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>744</v>
@@ -9785,10 +9785,10 @@
     </row>
     <row r="36" spans="1:48" ht="131.25" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>744</v>
@@ -9931,7 +9931,7 @@
         <v>348</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>349</v>
@@ -9982,7 +9982,7 @@
         <v>67</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="T37" s="10" t="s">
         <v>356</v>
@@ -10074,34 +10074,34 @@
     </row>
     <row r="38" spans="1:48" ht="131.25" customHeight="1">
       <c r="A38" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>1152</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>1153</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>1154</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>1155</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>756</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>570</v>
@@ -10119,16 +10119,16 @@
         <v>0.83958333333333324</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="T38" s="10" t="s">
         <v>662</v>
@@ -10137,34 +10137,34 @@
         <v>691</v>
       </c>
       <c r="V38" s="14" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="W38" s="14" t="s">
         <v>689</v>
       </c>
       <c r="X38" s="14" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="Y38" s="14" t="s">
         <v>730</v>
       </c>
       <c r="Z38" s="14" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AA38" s="14" t="s">
         <v>686</v>
       </c>
       <c r="AB38" s="14" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AC38" s="15" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AD38" s="15" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AE38" s="15" t="s">
         <v>1162</v>
-      </c>
-      <c r="AD38" s="15" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AE38" s="15" t="s">
-        <v>1164</v>
       </c>
       <c r="AF38" s="15" t="s">
         <v>410</v>
@@ -10173,7 +10173,7 @@
         <v>164</v>
       </c>
       <c r="AH38" s="15" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AI38" s="15">
         <v>557894</v>
@@ -10188,13 +10188,13 @@
         <v>2988</v>
       </c>
       <c r="AM38" s="16" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AN38" s="16" t="s">
         <v>707</v>
       </c>
       <c r="AO38" s="16" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AP38" s="16" t="s">
         <v>87</v>
@@ -10203,7 +10203,7 @@
         <v>87</v>
       </c>
       <c r="AR38" s="16" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="AS38" s="16" t="s">
         <v>643</v>
@@ -10212,7 +10212,7 @@
         <v>87</v>
       </c>
       <c r="AU38" s="16" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AV38" s="16" t="s">
         <v>641</v>
@@ -10220,34 +10220,34 @@
     </row>
     <row r="39" spans="1:48" ht="131.25" customHeight="1">
       <c r="A39" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>1172</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>1173</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>1174</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>1177</v>
-      </c>
       <c r="J39" s="10" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>570</v>
@@ -10256,70 +10256,70 @@
         <v>619</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="O39" s="18">
         <v>0.83958333333333324</v>
       </c>
       <c r="P39" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>1179</v>
+      </c>
+      <c r="R39" s="10" t="s">
         <v>1180</v>
       </c>
-      <c r="Q39" s="10" t="s">
+      <c r="S39" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="T39" s="10" t="s">
         <v>1181</v>
       </c>
-      <c r="R39" s="10" t="s">
+      <c r="U39" s="14" t="s">
         <v>1182</v>
       </c>
-      <c r="S39" s="10" t="s">
-        <v>1065</v>
-      </c>
-      <c r="T39" s="10" t="s">
+      <c r="V39" s="20" t="s">
         <v>1183</v>
-      </c>
-      <c r="U39" s="14" t="s">
-        <v>1184</v>
-      </c>
-      <c r="V39" s="25" t="s">
-        <v>1185</v>
       </c>
       <c r="W39" s="14" t="s">
         <v>689</v>
       </c>
       <c r="X39" s="14" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="Y39" s="14" t="s">
         <v>730</v>
       </c>
       <c r="Z39" s="14" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AA39" s="14" t="s">
         <v>686</v>
       </c>
       <c r="AB39" s="14" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AC39" s="15" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AD39" s="15" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AE39" s="15" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="AF39" s="15" t="s">
         <v>410</v>
       </c>
       <c r="AG39" s="15" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AH39" s="15" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="AI39" s="15">
         <v>666321</v>
@@ -10334,13 +10334,13 @@
         <v>2645</v>
       </c>
       <c r="AM39" s="16" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AN39" s="16" t="s">
         <v>707</v>
       </c>
       <c r="AO39" s="16" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AP39" s="16" t="s">
         <v>87</v>
@@ -10349,7 +10349,7 @@
         <v>87</v>
       </c>
       <c r="AR39" s="16" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="AS39" s="16" t="s">
         <v>643</v>
@@ -10358,7 +10358,7 @@
         <v>87</v>
       </c>
       <c r="AU39" s="16" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AV39" s="16" t="s">
         <v>641</v>
@@ -10366,10 +10366,10 @@
     </row>
     <row r="40" spans="1:48" ht="131.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>677</v>
@@ -10509,10 +10509,10 @@
     </row>
     <row r="41" spans="1:48" ht="131.25" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>677</v>
@@ -10652,10 +10652,10 @@
     </row>
     <row r="42" spans="1:48" ht="131.25" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>677</v>
@@ -10798,7 +10798,7 @@
         <v>373</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>349</v>
@@ -10944,7 +10944,7 @@
         <v>389</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>390</v>
@@ -11090,7 +11090,7 @@
         <v>418</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>419</v>
@@ -11236,7 +11236,7 @@
         <v>437</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>390</v>
@@ -11382,7 +11382,7 @@
         <v>454</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>390</v>
@@ -11525,34 +11525,34 @@
     </row>
     <row r="48" spans="1:48" ht="131.25" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>1029</v>
+        <v>1226</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>932</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="J48" s="10" t="s">
         <v>1084</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>1086</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>60</v>
@@ -11561,40 +11561,40 @@
         <v>61</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="U48" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V48" s="7" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="W48" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="Y48" s="7" t="s">
         <v>730</v>
@@ -11606,25 +11606,25 @@
         <v>686</v>
       </c>
       <c r="AB48" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AC48" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AD48" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="AC48" s="8" t="s">
+      <c r="AE48" s="8" t="s">
         <v>1095</v>
       </c>
-      <c r="AD48" s="8" t="s">
+      <c r="AF48" s="8" t="s">
         <v>1096</v>
-      </c>
-      <c r="AE48" s="8" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AF48" s="8" t="s">
-        <v>1098</v>
       </c>
       <c r="AG48" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH48" s="8" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AI48" s="8">
         <v>755368</v>
@@ -11639,13 +11639,13 @@
         <v>3061</v>
       </c>
       <c r="AM48" s="9" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AN48" s="9" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AO48" s="9" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="AP48" s="9" t="s">
         <v>162</v>
@@ -11663,7 +11663,7 @@
         <v>162</v>
       </c>
       <c r="AU48" s="9" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AV48" s="9" t="s">
         <v>203</v>
@@ -11671,34 +11671,34 @@
     </row>
     <row r="49" spans="1:48" ht="131.25" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>1108</v>
-      </c>
       <c r="J49" s="10" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>60</v>
@@ -11710,37 +11710,37 @@
         <v>340</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="O49" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="Q49" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="W49" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X49" s="7" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="Y49" s="7" t="s">
         <v>730</v>
@@ -11752,25 +11752,25 @@
         <v>686</v>
       </c>
       <c r="AB49" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AC49" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AD49" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="AC49" s="8" t="s">
+      <c r="AE49" s="8" t="s">
         <v>1095</v>
       </c>
-      <c r="AD49" s="8" t="s">
-        <v>1096</v>
-      </c>
-      <c r="AE49" s="8" t="s">
-        <v>1097</v>
-      </c>
       <c r="AF49" s="8" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AG49" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH49" s="8" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AI49" s="8">
         <v>723645</v>
@@ -11785,13 +11785,13 @@
         <v>3105</v>
       </c>
       <c r="AM49" s="9" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AN49" s="9" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AO49" s="9" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="AP49" s="9" t="s">
         <v>162</v>
@@ -11809,7 +11809,7 @@
         <v>162</v>
       </c>
       <c r="AU49" s="9" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AV49" s="9" t="s">
         <v>203</v>
@@ -11817,34 +11817,34 @@
     </row>
     <row r="50" spans="1:48" ht="131.25" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>1115</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>1117</v>
-      </c>
       <c r="J50" s="10" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>60</v>
@@ -11853,70 +11853,70 @@
         <v>61</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="O50" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P50" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="R50" s="10" t="s">
         <v>1120</v>
       </c>
-      <c r="Q50" s="10" t="s">
+      <c r="S50" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="T50" s="10" t="s">
         <v>1121</v>
       </c>
-      <c r="R50" s="10" t="s">
+      <c r="U50" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="S50" s="10" t="s">
-        <v>1065</v>
-      </c>
-      <c r="T50" s="10" t="s">
+      <c r="V50" s="7" t="s">
         <v>1123</v>
-      </c>
-      <c r="U50" s="7" t="s">
-        <v>1124</v>
-      </c>
-      <c r="V50" s="7" t="s">
-        <v>1125</v>
       </c>
       <c r="W50" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X50" s="7" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="Y50" s="7" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="Z50" s="7" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="AA50" s="7" t="s">
         <v>686</v>
       </c>
       <c r="AB50" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AC50" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AD50" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="AC50" s="8" t="s">
+      <c r="AE50" s="8" t="s">
         <v>1095</v>
       </c>
-      <c r="AD50" s="8" t="s">
+      <c r="AF50" s="8" t="s">
         <v>1096</v>
-      </c>
-      <c r="AE50" s="8" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AF50" s="8" t="s">
-        <v>1098</v>
       </c>
       <c r="AG50" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH50" s="8" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AI50" s="8">
         <v>785648</v>
@@ -11931,13 +11931,13 @@
         <v>3177</v>
       </c>
       <c r="AM50" s="9" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AN50" s="9" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AO50" s="9" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="AP50" s="9" t="s">
         <v>162</v>
@@ -11955,7 +11955,7 @@
         <v>162</v>
       </c>
       <c r="AU50" s="9" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AV50" s="9" t="s">
         <v>203</v>
@@ -11966,7 +11966,7 @@
         <v>237</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>238</v>
@@ -12112,7 +12112,7 @@
         <v>167</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>168</v>
@@ -12246,7 +12246,7 @@
         <v>204</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>168</v>
@@ -12380,7 +12380,7 @@
         <v>223</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>168</v>
@@ -12514,7 +12514,7 @@
         <v>466</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>390</v>
@@ -12657,34 +12657,34 @@
     </row>
     <row r="56" spans="1:48" ht="131.25" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>1130</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>1131</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>1132</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="J56" s="10" t="s">
         <v>1133</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>1134</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>1135</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>60</v>
@@ -12696,34 +12696,34 @@
         <v>340</v>
       </c>
       <c r="N56" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Q56" s="10" t="s">
         <v>1136</v>
       </c>
-      <c r="P56" s="10" t="s">
+      <c r="R56" s="10" t="s">
         <v>1137</v>
       </c>
-      <c r="Q56" s="10" t="s">
+      <c r="S56" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="T56" s="10" t="s">
         <v>1138</v>
       </c>
-      <c r="R56" s="10" t="s">
+      <c r="U56" s="7" t="s">
         <v>1139</v>
       </c>
-      <c r="S56" s="10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="T56" s="10" t="s">
+      <c r="V56" s="7" t="s">
         <v>1140</v>
       </c>
-      <c r="U56" s="7" t="s">
+      <c r="W56" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="X56" s="7" t="s">
         <v>1141</v>
-      </c>
-      <c r="V56" s="7" t="s">
-        <v>1142</v>
-      </c>
-      <c r="W56" s="7" t="s">
-        <v>1068</v>
-      </c>
-      <c r="X56" s="7" t="s">
-        <v>1143</v>
       </c>
       <c r="Y56" s="7" t="s">
         <v>730</v>
@@ -12735,25 +12735,25 @@
         <v>101</v>
       </c>
       <c r="AB56" s="13" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AC56" s="8" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AD56" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AE56" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AF56" s="8" t="s">
         <v>1073</v>
-      </c>
-      <c r="AE56" s="8" t="s">
-        <v>1145</v>
-      </c>
-      <c r="AF56" s="8" t="s">
-        <v>1075</v>
       </c>
       <c r="AG56" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH56" s="8" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AI56" s="8">
         <v>861235</v>
@@ -12771,10 +12771,10 @@
         <v>491</v>
       </c>
       <c r="AN56" s="9" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AO56" s="9" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="AP56" s="9" t="s">
         <v>162</v>
@@ -12892,8 +12892,9 @@
     <hyperlink ref="AB7" r:id="rId82" xr:uid="{DE2AECA6-5FB3-4444-B691-F258AA0A7B82}"/>
     <hyperlink ref="B39" r:id="rId83" xr:uid="{5F7BABB7-9F6A-49AE-97DB-661226398F36}"/>
     <hyperlink ref="B38" r:id="rId84" xr:uid="{55928DE3-7626-4B1A-982F-014101BC8AF9}"/>
+    <hyperlink ref="B32" r:id="rId85" xr:uid="{387D61B4-C456-4712-ADFF-C25F5EA5CF0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
--- a/excel/samsung.xlsx
+++ b/excel/samsung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEST\159\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20EB25F-92AC-4E6F-B523-C878F91A32B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CDC5AF-0354-484A-BC1B-8A3876D31E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7245" yWindow="3000" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -3544,9 +3544,6 @@
     <t>https://ibb.co/3CksZTM</t>
   </si>
   <si>
-    <t>https://ibb.co/GtsWBG5</t>
-  </si>
-  <si>
     <t>https://ibb.co/wrJs0pZ</t>
   </si>
   <si>
@@ -4196,15 +4193,9 @@
     <t>Galaxy A12</t>
   </si>
   <si>
-    <t xml:space="preserve"> Galaxy A20</t>
-  </si>
-  <si>
     <t>Galaxy A20s</t>
   </si>
   <si>
-    <t xml:space="preserve"> Galaxy A21</t>
-  </si>
-  <si>
     <t>Galaxy A21s</t>
   </si>
   <si>
@@ -4262,13 +4253,22 @@
     <t>Galaxy S21 Ultra 5G</t>
   </si>
   <si>
-    <t>Galaxy Z Flip3 5G</t>
-  </si>
-  <si>
     <t>https://ibb.co/nwphzTn</t>
   </si>
   <si>
     <t>https://ibb.co/jDzYXF8</t>
+  </si>
+  <si>
+    <t>Galaxy 21</t>
+  </si>
+  <si>
+    <t>https://ibb.co/tJgnrCJ</t>
+  </si>
+  <si>
+    <t>Galaxy A20</t>
+  </si>
+  <si>
+    <t>Galaxy Z Flip 3</t>
   </si>
 </sst>
 </file>
@@ -4422,7 +4422,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4482,6 +4482,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4815,10 +4824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV56"/>
+  <dimension ref="A1:AV57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="131.25" customHeight="1"/>
@@ -4832,64 +4841,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="36.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="23" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="24" t="s">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="25" t="s">
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
     </row>
     <row r="2" spans="1:48" ht="131.25" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -5039,10 +5048,10 @@
     </row>
     <row r="3" spans="1:48" ht="131.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>810</v>
@@ -5096,7 +5105,7 @@
         <v>797</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>967</v>
@@ -5185,7 +5194,7 @@
     </row>
     <row r="4" spans="1:48" ht="131.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>990</v>
@@ -5242,7 +5251,7 @@
         <v>797</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>612</v>
@@ -5331,7 +5340,7 @@
     </row>
     <row r="5" spans="1:48" ht="131.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>991</v>
@@ -5388,7 +5397,7 @@
         <v>797</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>148</v>
@@ -5477,7 +5486,7 @@
     </row>
     <row r="6" spans="1:48" ht="131.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>992</v>
@@ -5534,7 +5543,7 @@
         <v>797</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>539</v>
@@ -5623,7 +5632,7 @@
     </row>
     <row r="7" spans="1:48" ht="131.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>993</v>
@@ -5680,7 +5689,7 @@
         <v>797</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>927</v>
@@ -5763,7 +5772,7 @@
     </row>
     <row r="8" spans="1:48" ht="131.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>994</v>
@@ -5820,7 +5829,7 @@
         <v>797</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>612</v>
@@ -5841,7 +5850,7 @@
         <v>610</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AB8" s="13" t="s">
         <v>566</v>
@@ -5906,7 +5915,7 @@
     </row>
     <row r="9" spans="1:48" ht="131.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>995</v>
@@ -5963,7 +5972,7 @@
         <v>797</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>542</v>
@@ -5984,7 +5993,7 @@
         <v>588</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AB9" s="13" t="s">
         <v>566</v>
@@ -6049,7 +6058,7 @@
     </row>
     <row r="10" spans="1:48" ht="131.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>1202</v>
+        <v>1225</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>996</v>
@@ -6106,7 +6115,7 @@
         <v>797</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>927</v>
@@ -6127,7 +6136,7 @@
         <v>610</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AB10" s="7" t="s">
         <v>537</v>
@@ -6189,7 +6198,7 @@
     </row>
     <row r="11" spans="1:48" ht="131.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>997</v>
@@ -6246,7 +6255,7 @@
         <v>797</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>913</v>
@@ -6267,7 +6276,7 @@
         <v>610</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AB11" s="7" t="s">
         <v>537</v>
@@ -6332,10 +6341,10 @@
     </row>
     <row r="12" spans="1:48" ht="131.25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>1204</v>
+        <v>1223</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>998</v>
+        <v>1224</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>578</v>
@@ -6389,7 +6398,7 @@
         <v>797</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U12" s="7" t="s">
         <v>568</v>
@@ -6410,7 +6419,7 @@
         <v>564</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AB12" s="7" t="s">
         <v>537</v>
@@ -6475,10 +6484,10 @@
     </row>
     <row r="13" spans="1:48" ht="131.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>557</v>
@@ -6532,7 +6541,7 @@
         <v>797</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U13" s="7" t="s">
         <v>542</v>
@@ -6553,7 +6562,7 @@
         <v>538</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AB13" s="7" t="s">
         <v>537</v>
@@ -6621,7 +6630,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>113</v>
@@ -6675,7 +6684,7 @@
         <v>797</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U14" s="7" t="s">
         <v>125</v>
@@ -6764,10 +6773,10 @@
     </row>
     <row r="15" spans="1:48" ht="131.25" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>677</v>
@@ -6821,7 +6830,7 @@
         <v>797</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>902</v>
@@ -6842,7 +6851,7 @@
         <v>892</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AB15" s="7" t="s">
         <v>537</v>
@@ -6907,10 +6916,10 @@
     </row>
     <row r="16" spans="1:48" ht="131.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>744</v>
@@ -6964,7 +6973,7 @@
         <v>797</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U16" s="7" t="s">
         <v>879</v>
@@ -6985,7 +6994,7 @@
         <v>892</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AB16" s="7" t="s">
         <v>537</v>
@@ -7050,7 +7059,7 @@
         <v>260</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>261</v>
@@ -7104,7 +7113,7 @@
         <v>797</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>125</v>
@@ -7125,7 +7134,7 @@
         <v>270</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AB17" s="13" t="s">
         <v>127</v>
@@ -7196,16 +7205,16 @@
         <v>989</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>934</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>1034</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>1035</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>839</v>
@@ -7214,10 +7223,10 @@
         <v>884</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>1036</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>1037</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>59</v>
@@ -7229,34 +7238,34 @@
         <v>61</v>
       </c>
       <c r="M18" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N18" s="10" t="s">
         <v>1038</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>1039</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>616</v>
       </c>
       <c r="P18" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q18" s="10" t="s">
         <v>1040</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="R18" s="10" t="s">
         <v>1041</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>1042</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>797</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U18" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="V18" s="7" t="s">
         <v>1044</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>1045</v>
       </c>
       <c r="W18" s="7" t="s">
         <v>818</v>
@@ -7265,10 +7274,10 @@
         <v>566</v>
       </c>
       <c r="Y18" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Z18" s="7" t="s">
         <v>1046</v>
-      </c>
-      <c r="Z18" s="7" t="s">
-        <v>1047</v>
       </c>
       <c r="AA18" s="7" t="s">
         <v>75</v>
@@ -7283,7 +7292,7 @@
         <v>891</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AF18" s="8" t="s">
         <v>889</v>
@@ -7292,7 +7301,7 @@
         <v>811</v>
       </c>
       <c r="AH18" s="8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AI18" s="8">
         <v>186642</v>
@@ -7313,7 +7322,7 @@
         <v>605</v>
       </c>
       <c r="AO18" s="9" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AP18" s="9" t="s">
         <v>162</v>
@@ -7342,7 +7351,7 @@
         <v>277</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>278</v>
@@ -7396,7 +7405,7 @@
         <v>797</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>288</v>
@@ -7488,7 +7497,7 @@
         <v>298</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>299</v>
@@ -7542,7 +7551,7 @@
         <v>797</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>125</v>
@@ -7631,10 +7640,10 @@
     </row>
     <row r="21" spans="1:48" ht="131.25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>677</v>
@@ -7688,7 +7697,7 @@
         <v>797</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>879</v>
@@ -7774,10 +7783,10 @@
     </row>
     <row r="22" spans="1:48" ht="131.25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>744</v>
@@ -7831,7 +7840,7 @@
         <v>797</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U22" s="7" t="s">
         <v>863</v>
@@ -7917,10 +7926,10 @@
     </row>
     <row r="23" spans="1:48" ht="131.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>810</v>
@@ -7974,7 +7983,7 @@
         <v>797</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>542</v>
@@ -8063,7 +8072,7 @@
         <v>318</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>319</v>
@@ -8117,7 +8126,7 @@
         <v>797</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>125</v>
@@ -8209,7 +8218,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>52</v>
@@ -8352,10 +8361,10 @@
     </row>
     <row r="26" spans="1:48" ht="131.25" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>842</v>
@@ -8409,7 +8418,7 @@
         <v>797</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U26" s="7" t="s">
         <v>835</v>
@@ -8495,10 +8504,10 @@
     </row>
     <row r="27" spans="1:48" ht="131.25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>829</v>
@@ -8552,7 +8561,7 @@
         <v>797</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>820</v>
@@ -8632,10 +8641,10 @@
     </row>
     <row r="28" spans="1:48" ht="131.25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>810</v>
@@ -8689,7 +8698,7 @@
         <v>797</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U28" s="7" t="s">
         <v>796</v>
@@ -8778,7 +8787,7 @@
         <v>336</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>319</v>
@@ -8832,7 +8841,7 @@
         <v>797</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -8924,7 +8933,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>52</v>
@@ -9070,7 +9079,7 @@
         <v>977</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>52</v>
@@ -9213,10 +9222,10 @@
     </row>
     <row r="32" spans="1:48" ht="131.25" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>677</v>
@@ -9228,7 +9237,7 @@
         <v>782</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>781</v>
@@ -9267,7 +9276,7 @@
         <v>774</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="T32" s="10" t="s">
         <v>773</v>
@@ -9353,7 +9362,7 @@
         <v>494</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>368</v>
@@ -9496,31 +9505,31 @@
     </row>
     <row r="34" spans="1:48" ht="131.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>1056</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>1057</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>500</v>
@@ -9532,70 +9541,70 @@
         <v>61</v>
       </c>
       <c r="M34" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N34" s="10" t="s">
         <v>1058</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>1059</v>
       </c>
       <c r="O34" s="10" t="s">
         <v>503</v>
       </c>
       <c r="P34" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q34" s="10" t="s">
         <v>1060</v>
       </c>
-      <c r="Q34" s="10" t="s">
+      <c r="R34" s="10" t="s">
         <v>1061</v>
       </c>
-      <c r="R34" s="10" t="s">
+      <c r="S34" s="10" t="s">
         <v>1062</v>
       </c>
-      <c r="S34" s="10" t="s">
+      <c r="T34" s="10" t="s">
         <v>1063</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>1064</v>
       </c>
       <c r="U34" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V34" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="W34" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="W34" s="7" t="s">
+      <c r="X34" s="7" t="s">
         <v>1066</v>
-      </c>
-      <c r="X34" s="7" t="s">
-        <v>1067</v>
       </c>
       <c r="Y34" s="7" t="s">
         <v>893</v>
       </c>
       <c r="Z34" s="7" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AA34" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AB34" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AC34" s="8" t="s">
         <v>1069</v>
       </c>
-      <c r="AC34" s="8" t="s">
+      <c r="AD34" s="8" t="s">
         <v>1070</v>
       </c>
-      <c r="AD34" s="8" t="s">
+      <c r="AE34" s="8" t="s">
         <v>1071</v>
       </c>
-      <c r="AE34" s="8" t="s">
+      <c r="AF34" s="8" t="s">
         <v>1072</v>
-      </c>
-      <c r="AF34" s="8" t="s">
-        <v>1073</v>
       </c>
       <c r="AG34" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH34" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AI34" s="8">
         <v>780874</v>
@@ -9613,10 +9622,10 @@
         <v>491</v>
       </c>
       <c r="AN34" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AO34" s="9" t="s">
         <v>1075</v>
-      </c>
-      <c r="AO34" s="9" t="s">
-        <v>1076</v>
       </c>
       <c r="AP34" s="9" t="s">
         <v>162</v>
@@ -9634,7 +9643,7 @@
         <v>162</v>
       </c>
       <c r="AU34" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AV34" s="9" t="s">
         <v>522</v>
@@ -9642,10 +9651,10 @@
     </row>
     <row r="35" spans="1:48" ht="131.25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>744</v>
@@ -9785,10 +9794,10 @@
     </row>
     <row r="36" spans="1:48" ht="131.25" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>744</v>
@@ -9931,7 +9940,7 @@
         <v>348</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>349</v>
@@ -9982,7 +9991,7 @@
         <v>67</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="T37" s="10" t="s">
         <v>356</v>
@@ -10074,34 +10083,34 @@
     </row>
     <row r="38" spans="1:48" ht="131.25" customHeight="1">
       <c r="A38" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>1152</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>1153</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>756</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>570</v>
@@ -10119,16 +10128,16 @@
         <v>0.83958333333333324</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="T38" s="10" t="s">
         <v>662</v>
@@ -10137,34 +10146,34 @@
         <v>691</v>
       </c>
       <c r="V38" s="14" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W38" s="14" t="s">
         <v>689</v>
       </c>
       <c r="X38" s="14" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Y38" s="14" t="s">
         <v>730</v>
       </c>
       <c r="Z38" s="14" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AA38" s="14" t="s">
         <v>686</v>
       </c>
       <c r="AB38" s="14" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AC38" s="15" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AD38" s="15" t="s">
         <v>1160</v>
       </c>
-      <c r="AD38" s="15" t="s">
+      <c r="AE38" s="15" t="s">
         <v>1161</v>
-      </c>
-      <c r="AE38" s="15" t="s">
-        <v>1162</v>
       </c>
       <c r="AF38" s="15" t="s">
         <v>410</v>
@@ -10173,7 +10182,7 @@
         <v>164</v>
       </c>
       <c r="AH38" s="15" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AI38" s="15">
         <v>557894</v>
@@ -10188,13 +10197,13 @@
         <v>2988</v>
       </c>
       <c r="AM38" s="16" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AN38" s="16" t="s">
         <v>707</v>
       </c>
       <c r="AO38" s="16" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AP38" s="16" t="s">
         <v>87</v>
@@ -10203,7 +10212,7 @@
         <v>87</v>
       </c>
       <c r="AR38" s="16" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AS38" s="16" t="s">
         <v>643</v>
@@ -10212,7 +10221,7 @@
         <v>87</v>
       </c>
       <c r="AU38" s="16" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AV38" s="16" t="s">
         <v>641</v>
@@ -10220,34 +10229,34 @@
     </row>
     <row r="39" spans="1:48" ht="131.25" customHeight="1">
       <c r="A39" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>1168</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>1172</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>1173</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>1174</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>1175</v>
-      </c>
       <c r="J39" s="10" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>570</v>
@@ -10256,70 +10265,70 @@
         <v>619</v>
       </c>
       <c r="M39" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N39" s="10" t="s">
         <v>1176</v>
-      </c>
-      <c r="N39" s="10" t="s">
-        <v>1177</v>
       </c>
       <c r="O39" s="18">
         <v>0.83958333333333324</v>
       </c>
       <c r="P39" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="Q39" s="10" t="s">
         <v>1178</v>
       </c>
-      <c r="Q39" s="10" t="s">
+      <c r="R39" s="10" t="s">
         <v>1179</v>
       </c>
-      <c r="R39" s="10" t="s">
+      <c r="S39" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="T39" s="10" t="s">
         <v>1180</v>
       </c>
-      <c r="S39" s="10" t="s">
-        <v>1063</v>
-      </c>
-      <c r="T39" s="10" t="s">
+      <c r="U39" s="14" t="s">
         <v>1181</v>
       </c>
-      <c r="U39" s="14" t="s">
+      <c r="V39" s="20" t="s">
         <v>1182</v>
-      </c>
-      <c r="V39" s="20" t="s">
-        <v>1183</v>
       </c>
       <c r="W39" s="14" t="s">
         <v>689</v>
       </c>
       <c r="X39" s="14" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Y39" s="14" t="s">
         <v>730</v>
       </c>
       <c r="Z39" s="14" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AA39" s="14" t="s">
         <v>686</v>
       </c>
       <c r="AB39" s="14" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AC39" s="15" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AD39" s="15" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AE39" s="15" t="s">
         <v>1184</v>
-      </c>
-      <c r="AE39" s="15" t="s">
-        <v>1185</v>
       </c>
       <c r="AF39" s="15" t="s">
         <v>410</v>
       </c>
       <c r="AG39" s="15" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AH39" s="15" t="s">
         <v>1186</v>
-      </c>
-      <c r="AH39" s="15" t="s">
-        <v>1187</v>
       </c>
       <c r="AI39" s="15">
         <v>666321</v>
@@ -10334,13 +10343,13 @@
         <v>2645</v>
       </c>
       <c r="AM39" s="16" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AN39" s="16" t="s">
         <v>707</v>
       </c>
       <c r="AO39" s="16" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AP39" s="16" t="s">
         <v>87</v>
@@ -10349,7 +10358,7 @@
         <v>87</v>
       </c>
       <c r="AR39" s="16" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AS39" s="16" t="s">
         <v>643</v>
@@ -10358,7 +10367,7 @@
         <v>87</v>
       </c>
       <c r="AU39" s="16" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AV39" s="16" t="s">
         <v>641</v>
@@ -10366,10 +10375,10 @@
     </row>
     <row r="40" spans="1:48" ht="131.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>677</v>
@@ -10509,10 +10518,10 @@
     </row>
     <row r="41" spans="1:48" ht="131.25" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>677</v>
@@ -10652,10 +10661,10 @@
     </row>
     <row r="42" spans="1:48" ht="131.25" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>677</v>
@@ -10798,7 +10807,7 @@
         <v>373</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>349</v>
@@ -10944,7 +10953,7 @@
         <v>389</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>390</v>
@@ -11090,7 +11099,7 @@
         <v>418</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>419</v>
@@ -11236,7 +11245,7 @@
         <v>437</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>390</v>
@@ -11382,7 +11391,7 @@
         <v>454</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>390</v>
@@ -11525,34 +11534,34 @@
     </row>
     <row r="48" spans="1:48" ht="131.25" customHeight="1">
       <c r="A48" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B48" s="17" t="s">
         <v>1222</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>1226</v>
-      </c>
       <c r="C48" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>1078</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>1079</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>932</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>1080</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="J48" s="10" t="s">
         <v>1083</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>1084</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>60</v>
@@ -11561,40 +11570,40 @@
         <v>61</v>
       </c>
       <c r="M48" s="10" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N48" s="10" t="s">
         <v>1085</v>
-      </c>
-      <c r="N48" s="10" t="s">
-        <v>1086</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R48" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="S48" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="T48" s="10" t="s">
         <v>1088</v>
-      </c>
-      <c r="S48" s="10" t="s">
-        <v>1063</v>
-      </c>
-      <c r="T48" s="10" t="s">
-        <v>1089</v>
       </c>
       <c r="U48" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V48" s="7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="W48" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="Y48" s="7" t="s">
         <v>730</v>
@@ -11606,25 +11615,25 @@
         <v>686</v>
       </c>
       <c r="AB48" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AC48" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="AC48" s="8" t="s">
+      <c r="AD48" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="AD48" s="8" t="s">
+      <c r="AE48" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="AE48" s="8" t="s">
+      <c r="AF48" s="8" t="s">
         <v>1095</v>
-      </c>
-      <c r="AF48" s="8" t="s">
-        <v>1096</v>
       </c>
       <c r="AG48" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH48" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AI48" s="8">
         <v>755368</v>
@@ -11639,13 +11648,13 @@
         <v>3061</v>
       </c>
       <c r="AM48" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AN48" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AO48" s="9" t="s">
         <v>1098</v>
-      </c>
-      <c r="AN48" s="9" t="s">
-        <v>1075</v>
-      </c>
-      <c r="AO48" s="9" t="s">
-        <v>1099</v>
       </c>
       <c r="AP48" s="9" t="s">
         <v>162</v>
@@ -11663,7 +11672,7 @@
         <v>162</v>
       </c>
       <c r="AU48" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AV48" s="9" t="s">
         <v>203</v>
@@ -11671,34 +11680,34 @@
     </row>
     <row r="49" spans="1:48" ht="131.25" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>1106</v>
-      </c>
       <c r="J49" s="10" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>60</v>
@@ -11710,37 +11719,37 @@
         <v>340</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="O49" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Q49" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="W49" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X49" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="Y49" s="7" t="s">
         <v>730</v>
@@ -11752,25 +11761,25 @@
         <v>686</v>
       </c>
       <c r="AB49" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AC49" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="AC49" s="8" t="s">
+      <c r="AD49" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="AD49" s="8" t="s">
+      <c r="AE49" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="AE49" s="8" t="s">
-        <v>1095</v>
-      </c>
       <c r="AF49" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AG49" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH49" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AI49" s="8">
         <v>723645</v>
@@ -11785,13 +11794,13 @@
         <v>3105</v>
       </c>
       <c r="AM49" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AN49" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AO49" s="9" t="s">
         <v>1098</v>
-      </c>
-      <c r="AN49" s="9" t="s">
-        <v>1075</v>
-      </c>
-      <c r="AO49" s="9" t="s">
-        <v>1099</v>
       </c>
       <c r="AP49" s="9" t="s">
         <v>162</v>
@@ -11809,7 +11818,7 @@
         <v>162</v>
       </c>
       <c r="AU49" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AV49" s="9" t="s">
         <v>203</v>
@@ -11817,34 +11826,34 @@
     </row>
     <row r="50" spans="1:48" ht="131.25" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>1103</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>1115</v>
-      </c>
       <c r="J50" s="10" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>60</v>
@@ -11853,70 +11862,70 @@
         <v>61</v>
       </c>
       <c r="M50" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N50" s="10" t="s">
         <v>1116</v>
-      </c>
-      <c r="N50" s="10" t="s">
-        <v>1117</v>
       </c>
       <c r="O50" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P50" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="Q50" s="10" t="s">
         <v>1118</v>
       </c>
-      <c r="Q50" s="10" t="s">
+      <c r="R50" s="10" t="s">
         <v>1119</v>
       </c>
-      <c r="R50" s="10" t="s">
+      <c r="S50" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="T50" s="10" t="s">
         <v>1120</v>
       </c>
-      <c r="S50" s="10" t="s">
-        <v>1063</v>
-      </c>
-      <c r="T50" s="10" t="s">
+      <c r="U50" s="7" t="s">
         <v>1121</v>
       </c>
-      <c r="U50" s="7" t="s">
+      <c r="V50" s="7" t="s">
         <v>1122</v>
-      </c>
-      <c r="V50" s="7" t="s">
-        <v>1123</v>
       </c>
       <c r="W50" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X50" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="Y50" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Z50" s="7" t="s">
         <v>1124</v>
-      </c>
-      <c r="Z50" s="7" t="s">
-        <v>1125</v>
       </c>
       <c r="AA50" s="7" t="s">
         <v>686</v>
       </c>
       <c r="AB50" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AC50" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="AC50" s="8" t="s">
+      <c r="AD50" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="AD50" s="8" t="s">
+      <c r="AE50" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="AE50" s="8" t="s">
+      <c r="AF50" s="8" t="s">
         <v>1095</v>
-      </c>
-      <c r="AF50" s="8" t="s">
-        <v>1096</v>
       </c>
       <c r="AG50" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH50" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AI50" s="8">
         <v>785648</v>
@@ -11931,13 +11940,13 @@
         <v>3177</v>
       </c>
       <c r="AM50" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AN50" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AO50" s="9" t="s">
         <v>1098</v>
-      </c>
-      <c r="AN50" s="9" t="s">
-        <v>1075</v>
-      </c>
-      <c r="AO50" s="9" t="s">
-        <v>1099</v>
       </c>
       <c r="AP50" s="9" t="s">
         <v>162</v>
@@ -11955,7 +11964,7 @@
         <v>162</v>
       </c>
       <c r="AU50" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AV50" s="9" t="s">
         <v>203</v>
@@ -11966,7 +11975,7 @@
         <v>237</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>238</v>
@@ -12112,7 +12121,7 @@
         <v>167</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>168</v>
@@ -12246,7 +12255,7 @@
         <v>204</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>168</v>
@@ -12380,7 +12389,7 @@
         <v>223</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>168</v>
@@ -12514,7 +12523,7 @@
         <v>466</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>390</v>
@@ -12657,34 +12666,34 @@
     </row>
     <row r="56" spans="1:48" ht="131.25" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>1130</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>1131</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="J56" s="10" t="s">
         <v>1132</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>1133</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>60</v>
@@ -12696,107 +12705,111 @@
         <v>340</v>
       </c>
       <c r="N56" s="10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="P56" s="10" t="s">
         <v>1134</v>
       </c>
-      <c r="P56" s="10" t="s">
+      <c r="Q56" s="10" t="s">
         <v>1135</v>
       </c>
-      <c r="Q56" s="10" t="s">
+      <c r="R56" s="10" t="s">
         <v>1136</v>
       </c>
-      <c r="R56" s="10" t="s">
+      <c r="S56" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="T56" s="10" t="s">
         <v>1137</v>
       </c>
-      <c r="S56" s="10" t="s">
-        <v>1145</v>
-      </c>
-      <c r="T56" s="10" t="s">
+      <c r="U56" s="21" t="s">
         <v>1138</v>
       </c>
-      <c r="U56" s="7" t="s">
+      <c r="V56" s="21" t="s">
         <v>1139</v>
       </c>
-      <c r="V56" s="7" t="s">
+      <c r="W56" s="21" t="s">
+        <v>1065</v>
+      </c>
+      <c r="X56" s="21" t="s">
         <v>1140</v>
       </c>
-      <c r="W56" s="7" t="s">
-        <v>1066</v>
-      </c>
-      <c r="X56" s="7" t="s">
+      <c r="Y56" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="Z56" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA56" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB56" s="13" t="s">
         <v>1141</v>
       </c>
-      <c r="Y56" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="Z56" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA56" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB56" s="13" t="s">
+      <c r="AC56" s="22" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AD56" s="22" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AE56" s="22" t="s">
         <v>1142</v>
       </c>
-      <c r="AC56" s="8" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AD56" s="8" t="s">
-        <v>1071</v>
-      </c>
-      <c r="AE56" s="8" t="s">
+      <c r="AF56" s="22" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AG56" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH56" s="22" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AI56" s="22">
+        <v>861235</v>
+      </c>
+      <c r="AJ56" s="22">
+        <v>785493</v>
+      </c>
+      <c r="AK56" s="22">
+        <v>1015</v>
+      </c>
+      <c r="AL56" s="22">
+        <v>3161</v>
+      </c>
+      <c r="AM56" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="AN56" s="23" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AO56" s="23" t="s">
         <v>1143</v>
       </c>
-      <c r="AF56" s="8" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AG56" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH56" s="8" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AI56" s="8">
-        <v>861235</v>
-      </c>
-      <c r="AJ56" s="8">
-        <v>785493</v>
-      </c>
-      <c r="AK56" s="8">
-        <v>1015</v>
-      </c>
-      <c r="AL56" s="8">
-        <v>3161</v>
-      </c>
-      <c r="AM56" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="AN56" s="9" t="s">
-        <v>1075</v>
-      </c>
-      <c r="AO56" s="9" t="s">
-        <v>1144</v>
-      </c>
-      <c r="AP56" s="9" t="s">
+      <c r="AP56" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="AQ56" s="9" t="s">
+      <c r="AQ56" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="AR56" s="9" t="s">
+      <c r="AR56" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AS56" s="9" t="s">
+      <c r="AS56" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="AT56" s="9" t="s">
+      <c r="AT56" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="AU56" s="9" t="s">
+      <c r="AU56" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="AV56" s="9" t="s">
+      <c r="AV56" s="23" t="s">
         <v>203</v>
       </c>
+    </row>
+    <row r="57" spans="1:48" ht="131.25" customHeight="1">
+      <c r="B57" s="17"/>
+      <c r="AB57" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12883,16 +12896,16 @@
     <hyperlink ref="B53" r:id="rId73" xr:uid="{1D14CA6B-ECF7-4A74-8E40-996F1DA35ECE}"/>
     <hyperlink ref="B54" r:id="rId74" xr:uid="{DBFE28CA-47BA-46B4-A868-3FA67C9028B4}"/>
     <hyperlink ref="B55" r:id="rId75" xr:uid="{5603A6BA-58C5-4740-8864-4FD734664CAF}"/>
-    <hyperlink ref="B56" r:id="rId76" xr:uid="{19FA0033-BB6C-4314-A373-70BA8E9239D6}"/>
-    <hyperlink ref="X18" r:id="rId77" xr:uid="{347A6128-A57B-4424-B511-9F06EAAF0509}"/>
-    <hyperlink ref="AB18" r:id="rId78" xr:uid="{7BBC1BCE-C54B-4400-9913-89E168858554}"/>
-    <hyperlink ref="AB56" r:id="rId79" xr:uid="{50E71A7A-ABC7-4875-B76C-2FC62723E67B}"/>
-    <hyperlink ref="AB4" r:id="rId80" xr:uid="{D83F1C5E-D2FD-4642-98AC-782531AF5D01}"/>
-    <hyperlink ref="AB6" r:id="rId81" xr:uid="{6FC83A04-7AA3-4251-91DF-203043F7F2BE}"/>
-    <hyperlink ref="AB7" r:id="rId82" xr:uid="{DE2AECA6-5FB3-4444-B691-F258AA0A7B82}"/>
-    <hyperlink ref="B39" r:id="rId83" xr:uid="{5F7BABB7-9F6A-49AE-97DB-661226398F36}"/>
-    <hyperlink ref="B38" r:id="rId84" xr:uid="{55928DE3-7626-4B1A-982F-014101BC8AF9}"/>
-    <hyperlink ref="B32" r:id="rId85" xr:uid="{387D61B4-C456-4712-ADFF-C25F5EA5CF0A}"/>
+    <hyperlink ref="X18" r:id="rId76" xr:uid="{347A6128-A57B-4424-B511-9F06EAAF0509}"/>
+    <hyperlink ref="AB18" r:id="rId77" xr:uid="{7BBC1BCE-C54B-4400-9913-89E168858554}"/>
+    <hyperlink ref="AB4" r:id="rId78" xr:uid="{D83F1C5E-D2FD-4642-98AC-782531AF5D01}"/>
+    <hyperlink ref="AB6" r:id="rId79" xr:uid="{6FC83A04-7AA3-4251-91DF-203043F7F2BE}"/>
+    <hyperlink ref="AB7" r:id="rId80" xr:uid="{DE2AECA6-5FB3-4444-B691-F258AA0A7B82}"/>
+    <hyperlink ref="B39" r:id="rId81" xr:uid="{5F7BABB7-9F6A-49AE-97DB-661226398F36}"/>
+    <hyperlink ref="B38" r:id="rId82" xr:uid="{55928DE3-7626-4B1A-982F-014101BC8AF9}"/>
+    <hyperlink ref="B32" r:id="rId83" xr:uid="{387D61B4-C456-4712-ADFF-C25F5EA5CF0A}"/>
+    <hyperlink ref="B56" r:id="rId84" xr:uid="{E3D076F3-D6A7-42D2-B127-75ED12AB429B}"/>
+    <hyperlink ref="AB56" r:id="rId85" xr:uid="{CFCE0A2E-D256-4124-A68C-63C52A54091F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>

--- a/excel/samsung.xlsx
+++ b/excel/samsung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEST\159\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CDC5AF-0354-484A-BC1B-8A3876D31E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767134D0-9A3D-41F8-950B-9186F6F56A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7245" yWindow="3000" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="1226">
   <si>
     <t>Общие Характеристики</t>
   </si>
@@ -3520,9 +3520,6 @@
     <t>Galaxy A40</t>
   </si>
   <si>
-    <t>https://ibb.co/qRtP4xQ</t>
-  </si>
-  <si>
     <t>https://ibb.co/rpz213b</t>
   </si>
   <si>
@@ -3572,9 +3569,6 @@
   </si>
   <si>
     <t>https://ibb.co/42VRN3v</t>
-  </si>
-  <si>
-    <t>https://ibb.co/hdRSz7s</t>
   </si>
   <si>
     <t>https://ibb.co/Qb5FGJJ</t>
@@ -4269,6 +4263,9 @@
   </si>
   <si>
     <t>Galaxy Z Flip 3</t>
+  </si>
+  <si>
+    <t>https://ibb.co/ScsjBNG</t>
   </si>
 </sst>
 </file>
@@ -4826,8 +4823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD57"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="131.25" customHeight="1"/>
@@ -5048,10 +5045,10 @@
     </row>
     <row r="3" spans="1:48" ht="131.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>810</v>
@@ -5105,7 +5102,7 @@
         <v>797</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>967</v>
@@ -5194,10 +5191,10 @@
     </row>
     <row r="4" spans="1:48" ht="131.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>990</v>
+        <v>1193</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1225</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>601</v>
@@ -5251,7 +5248,7 @@
         <v>797</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>612</v>
@@ -5340,10 +5337,10 @@
     </row>
     <row r="5" spans="1:48" ht="131.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>140</v>
@@ -5397,7 +5394,7 @@
         <v>797</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>148</v>
@@ -5486,10 +5483,10 @@
     </row>
     <row r="6" spans="1:48" ht="131.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>677</v>
@@ -5543,7 +5540,7 @@
         <v>797</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>539</v>
@@ -5632,10 +5629,10 @@
     </row>
     <row r="7" spans="1:48" ht="131.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>744</v>
@@ -5689,7 +5686,7 @@
         <v>797</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>927</v>
@@ -5772,10 +5769,10 @@
     </row>
     <row r="8" spans="1:48" ht="131.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>624</v>
@@ -5829,7 +5826,7 @@
         <v>797</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>612</v>
@@ -5850,7 +5847,7 @@
         <v>610</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AB8" s="13" t="s">
         <v>566</v>
@@ -5915,10 +5912,10 @@
     </row>
     <row r="9" spans="1:48" ht="131.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>601</v>
@@ -5972,7 +5969,7 @@
         <v>797</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>542</v>
@@ -5993,7 +5990,7 @@
         <v>588</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AB9" s="13" t="s">
         <v>566</v>
@@ -6058,10 +6055,10 @@
     </row>
     <row r="10" spans="1:48" ht="131.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>934</v>
@@ -6115,7 +6112,7 @@
         <v>797</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>927</v>
@@ -6136,7 +6133,7 @@
         <v>610</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AB10" s="7" t="s">
         <v>537</v>
@@ -6198,10 +6195,10 @@
     </row>
     <row r="11" spans="1:48" ht="131.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>920</v>
@@ -6255,7 +6252,7 @@
         <v>797</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>913</v>
@@ -6276,7 +6273,7 @@
         <v>610</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AB11" s="7" t="s">
         <v>537</v>
@@ -6341,10 +6338,10 @@
     </row>
     <row r="12" spans="1:48" ht="131.25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>578</v>
@@ -6398,7 +6395,7 @@
         <v>797</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U12" s="7" t="s">
         <v>568</v>
@@ -6419,7 +6416,7 @@
         <v>564</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AB12" s="7" t="s">
         <v>537</v>
@@ -6484,10 +6481,10 @@
     </row>
     <row r="13" spans="1:48" ht="131.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>557</v>
@@ -6541,7 +6538,7 @@
         <v>797</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U13" s="7" t="s">
         <v>542</v>
@@ -6562,7 +6559,7 @@
         <v>538</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AB13" s="7" t="s">
         <v>537</v>
@@ -6630,7 +6627,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>113</v>
@@ -6684,7 +6681,7 @@
         <v>797</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U14" s="7" t="s">
         <v>125</v>
@@ -6773,10 +6770,10 @@
     </row>
     <row r="15" spans="1:48" ht="131.25" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>677</v>
@@ -6830,7 +6827,7 @@
         <v>797</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>902</v>
@@ -6851,7 +6848,7 @@
         <v>892</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AB15" s="7" t="s">
         <v>537</v>
@@ -6916,10 +6913,10 @@
     </row>
     <row r="16" spans="1:48" ht="131.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>744</v>
@@ -6973,7 +6970,7 @@
         <v>797</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U16" s="7" t="s">
         <v>879</v>
@@ -6994,7 +6991,7 @@
         <v>892</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AB16" s="7" t="s">
         <v>537</v>
@@ -7059,7 +7056,7 @@
         <v>260</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>261</v>
@@ -7113,7 +7110,7 @@
         <v>797</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>125</v>
@@ -7134,7 +7131,7 @@
         <v>270</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AB17" s="13" t="s">
         <v>127</v>
@@ -7205,16 +7202,16 @@
         <v>989</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>934</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>839</v>
@@ -7223,10 +7220,10 @@
         <v>884</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>59</v>
@@ -7238,34 +7235,34 @@
         <v>61</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>616</v>
       </c>
       <c r="P18" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>1039</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>1040</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>1041</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>797</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="W18" s="7" t="s">
         <v>818</v>
@@ -7274,10 +7271,10 @@
         <v>566</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AA18" s="7" t="s">
         <v>75</v>
@@ -7292,7 +7289,7 @@
         <v>891</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="AF18" s="8" t="s">
         <v>889</v>
@@ -7301,7 +7298,7 @@
         <v>811</v>
       </c>
       <c r="AH18" s="8" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AI18" s="8">
         <v>186642</v>
@@ -7322,7 +7319,7 @@
         <v>605</v>
       </c>
       <c r="AO18" s="9" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AP18" s="9" t="s">
         <v>162</v>
@@ -7351,7 +7348,7 @@
         <v>277</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>278</v>
@@ -7405,7 +7402,7 @@
         <v>797</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>288</v>
@@ -7497,7 +7494,7 @@
         <v>298</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>299</v>
@@ -7551,7 +7548,7 @@
         <v>797</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>125</v>
@@ -7640,10 +7637,10 @@
     </row>
     <row r="21" spans="1:48" ht="131.25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>677</v>
@@ -7697,7 +7694,7 @@
         <v>797</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>879</v>
@@ -7783,10 +7780,10 @@
     </row>
     <row r="22" spans="1:48" ht="131.25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>744</v>
@@ -7840,7 +7837,7 @@
         <v>797</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U22" s="7" t="s">
         <v>863</v>
@@ -7926,10 +7923,10 @@
     </row>
     <row r="23" spans="1:48" ht="131.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>810</v>
@@ -7983,7 +7980,7 @@
         <v>797</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>542</v>
@@ -8072,7 +8069,7 @@
         <v>318</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>319</v>
@@ -8126,7 +8123,7 @@
         <v>797</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>125</v>
@@ -8218,7 +8215,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>52</v>
@@ -8361,10 +8358,10 @@
     </row>
     <row r="26" spans="1:48" ht="131.25" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>842</v>
@@ -8418,7 +8415,7 @@
         <v>797</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U26" s="7" t="s">
         <v>835</v>
@@ -8504,10 +8501,10 @@
     </row>
     <row r="27" spans="1:48" ht="131.25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>829</v>
@@ -8561,7 +8558,7 @@
         <v>797</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>820</v>
@@ -8641,10 +8638,10 @@
     </row>
     <row r="28" spans="1:48" ht="131.25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>810</v>
@@ -8698,7 +8695,7 @@
         <v>797</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U28" s="7" t="s">
         <v>796</v>
@@ -8787,7 +8784,7 @@
         <v>336</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>319</v>
@@ -8841,7 +8838,7 @@
         <v>797</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -8933,7 +8930,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>52</v>
@@ -9079,7 +9076,7 @@
         <v>977</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>52</v>
@@ -9222,10 +9219,10 @@
     </row>
     <row r="32" spans="1:48" ht="131.25" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>677</v>
@@ -9237,7 +9234,7 @@
         <v>782</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>781</v>
@@ -9276,7 +9273,7 @@
         <v>774</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="T32" s="10" t="s">
         <v>773</v>
@@ -9362,7 +9359,7 @@
         <v>494</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>368</v>
@@ -9505,31 +9502,31 @@
     </row>
     <row r="34" spans="1:48" ht="131.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>1054</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>1056</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>500</v>
@@ -9541,70 +9538,70 @@
         <v>61</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="O34" s="10" t="s">
         <v>503</v>
       </c>
       <c r="P34" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R34" s="10" t="s">
         <v>1059</v>
       </c>
-      <c r="Q34" s="10" t="s">
+      <c r="S34" s="10" t="s">
         <v>1060</v>
       </c>
-      <c r="R34" s="10" t="s">
+      <c r="T34" s="10" t="s">
         <v>1061</v>
-      </c>
-      <c r="S34" s="10" t="s">
-        <v>1062</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>1063</v>
       </c>
       <c r="U34" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V34" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="X34" s="7" t="s">
         <v>1064</v>
-      </c>
-      <c r="W34" s="7" t="s">
-        <v>1065</v>
-      </c>
-      <c r="X34" s="7" t="s">
-        <v>1066</v>
       </c>
       <c r="Y34" s="7" t="s">
         <v>893</v>
       </c>
       <c r="Z34" s="7" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AA34" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AB34" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AC34" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AD34" s="8" t="s">
         <v>1068</v>
       </c>
-      <c r="AC34" s="8" t="s">
+      <c r="AE34" s="8" t="s">
         <v>1069</v>
       </c>
-      <c r="AD34" s="8" t="s">
+      <c r="AF34" s="8" t="s">
         <v>1070</v>
-      </c>
-      <c r="AE34" s="8" t="s">
-        <v>1071</v>
-      </c>
-      <c r="AF34" s="8" t="s">
-        <v>1072</v>
       </c>
       <c r="AG34" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH34" s="8" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AI34" s="8">
         <v>780874</v>
@@ -9622,10 +9619,10 @@
         <v>491</v>
       </c>
       <c r="AN34" s="9" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AO34" s="9" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AP34" s="9" t="s">
         <v>162</v>
@@ -9643,7 +9640,7 @@
         <v>162</v>
       </c>
       <c r="AU34" s="9" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AV34" s="9" t="s">
         <v>522</v>
@@ -9651,10 +9648,10 @@
     </row>
     <row r="35" spans="1:48" ht="131.25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>744</v>
@@ -9794,10 +9791,10 @@
     </row>
     <row r="36" spans="1:48" ht="131.25" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>744</v>
@@ -9940,7 +9937,7 @@
         <v>348</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>349</v>
@@ -9991,7 +9988,7 @@
         <v>67</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="T37" s="10" t="s">
         <v>356</v>
@@ -10083,34 +10080,34 @@
     </row>
     <row r="38" spans="1:48" ht="131.25" customHeight="1">
       <c r="A38" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>1146</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>1150</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>1152</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>756</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>570</v>
@@ -10128,16 +10125,16 @@
         <v>0.83958333333333324</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="T38" s="10" t="s">
         <v>662</v>
@@ -10146,34 +10143,34 @@
         <v>691</v>
       </c>
       <c r="V38" s="14" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="W38" s="14" t="s">
         <v>689</v>
       </c>
       <c r="X38" s="14" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="Y38" s="14" t="s">
         <v>730</v>
       </c>
       <c r="Z38" s="14" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AA38" s="14" t="s">
         <v>686</v>
       </c>
       <c r="AB38" s="14" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="AC38" s="15" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AD38" s="15" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AE38" s="15" t="s">
         <v>1159</v>
-      </c>
-      <c r="AD38" s="15" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AE38" s="15" t="s">
-        <v>1161</v>
       </c>
       <c r="AF38" s="15" t="s">
         <v>410</v>
@@ -10182,7 +10179,7 @@
         <v>164</v>
       </c>
       <c r="AH38" s="15" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AI38" s="15">
         <v>557894</v>
@@ -10197,13 +10194,13 @@
         <v>2988</v>
       </c>
       <c r="AM38" s="16" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AN38" s="16" t="s">
         <v>707</v>
       </c>
       <c r="AO38" s="16" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AP38" s="16" t="s">
         <v>87</v>
@@ -10212,7 +10209,7 @@
         <v>87</v>
       </c>
       <c r="AR38" s="16" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AS38" s="16" t="s">
         <v>643</v>
@@ -10221,7 +10218,7 @@
         <v>87</v>
       </c>
       <c r="AU38" s="16" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AV38" s="16" t="s">
         <v>641</v>
@@ -10229,34 +10226,34 @@
     </row>
     <row r="39" spans="1:48" ht="131.25" customHeight="1">
       <c r="A39" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>1168</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>1172</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>1174</v>
-      </c>
       <c r="J39" s="10" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>570</v>
@@ -10265,70 +10262,70 @@
         <v>619</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="O39" s="18">
         <v>0.83958333333333324</v>
       </c>
       <c r="P39" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="R39" s="10" t="s">
         <v>1177</v>
       </c>
-      <c r="Q39" s="10" t="s">
+      <c r="S39" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="T39" s="10" t="s">
         <v>1178</v>
       </c>
-      <c r="R39" s="10" t="s">
+      <c r="U39" s="14" t="s">
         <v>1179</v>
       </c>
-      <c r="S39" s="10" t="s">
-        <v>1062</v>
-      </c>
-      <c r="T39" s="10" t="s">
+      <c r="V39" s="20" t="s">
         <v>1180</v>
-      </c>
-      <c r="U39" s="14" t="s">
-        <v>1181</v>
-      </c>
-      <c r="V39" s="20" t="s">
-        <v>1182</v>
       </c>
       <c r="W39" s="14" t="s">
         <v>689</v>
       </c>
       <c r="X39" s="14" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="Y39" s="14" t="s">
         <v>730</v>
       </c>
       <c r="Z39" s="14" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AA39" s="14" t="s">
         <v>686</v>
       </c>
       <c r="AB39" s="14" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="AC39" s="15" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AD39" s="15" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="AE39" s="15" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="AF39" s="15" t="s">
         <v>410</v>
       </c>
       <c r="AG39" s="15" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="AH39" s="15" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AI39" s="15">
         <v>666321</v>
@@ -10343,13 +10340,13 @@
         <v>2645</v>
       </c>
       <c r="AM39" s="16" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AN39" s="16" t="s">
         <v>707</v>
       </c>
       <c r="AO39" s="16" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AP39" s="16" t="s">
         <v>87</v>
@@ -10358,7 +10355,7 @@
         <v>87</v>
       </c>
       <c r="AR39" s="16" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AS39" s="16" t="s">
         <v>643</v>
@@ -10367,7 +10364,7 @@
         <v>87</v>
       </c>
       <c r="AU39" s="16" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AV39" s="16" t="s">
         <v>641</v>
@@ -10375,10 +10372,10 @@
     </row>
     <row r="40" spans="1:48" ht="131.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>677</v>
@@ -10518,10 +10515,10 @@
     </row>
     <row r="41" spans="1:48" ht="131.25" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>677</v>
@@ -10661,10 +10658,10 @@
     </row>
     <row r="42" spans="1:48" ht="131.25" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>677</v>
@@ -10807,7 +10804,7 @@
         <v>373</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>349</v>
@@ -10953,7 +10950,7 @@
         <v>389</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>390</v>
@@ -11099,7 +11096,7 @@
         <v>418</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>419</v>
@@ -11245,7 +11242,7 @@
         <v>437</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>390</v>
@@ -11391,7 +11388,7 @@
         <v>454</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>390</v>
@@ -11534,34 +11531,34 @@
     </row>
     <row r="48" spans="1:48" ht="131.25" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>932</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>1080</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="J48" s="10" t="s">
         <v>1081</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>1083</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>60</v>
@@ -11570,40 +11567,40 @@
         <v>61</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="U48" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V48" s="7" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="W48" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="Y48" s="7" t="s">
         <v>730</v>
@@ -11615,25 +11612,25 @@
         <v>686</v>
       </c>
       <c r="AB48" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AC48" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AD48" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="AC48" s="8" t="s">
+      <c r="AE48" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="AD48" s="8" t="s">
+      <c r="AF48" s="8" t="s">
         <v>1093</v>
-      </c>
-      <c r="AE48" s="8" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AF48" s="8" t="s">
-        <v>1095</v>
       </c>
       <c r="AG48" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH48" s="8" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AI48" s="8">
         <v>755368</v>
@@ -11648,13 +11645,13 @@
         <v>3061</v>
       </c>
       <c r="AM48" s="9" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AN48" s="9" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AO48" s="9" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AP48" s="9" t="s">
         <v>162</v>
@@ -11672,7 +11669,7 @@
         <v>162</v>
       </c>
       <c r="AU48" s="9" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AV48" s="9" t="s">
         <v>203</v>
@@ -11680,34 +11677,34 @@
     </row>
     <row r="49" spans="1:48" ht="131.25" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>1100</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>1105</v>
-      </c>
       <c r="J49" s="10" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>60</v>
@@ -11719,37 +11716,37 @@
         <v>340</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="O49" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="Q49" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="W49" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X49" s="7" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="Y49" s="7" t="s">
         <v>730</v>
@@ -11761,25 +11758,25 @@
         <v>686</v>
       </c>
       <c r="AB49" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AC49" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AD49" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="AC49" s="8" t="s">
+      <c r="AE49" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="AD49" s="8" t="s">
-        <v>1093</v>
-      </c>
-      <c r="AE49" s="8" t="s">
-        <v>1094</v>
-      </c>
       <c r="AF49" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="AG49" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH49" s="8" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AI49" s="8">
         <v>723645</v>
@@ -11794,13 +11791,13 @@
         <v>3105</v>
       </c>
       <c r="AM49" s="9" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AN49" s="9" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AO49" s="9" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AP49" s="9" t="s">
         <v>162</v>
@@ -11818,7 +11815,7 @@
         <v>162</v>
       </c>
       <c r="AU49" s="9" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AV49" s="9" t="s">
         <v>203</v>
@@ -11826,34 +11823,34 @@
     </row>
     <row r="50" spans="1:48" ht="131.25" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>1110</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>1114</v>
-      </c>
       <c r="J50" s="10" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>60</v>
@@ -11862,70 +11859,70 @@
         <v>61</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="O50" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P50" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R50" s="10" t="s">
         <v>1117</v>
       </c>
-      <c r="Q50" s="10" t="s">
+      <c r="S50" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="T50" s="10" t="s">
         <v>1118</v>
       </c>
-      <c r="R50" s="10" t="s">
+      <c r="U50" s="7" t="s">
         <v>1119</v>
       </c>
-      <c r="S50" s="10" t="s">
-        <v>1062</v>
-      </c>
-      <c r="T50" s="10" t="s">
+      <c r="V50" s="7" t="s">
         <v>1120</v>
-      </c>
-      <c r="U50" s="7" t="s">
-        <v>1121</v>
-      </c>
-      <c r="V50" s="7" t="s">
-        <v>1122</v>
       </c>
       <c r="W50" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X50" s="7" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="Y50" s="7" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="Z50" s="7" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="AA50" s="7" t="s">
         <v>686</v>
       </c>
       <c r="AB50" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AC50" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AD50" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="AC50" s="8" t="s">
+      <c r="AE50" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="AD50" s="8" t="s">
+      <c r="AF50" s="8" t="s">
         <v>1093</v>
-      </c>
-      <c r="AE50" s="8" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AF50" s="8" t="s">
-        <v>1095</v>
       </c>
       <c r="AG50" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH50" s="8" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="AI50" s="8">
         <v>785648</v>
@@ -11940,13 +11937,13 @@
         <v>3177</v>
       </c>
       <c r="AM50" s="9" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AN50" s="9" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AO50" s="9" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AP50" s="9" t="s">
         <v>162</v>
@@ -11964,7 +11961,7 @@
         <v>162</v>
       </c>
       <c r="AU50" s="9" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AV50" s="9" t="s">
         <v>203</v>
@@ -11975,7 +11972,7 @@
         <v>237</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>238</v>
@@ -12121,7 +12118,7 @@
         <v>167</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>168</v>
@@ -12255,7 +12252,7 @@
         <v>204</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>168</v>
@@ -12389,7 +12386,7 @@
         <v>223</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>168</v>
@@ -12523,7 +12520,7 @@
         <v>466</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>390</v>
@@ -12666,34 +12663,34 @@
     </row>
     <row r="56" spans="1:48" ht="131.25" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="J56" s="10" t="s">
         <v>1130</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>1131</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>1132</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>60</v>
@@ -12705,34 +12702,34 @@
         <v>340</v>
       </c>
       <c r="N56" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Q56" s="10" t="s">
         <v>1133</v>
       </c>
-      <c r="P56" s="10" t="s">
+      <c r="R56" s="10" t="s">
         <v>1134</v>
       </c>
-      <c r="Q56" s="10" t="s">
+      <c r="S56" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="T56" s="10" t="s">
         <v>1135</v>
       </c>
-      <c r="R56" s="10" t="s">
+      <c r="U56" s="21" t="s">
         <v>1136</v>
       </c>
-      <c r="S56" s="10" t="s">
-        <v>1144</v>
-      </c>
-      <c r="T56" s="10" t="s">
+      <c r="V56" s="21" t="s">
         <v>1137</v>
       </c>
-      <c r="U56" s="21" t="s">
+      <c r="W56" s="21" t="s">
+        <v>1063</v>
+      </c>
+      <c r="X56" s="21" t="s">
         <v>1138</v>
-      </c>
-      <c r="V56" s="21" t="s">
-        <v>1139</v>
-      </c>
-      <c r="W56" s="21" t="s">
-        <v>1065</v>
-      </c>
-      <c r="X56" s="21" t="s">
-        <v>1140</v>
       </c>
       <c r="Y56" s="21" t="s">
         <v>730</v>
@@ -12744,25 +12741,25 @@
         <v>101</v>
       </c>
       <c r="AB56" s="13" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="AC56" s="22" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AD56" s="22" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AE56" s="22" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AF56" s="22" t="s">
         <v>1070</v>
-      </c>
-      <c r="AE56" s="22" t="s">
-        <v>1142</v>
-      </c>
-      <c r="AF56" s="22" t="s">
-        <v>1072</v>
       </c>
       <c r="AG56" s="22" t="s">
         <v>164</v>
       </c>
       <c r="AH56" s="22" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AI56" s="22">
         <v>861235</v>
@@ -12780,10 +12777,10 @@
         <v>491</v>
       </c>
       <c r="AN56" s="23" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AO56" s="23" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AP56" s="23" t="s">
         <v>162</v>
@@ -12867,47 +12864,48 @@
     <hyperlink ref="B20" r:id="rId44" xr:uid="{ABF2C152-D98C-451B-9528-39A01BCAB834}"/>
     <hyperlink ref="B21" r:id="rId45" xr:uid="{1081D6D9-6DD4-4B21-ACA9-ECDE770CD6C0}"/>
     <hyperlink ref="B22" r:id="rId46" xr:uid="{B0A0CD63-0D62-4B82-9917-D9C8225E2B8B}"/>
-    <hyperlink ref="B23" r:id="rId47" xr:uid="{ACF4398A-802D-4B4E-8D7E-6FE3CEB58E3C}"/>
-    <hyperlink ref="B24" r:id="rId48" xr:uid="{D79F38FC-EAC8-4D62-BF5C-E76EF028A238}"/>
-    <hyperlink ref="B25" r:id="rId49" xr:uid="{42AE3BE6-D646-4C2D-8F3B-C7E197FE6D9B}"/>
-    <hyperlink ref="B26" r:id="rId50" xr:uid="{025B8A5C-24C9-45C2-BB7C-A13AB0D718E4}"/>
-    <hyperlink ref="B27" r:id="rId51" xr:uid="{4F860961-BD21-42E6-8E1E-6B5389577624}"/>
-    <hyperlink ref="B28" r:id="rId52" xr:uid="{B3B3BE21-0169-4D64-B703-A86384752BD7}"/>
-    <hyperlink ref="B29" r:id="rId53" xr:uid="{99768915-3BF5-4664-B988-9082E4421EB5}"/>
-    <hyperlink ref="B30" r:id="rId54" xr:uid="{186F0900-59F4-4243-AD6E-6491033771EC}"/>
-    <hyperlink ref="B31" r:id="rId55" xr:uid="{3489E315-F152-459C-8E83-B51589CB050E}"/>
-    <hyperlink ref="B34" r:id="rId56" xr:uid="{C43AF435-2DAF-4D2E-8D96-D64933DA6C34}"/>
-    <hyperlink ref="B35" r:id="rId57" xr:uid="{F8614BC6-0DBE-4FA2-9C27-95CB209E4596}"/>
-    <hyperlink ref="B36" r:id="rId58" xr:uid="{2B20BCE9-FD3B-41DB-87EE-E41F287FA3E0}"/>
-    <hyperlink ref="B37" r:id="rId59" xr:uid="{4135073D-C588-4B3E-B438-DD2D2446834C}"/>
-    <hyperlink ref="B40" r:id="rId60" xr:uid="{8FBBB1F8-6D05-4457-981B-002A6CACFC70}"/>
-    <hyperlink ref="B41" r:id="rId61" xr:uid="{9CF2B564-8975-400B-88EE-C6FB5DFCB87A}"/>
-    <hyperlink ref="B42" r:id="rId62" xr:uid="{4E2CE84C-33D4-47A0-B6E1-50AD43D84BB1}"/>
-    <hyperlink ref="B43" r:id="rId63" xr:uid="{55375CE8-CD84-4A4A-B3F7-CEC2C6F6346D}"/>
-    <hyperlink ref="B44" r:id="rId64" xr:uid="{4AD4E97D-BCED-4256-9A19-7C3381142A5A}"/>
-    <hyperlink ref="B45" r:id="rId65" xr:uid="{33C30D40-3F62-47F2-A54F-9B2E53E5B54A}"/>
-    <hyperlink ref="B46" r:id="rId66" xr:uid="{B33DDE67-DCDE-4038-A2BF-A4DAB73F92AF}"/>
-    <hyperlink ref="B47" r:id="rId67" xr:uid="{BE0EE156-A659-4FEB-83EC-6CB40AC23D44}"/>
-    <hyperlink ref="B48" r:id="rId68" xr:uid="{65E55220-D57F-4EFD-A82C-A1F8E6C4A013}"/>
-    <hyperlink ref="B49" r:id="rId69" xr:uid="{FF321CE1-CC98-4C5A-B109-A64BD31278A3}"/>
-    <hyperlink ref="B50" r:id="rId70" xr:uid="{020C92E5-83AE-44B3-B176-D1F7420C3991}"/>
-    <hyperlink ref="B51" r:id="rId71" xr:uid="{94BD75A6-8668-4BFB-8527-5041D6587B5F}"/>
-    <hyperlink ref="B52" r:id="rId72" xr:uid="{B0CFBCE5-AA2A-4752-A2B3-7A9CB949CBB3}"/>
-    <hyperlink ref="B53" r:id="rId73" xr:uid="{1D14CA6B-ECF7-4A74-8E40-996F1DA35ECE}"/>
-    <hyperlink ref="B54" r:id="rId74" xr:uid="{DBFE28CA-47BA-46B4-A868-3FA67C9028B4}"/>
-    <hyperlink ref="B55" r:id="rId75" xr:uid="{5603A6BA-58C5-4740-8864-4FD734664CAF}"/>
-    <hyperlink ref="X18" r:id="rId76" xr:uid="{347A6128-A57B-4424-B511-9F06EAAF0509}"/>
-    <hyperlink ref="AB18" r:id="rId77" xr:uid="{7BBC1BCE-C54B-4400-9913-89E168858554}"/>
-    <hyperlink ref="AB4" r:id="rId78" xr:uid="{D83F1C5E-D2FD-4642-98AC-782531AF5D01}"/>
-    <hyperlink ref="AB6" r:id="rId79" xr:uid="{6FC83A04-7AA3-4251-91DF-203043F7F2BE}"/>
-    <hyperlink ref="AB7" r:id="rId80" xr:uid="{DE2AECA6-5FB3-4444-B691-F258AA0A7B82}"/>
-    <hyperlink ref="B39" r:id="rId81" xr:uid="{5F7BABB7-9F6A-49AE-97DB-661226398F36}"/>
-    <hyperlink ref="B38" r:id="rId82" xr:uid="{55928DE3-7626-4B1A-982F-014101BC8AF9}"/>
-    <hyperlink ref="B32" r:id="rId83" xr:uid="{387D61B4-C456-4712-ADFF-C25F5EA5CF0A}"/>
-    <hyperlink ref="B56" r:id="rId84" xr:uid="{E3D076F3-D6A7-42D2-B127-75ED12AB429B}"/>
-    <hyperlink ref="AB56" r:id="rId85" xr:uid="{CFCE0A2E-D256-4124-A68C-63C52A54091F}"/>
+    <hyperlink ref="B24" r:id="rId47" xr:uid="{D79F38FC-EAC8-4D62-BF5C-E76EF028A238}"/>
+    <hyperlink ref="B25" r:id="rId48" xr:uid="{42AE3BE6-D646-4C2D-8F3B-C7E197FE6D9B}"/>
+    <hyperlink ref="B26" r:id="rId49" xr:uid="{025B8A5C-24C9-45C2-BB7C-A13AB0D718E4}"/>
+    <hyperlink ref="B27" r:id="rId50" xr:uid="{4F860961-BD21-42E6-8E1E-6B5389577624}"/>
+    <hyperlink ref="B28" r:id="rId51" xr:uid="{B3B3BE21-0169-4D64-B703-A86384752BD7}"/>
+    <hyperlink ref="B29" r:id="rId52" xr:uid="{99768915-3BF5-4664-B988-9082E4421EB5}"/>
+    <hyperlink ref="B30" r:id="rId53" xr:uid="{186F0900-59F4-4243-AD6E-6491033771EC}"/>
+    <hyperlink ref="B31" r:id="rId54" xr:uid="{3489E315-F152-459C-8E83-B51589CB050E}"/>
+    <hyperlink ref="B34" r:id="rId55" xr:uid="{C43AF435-2DAF-4D2E-8D96-D64933DA6C34}"/>
+    <hyperlink ref="B35" r:id="rId56" xr:uid="{F8614BC6-0DBE-4FA2-9C27-95CB209E4596}"/>
+    <hyperlink ref="B36" r:id="rId57" xr:uid="{2B20BCE9-FD3B-41DB-87EE-E41F287FA3E0}"/>
+    <hyperlink ref="B37" r:id="rId58" xr:uid="{4135073D-C588-4B3E-B438-DD2D2446834C}"/>
+    <hyperlink ref="B40" r:id="rId59" xr:uid="{8FBBB1F8-6D05-4457-981B-002A6CACFC70}"/>
+    <hyperlink ref="B41" r:id="rId60" xr:uid="{9CF2B564-8975-400B-88EE-C6FB5DFCB87A}"/>
+    <hyperlink ref="B42" r:id="rId61" xr:uid="{4E2CE84C-33D4-47A0-B6E1-50AD43D84BB1}"/>
+    <hyperlink ref="B43" r:id="rId62" xr:uid="{55375CE8-CD84-4A4A-B3F7-CEC2C6F6346D}"/>
+    <hyperlink ref="B44" r:id="rId63" xr:uid="{4AD4E97D-BCED-4256-9A19-7C3381142A5A}"/>
+    <hyperlink ref="B45" r:id="rId64" xr:uid="{33C30D40-3F62-47F2-A54F-9B2E53E5B54A}"/>
+    <hyperlink ref="B46" r:id="rId65" xr:uid="{B33DDE67-DCDE-4038-A2BF-A4DAB73F92AF}"/>
+    <hyperlink ref="B47" r:id="rId66" xr:uid="{BE0EE156-A659-4FEB-83EC-6CB40AC23D44}"/>
+    <hyperlink ref="B48" r:id="rId67" xr:uid="{65E55220-D57F-4EFD-A82C-A1F8E6C4A013}"/>
+    <hyperlink ref="B49" r:id="rId68" xr:uid="{FF321CE1-CC98-4C5A-B109-A64BD31278A3}"/>
+    <hyperlink ref="B50" r:id="rId69" xr:uid="{020C92E5-83AE-44B3-B176-D1F7420C3991}"/>
+    <hyperlink ref="B51" r:id="rId70" xr:uid="{94BD75A6-8668-4BFB-8527-5041D6587B5F}"/>
+    <hyperlink ref="B52" r:id="rId71" xr:uid="{B0CFBCE5-AA2A-4752-A2B3-7A9CB949CBB3}"/>
+    <hyperlink ref="B53" r:id="rId72" xr:uid="{1D14CA6B-ECF7-4A74-8E40-996F1DA35ECE}"/>
+    <hyperlink ref="B54" r:id="rId73" xr:uid="{DBFE28CA-47BA-46B4-A868-3FA67C9028B4}"/>
+    <hyperlink ref="B55" r:id="rId74" xr:uid="{5603A6BA-58C5-4740-8864-4FD734664CAF}"/>
+    <hyperlink ref="X18" r:id="rId75" xr:uid="{347A6128-A57B-4424-B511-9F06EAAF0509}"/>
+    <hyperlink ref="AB18" r:id="rId76" xr:uid="{7BBC1BCE-C54B-4400-9913-89E168858554}"/>
+    <hyperlink ref="AB4" r:id="rId77" xr:uid="{D83F1C5E-D2FD-4642-98AC-782531AF5D01}"/>
+    <hyperlink ref="AB6" r:id="rId78" xr:uid="{6FC83A04-7AA3-4251-91DF-203043F7F2BE}"/>
+    <hyperlink ref="AB7" r:id="rId79" xr:uid="{DE2AECA6-5FB3-4444-B691-F258AA0A7B82}"/>
+    <hyperlink ref="B39" r:id="rId80" xr:uid="{5F7BABB7-9F6A-49AE-97DB-661226398F36}"/>
+    <hyperlink ref="B38" r:id="rId81" xr:uid="{55928DE3-7626-4B1A-982F-014101BC8AF9}"/>
+    <hyperlink ref="B32" r:id="rId82" xr:uid="{387D61B4-C456-4712-ADFF-C25F5EA5CF0A}"/>
+    <hyperlink ref="B56" r:id="rId83" xr:uid="{E3D076F3-D6A7-42D2-B127-75ED12AB429B}"/>
+    <hyperlink ref="AB56" r:id="rId84" xr:uid="{CFCE0A2E-D256-4124-A68C-63C52A54091F}"/>
+    <hyperlink ref="B23" r:id="rId85" xr:uid="{09CE3DF3-049B-4C37-9115-D65923BCEA79}"/>
+    <hyperlink ref="B4" r:id="rId86" xr:uid="{392BF280-D2DE-4CC3-A0C7-A82B814D07F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
 </worksheet>
 </file>
--- a/excel/samsung.xlsx
+++ b/excel/samsung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\AiogramTemplate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767134D0-9A3D-41F8-950B-9186F6F56A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4325A8BD-3E76-41C0-A8F9-D6DFB075F777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3529,12 +3529,6 @@
     <t>https://ibb.co/zm3y28M</t>
   </si>
   <si>
-    <t>https://ibb.co/xMLwd0g</t>
-  </si>
-  <si>
-    <t>https://ibb.co/bKG7p13</t>
-  </si>
-  <si>
     <t>https://ibb.co/rMwznqG</t>
   </si>
   <si>
@@ -4266,6 +4260,12 @@
   </si>
   <si>
     <t>https://ibb.co/ScsjBNG</t>
+  </si>
+  <si>
+    <t>https://ibb.co/HnqRVDc</t>
+  </si>
+  <si>
+    <t>https://ibb.co/D9TjMgN</t>
   </si>
 </sst>
 </file>
@@ -4823,8 +4823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="131.25" customHeight="1"/>
@@ -5045,10 +5045,10 @@
     </row>
     <row r="3" spans="1:48" ht="131.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>810</v>
@@ -5102,7 +5102,7 @@
         <v>797</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>967</v>
@@ -5191,10 +5191,10 @@
     </row>
     <row r="4" spans="1:48" ht="131.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>601</v>
@@ -5248,7 +5248,7 @@
         <v>797</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>612</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="5" spans="1:48" ht="131.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>990</v>
@@ -5394,7 +5394,7 @@
         <v>797</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>148</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="6" spans="1:48" ht="131.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>991</v>
@@ -5540,7 +5540,7 @@
         <v>797</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>539</v>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="7" spans="1:48" ht="131.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>992</v>
@@ -5686,7 +5686,7 @@
         <v>797</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>927</v>
@@ -5769,10 +5769,10 @@
     </row>
     <row r="8" spans="1:48" ht="131.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>993</v>
+        <v>1224</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>624</v>
@@ -5826,7 +5826,7 @@
         <v>797</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>612</v>
@@ -5847,7 +5847,7 @@
         <v>610</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AB8" s="13" t="s">
         <v>566</v>
@@ -5912,10 +5912,10 @@
     </row>
     <row r="9" spans="1:48" ht="131.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>994</v>
+        <v>1225</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>601</v>
@@ -5969,7 +5969,7 @@
         <v>797</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>542</v>
@@ -5990,7 +5990,7 @@
         <v>588</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AB9" s="13" t="s">
         <v>566</v>
@@ -6055,10 +6055,10 @@
     </row>
     <row r="10" spans="1:48" ht="131.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>934</v>
@@ -6112,7 +6112,7 @@
         <v>797</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>927</v>
@@ -6133,7 +6133,7 @@
         <v>610</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AB10" s="7" t="s">
         <v>537</v>
@@ -6195,10 +6195,10 @@
     </row>
     <row r="11" spans="1:48" ht="131.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>920</v>
@@ -6252,7 +6252,7 @@
         <v>797</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>913</v>
@@ -6273,7 +6273,7 @@
         <v>610</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AB11" s="7" t="s">
         <v>537</v>
@@ -6338,10 +6338,10 @@
     </row>
     <row r="12" spans="1:48" ht="131.25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>578</v>
@@ -6395,7 +6395,7 @@
         <v>797</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U12" s="7" t="s">
         <v>568</v>
@@ -6416,7 +6416,7 @@
         <v>564</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AB12" s="7" t="s">
         <v>537</v>
@@ -6481,10 +6481,10 @@
     </row>
     <row r="13" spans="1:48" ht="131.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>557</v>
@@ -6538,7 +6538,7 @@
         <v>797</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U13" s="7" t="s">
         <v>542</v>
@@ -6559,7 +6559,7 @@
         <v>538</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AB13" s="7" t="s">
         <v>537</v>
@@ -6627,7 +6627,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>113</v>
@@ -6681,7 +6681,7 @@
         <v>797</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U14" s="7" t="s">
         <v>125</v>
@@ -6770,10 +6770,10 @@
     </row>
     <row r="15" spans="1:48" ht="131.25" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>677</v>
@@ -6827,7 +6827,7 @@
         <v>797</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>902</v>
@@ -6848,7 +6848,7 @@
         <v>892</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AB15" s="7" t="s">
         <v>537</v>
@@ -6913,10 +6913,10 @@
     </row>
     <row r="16" spans="1:48" ht="131.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>744</v>
@@ -6970,7 +6970,7 @@
         <v>797</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U16" s="7" t="s">
         <v>879</v>
@@ -6991,7 +6991,7 @@
         <v>892</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AB16" s="7" t="s">
         <v>537</v>
@@ -7056,7 +7056,7 @@
         <v>260</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>261</v>
@@ -7110,7 +7110,7 @@
         <v>797</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>125</v>
@@ -7131,7 +7131,7 @@
         <v>270</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AB17" s="13" t="s">
         <v>127</v>
@@ -7202,16 +7202,16 @@
         <v>989</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>934</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>839</v>
@@ -7220,10 +7220,10 @@
         <v>884</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>59</v>
@@ -7235,34 +7235,34 @@
         <v>61</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>616</v>
       </c>
       <c r="P18" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>1037</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>1038</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>1039</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>797</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="W18" s="7" t="s">
         <v>818</v>
@@ -7271,10 +7271,10 @@
         <v>566</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AA18" s="7" t="s">
         <v>75</v>
@@ -7289,7 +7289,7 @@
         <v>891</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="AF18" s="8" t="s">
         <v>889</v>
@@ -7298,7 +7298,7 @@
         <v>811</v>
       </c>
       <c r="AH18" s="8" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AI18" s="8">
         <v>186642</v>
@@ -7319,7 +7319,7 @@
         <v>605</v>
       </c>
       <c r="AO18" s="9" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="AP18" s="9" t="s">
         <v>162</v>
@@ -7348,7 +7348,7 @@
         <v>277</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>278</v>
@@ -7402,7 +7402,7 @@
         <v>797</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>288</v>
@@ -7494,7 +7494,7 @@
         <v>298</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>299</v>
@@ -7548,7 +7548,7 @@
         <v>797</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>125</v>
@@ -7637,10 +7637,10 @@
     </row>
     <row r="21" spans="1:48" ht="131.25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>677</v>
@@ -7694,7 +7694,7 @@
         <v>797</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>879</v>
@@ -7780,10 +7780,10 @@
     </row>
     <row r="22" spans="1:48" ht="131.25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>744</v>
@@ -7837,7 +7837,7 @@
         <v>797</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U22" s="7" t="s">
         <v>863</v>
@@ -7923,10 +7923,10 @@
     </row>
     <row r="23" spans="1:48" ht="131.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>810</v>
@@ -7980,7 +7980,7 @@
         <v>797</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>542</v>
@@ -8069,7 +8069,7 @@
         <v>318</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>319</v>
@@ -8123,7 +8123,7 @@
         <v>797</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>125</v>
@@ -8215,7 +8215,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>52</v>
@@ -8358,10 +8358,10 @@
     </row>
     <row r="26" spans="1:48" ht="131.25" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>842</v>
@@ -8415,7 +8415,7 @@
         <v>797</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U26" s="7" t="s">
         <v>835</v>
@@ -8501,10 +8501,10 @@
     </row>
     <row r="27" spans="1:48" ht="131.25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>829</v>
@@ -8558,7 +8558,7 @@
         <v>797</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>820</v>
@@ -8638,10 +8638,10 @@
     </row>
     <row r="28" spans="1:48" ht="131.25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>810</v>
@@ -8695,7 +8695,7 @@
         <v>797</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U28" s="7" t="s">
         <v>796</v>
@@ -8784,7 +8784,7 @@
         <v>336</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>319</v>
@@ -8838,7 +8838,7 @@
         <v>797</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -8930,7 +8930,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>52</v>
@@ -9076,7 +9076,7 @@
         <v>977</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>52</v>
@@ -9219,10 +9219,10 @@
     </row>
     <row r="32" spans="1:48" ht="131.25" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>677</v>
@@ -9234,7 +9234,7 @@
         <v>782</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>781</v>
@@ -9273,7 +9273,7 @@
         <v>774</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="T32" s="10" t="s">
         <v>773</v>
@@ -9359,7 +9359,7 @@
         <v>494</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>368</v>
@@ -9502,31 +9502,31 @@
     </row>
     <row r="34" spans="1:48" ht="131.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>1052</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>1054</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>500</v>
@@ -9538,70 +9538,70 @@
         <v>61</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="O34" s="10" t="s">
         <v>503</v>
       </c>
       <c r="P34" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="R34" s="10" t="s">
         <v>1057</v>
       </c>
-      <c r="Q34" s="10" t="s">
+      <c r="S34" s="10" t="s">
         <v>1058</v>
       </c>
-      <c r="R34" s="10" t="s">
+      <c r="T34" s="10" t="s">
         <v>1059</v>
-      </c>
-      <c r="S34" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>1061</v>
       </c>
       <c r="U34" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V34" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X34" s="7" t="s">
         <v>1062</v>
-      </c>
-      <c r="W34" s="7" t="s">
-        <v>1063</v>
-      </c>
-      <c r="X34" s="7" t="s">
-        <v>1064</v>
       </c>
       <c r="Y34" s="7" t="s">
         <v>893</v>
       </c>
       <c r="Z34" s="7" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AA34" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AB34" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AC34" s="8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AD34" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="AC34" s="8" t="s">
+      <c r="AE34" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="AD34" s="8" t="s">
+      <c r="AF34" s="8" t="s">
         <v>1068</v>
-      </c>
-      <c r="AE34" s="8" t="s">
-        <v>1069</v>
-      </c>
-      <c r="AF34" s="8" t="s">
-        <v>1070</v>
       </c>
       <c r="AG34" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH34" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AI34" s="8">
         <v>780874</v>
@@ -9619,10 +9619,10 @@
         <v>491</v>
       </c>
       <c r="AN34" s="9" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AO34" s="9" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AP34" s="9" t="s">
         <v>162</v>
@@ -9640,7 +9640,7 @@
         <v>162</v>
       </c>
       <c r="AU34" s="9" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AV34" s="9" t="s">
         <v>522</v>
@@ -9648,10 +9648,10 @@
     </row>
     <row r="35" spans="1:48" ht="131.25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>744</v>
@@ -9791,10 +9791,10 @@
     </row>
     <row r="36" spans="1:48" ht="131.25" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>744</v>
@@ -9937,7 +9937,7 @@
         <v>348</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>349</v>
@@ -9988,7 +9988,7 @@
         <v>67</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="T37" s="10" t="s">
         <v>356</v>
@@ -10080,34 +10080,34 @@
     </row>
     <row r="38" spans="1:48" ht="131.25" customHeight="1">
       <c r="A38" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>1146</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>1148</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>1150</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>756</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>570</v>
@@ -10125,16 +10125,16 @@
         <v>0.83958333333333324</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="T38" s="10" t="s">
         <v>662</v>
@@ -10143,34 +10143,34 @@
         <v>691</v>
       </c>
       <c r="V38" s="14" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="W38" s="14" t="s">
         <v>689</v>
       </c>
       <c r="X38" s="14" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="Y38" s="14" t="s">
         <v>730</v>
       </c>
       <c r="Z38" s="14" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AA38" s="14" t="s">
         <v>686</v>
       </c>
       <c r="AB38" s="14" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AC38" s="15" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AD38" s="15" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AE38" s="15" t="s">
         <v>1157</v>
-      </c>
-      <c r="AD38" s="15" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AE38" s="15" t="s">
-        <v>1159</v>
       </c>
       <c r="AF38" s="15" t="s">
         <v>410</v>
@@ -10179,7 +10179,7 @@
         <v>164</v>
       </c>
       <c r="AH38" s="15" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AI38" s="15">
         <v>557894</v>
@@ -10194,13 +10194,13 @@
         <v>2988</v>
       </c>
       <c r="AM38" s="16" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AN38" s="16" t="s">
         <v>707</v>
       </c>
       <c r="AO38" s="16" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AP38" s="16" t="s">
         <v>87</v>
@@ -10209,7 +10209,7 @@
         <v>87</v>
       </c>
       <c r="AR38" s="16" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AS38" s="16" t="s">
         <v>643</v>
@@ -10218,7 +10218,7 @@
         <v>87</v>
       </c>
       <c r="AU38" s="16" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AV38" s="16" t="s">
         <v>641</v>
@@ -10226,34 +10226,34 @@
     </row>
     <row r="39" spans="1:48" ht="131.25" customHeight="1">
       <c r="A39" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>1166</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>1168</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>1172</v>
-      </c>
       <c r="J39" s="10" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>570</v>
@@ -10262,70 +10262,70 @@
         <v>619</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="O39" s="18">
         <v>0.83958333333333324</v>
       </c>
       <c r="P39" s="10" t="s">
+        <v>1173</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="R39" s="10" t="s">
         <v>1175</v>
       </c>
-      <c r="Q39" s="10" t="s">
+      <c r="S39" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T39" s="10" t="s">
         <v>1176</v>
       </c>
-      <c r="R39" s="10" t="s">
+      <c r="U39" s="14" t="s">
         <v>1177</v>
       </c>
-      <c r="S39" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="T39" s="10" t="s">
+      <c r="V39" s="20" t="s">
         <v>1178</v>
-      </c>
-      <c r="U39" s="14" t="s">
-        <v>1179</v>
-      </c>
-      <c r="V39" s="20" t="s">
-        <v>1180</v>
       </c>
       <c r="W39" s="14" t="s">
         <v>689</v>
       </c>
       <c r="X39" s="14" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="Y39" s="14" t="s">
         <v>730</v>
       </c>
       <c r="Z39" s="14" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AA39" s="14" t="s">
         <v>686</v>
       </c>
       <c r="AB39" s="14" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AC39" s="15" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AD39" s="15" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="AE39" s="15" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="AF39" s="15" t="s">
         <v>410</v>
       </c>
       <c r="AG39" s="15" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="AH39" s="15" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="AI39" s="15">
         <v>666321</v>
@@ -10340,13 +10340,13 @@
         <v>2645</v>
       </c>
       <c r="AM39" s="16" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AN39" s="16" t="s">
         <v>707</v>
       </c>
       <c r="AO39" s="16" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AP39" s="16" t="s">
         <v>87</v>
@@ -10355,7 +10355,7 @@
         <v>87</v>
       </c>
       <c r="AR39" s="16" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AS39" s="16" t="s">
         <v>643</v>
@@ -10364,7 +10364,7 @@
         <v>87</v>
       </c>
       <c r="AU39" s="16" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AV39" s="16" t="s">
         <v>641</v>
@@ -10372,10 +10372,10 @@
     </row>
     <row r="40" spans="1:48" ht="131.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>677</v>
@@ -10515,10 +10515,10 @@
     </row>
     <row r="41" spans="1:48" ht="131.25" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>677</v>
@@ -10658,10 +10658,10 @@
     </row>
     <row r="42" spans="1:48" ht="131.25" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>677</v>
@@ -10804,7 +10804,7 @@
         <v>373</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>349</v>
@@ -10950,7 +10950,7 @@
         <v>389</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>390</v>
@@ -11096,7 +11096,7 @@
         <v>418</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>419</v>
@@ -11242,7 +11242,7 @@
         <v>437</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>390</v>
@@ -11388,7 +11388,7 @@
         <v>454</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>390</v>
@@ -11531,34 +11531,34 @@
     </row>
     <row r="48" spans="1:48" ht="131.25" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>932</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>1078</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="J48" s="10" t="s">
         <v>1079</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>1081</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>60</v>
@@ -11567,40 +11567,40 @@
         <v>61</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="U48" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V48" s="7" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="W48" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="Y48" s="7" t="s">
         <v>730</v>
@@ -11612,25 +11612,25 @@
         <v>686</v>
       </c>
       <c r="AB48" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AC48" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AD48" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="AC48" s="8" t="s">
+      <c r="AE48" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="AD48" s="8" t="s">
+      <c r="AF48" s="8" t="s">
         <v>1091</v>
-      </c>
-      <c r="AE48" s="8" t="s">
-        <v>1092</v>
-      </c>
-      <c r="AF48" s="8" t="s">
-        <v>1093</v>
       </c>
       <c r="AG48" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH48" s="8" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AI48" s="8">
         <v>755368</v>
@@ -11645,13 +11645,13 @@
         <v>3061</v>
       </c>
       <c r="AM48" s="9" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AN48" s="9" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AO48" s="9" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AP48" s="9" t="s">
         <v>162</v>
@@ -11669,7 +11669,7 @@
         <v>162</v>
       </c>
       <c r="AU48" s="9" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AV48" s="9" t="s">
         <v>203</v>
@@ -11677,34 +11677,34 @@
     </row>
     <row r="49" spans="1:48" ht="131.25" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>1098</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>1099</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>1100</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>1103</v>
-      </c>
       <c r="J49" s="10" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>60</v>
@@ -11716,37 +11716,37 @@
         <v>340</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="O49" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="Q49" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="W49" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X49" s="7" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="Y49" s="7" t="s">
         <v>730</v>
@@ -11758,25 +11758,25 @@
         <v>686</v>
       </c>
       <c r="AB49" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AC49" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AD49" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="AC49" s="8" t="s">
+      <c r="AE49" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="AD49" s="8" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AE49" s="8" t="s">
-        <v>1092</v>
-      </c>
       <c r="AF49" s="8" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AG49" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH49" s="8" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AI49" s="8">
         <v>723645</v>
@@ -11791,13 +11791,13 @@
         <v>3105</v>
       </c>
       <c r="AM49" s="9" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AN49" s="9" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AO49" s="9" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AP49" s="9" t="s">
         <v>162</v>
@@ -11815,7 +11815,7 @@
         <v>162</v>
       </c>
       <c r="AU49" s="9" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AV49" s="9" t="s">
         <v>203</v>
@@ -11823,34 +11823,34 @@
     </row>
     <row r="50" spans="1:48" ht="131.25" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>1110</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>1112</v>
-      </c>
       <c r="J50" s="10" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>60</v>
@@ -11859,70 +11859,70 @@
         <v>61</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="O50" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P50" s="10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="R50" s="10" t="s">
         <v>1115</v>
       </c>
-      <c r="Q50" s="10" t="s">
+      <c r="S50" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T50" s="10" t="s">
         <v>1116</v>
       </c>
-      <c r="R50" s="10" t="s">
+      <c r="U50" s="7" t="s">
         <v>1117</v>
       </c>
-      <c r="S50" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="T50" s="10" t="s">
+      <c r="V50" s="7" t="s">
         <v>1118</v>
-      </c>
-      <c r="U50" s="7" t="s">
-        <v>1119</v>
-      </c>
-      <c r="V50" s="7" t="s">
-        <v>1120</v>
       </c>
       <c r="W50" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X50" s="7" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="Y50" s="7" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="Z50" s="7" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="AA50" s="7" t="s">
         <v>686</v>
       </c>
       <c r="AB50" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AC50" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AD50" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="AC50" s="8" t="s">
+      <c r="AE50" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="AD50" s="8" t="s">
+      <c r="AF50" s="8" t="s">
         <v>1091</v>
-      </c>
-      <c r="AE50" s="8" t="s">
-        <v>1092</v>
-      </c>
-      <c r="AF50" s="8" t="s">
-        <v>1093</v>
       </c>
       <c r="AG50" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH50" s="8" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="AI50" s="8">
         <v>785648</v>
@@ -11937,13 +11937,13 @@
         <v>3177</v>
       </c>
       <c r="AM50" s="9" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AN50" s="9" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AO50" s="9" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AP50" s="9" t="s">
         <v>162</v>
@@ -11961,7 +11961,7 @@
         <v>162</v>
       </c>
       <c r="AU50" s="9" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AV50" s="9" t="s">
         <v>203</v>
@@ -11972,7 +11972,7 @@
         <v>237</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>238</v>
@@ -12118,7 +12118,7 @@
         <v>167</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>168</v>
@@ -12252,7 +12252,7 @@
         <v>204</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>168</v>
@@ -12386,7 +12386,7 @@
         <v>223</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>168</v>
@@ -12520,7 +12520,7 @@
         <v>466</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>390</v>
@@ -12663,34 +12663,34 @@
     </row>
     <row r="56" spans="1:48" ht="131.25" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="J56" s="10" t="s">
         <v>1128</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>1129</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>1130</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>60</v>
@@ -12702,34 +12702,34 @@
         <v>340</v>
       </c>
       <c r="N56" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Q56" s="10" t="s">
         <v>1131</v>
       </c>
-      <c r="P56" s="10" t="s">
+      <c r="R56" s="10" t="s">
         <v>1132</v>
       </c>
-      <c r="Q56" s="10" t="s">
+      <c r="S56" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="T56" s="10" t="s">
         <v>1133</v>
       </c>
-      <c r="R56" s="10" t="s">
+      <c r="U56" s="21" t="s">
         <v>1134</v>
       </c>
-      <c r="S56" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="T56" s="10" t="s">
+      <c r="V56" s="21" t="s">
         <v>1135</v>
       </c>
-      <c r="U56" s="21" t="s">
+      <c r="W56" s="21" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X56" s="21" t="s">
         <v>1136</v>
-      </c>
-      <c r="V56" s="21" t="s">
-        <v>1137</v>
-      </c>
-      <c r="W56" s="21" t="s">
-        <v>1063</v>
-      </c>
-      <c r="X56" s="21" t="s">
-        <v>1138</v>
       </c>
       <c r="Y56" s="21" t="s">
         <v>730</v>
@@ -12741,25 +12741,25 @@
         <v>101</v>
       </c>
       <c r="AB56" s="13" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="AC56" s="22" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AD56" s="22" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AE56" s="22" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AF56" s="22" t="s">
         <v>1068</v>
-      </c>
-      <c r="AE56" s="22" t="s">
-        <v>1140</v>
-      </c>
-      <c r="AF56" s="22" t="s">
-        <v>1070</v>
       </c>
       <c r="AG56" s="22" t="s">
         <v>164</v>
       </c>
       <c r="AH56" s="22" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AI56" s="22">
         <v>861235</v>
@@ -12777,10 +12777,10 @@
         <v>491</v>
       </c>
       <c r="AN56" s="23" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AO56" s="23" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="AP56" s="23" t="s">
         <v>162</v>
@@ -12849,63 +12849,61 @@
     <hyperlink ref="B5" r:id="rId29" xr:uid="{64FE0D63-FAA9-45F8-9ECF-43E5DD163A2D}"/>
     <hyperlink ref="B6" r:id="rId30" xr:uid="{6A7CB81B-838C-4561-AD90-8702395B9EBA}"/>
     <hyperlink ref="B7" r:id="rId31" xr:uid="{717500D7-2530-4EC3-9379-67DEF891E54C}"/>
-    <hyperlink ref="B8" r:id="rId32" xr:uid="{AF90A96D-A0A1-496B-A46B-C4DC20208446}"/>
-    <hyperlink ref="B9" r:id="rId33" xr:uid="{2FDB2E02-3CCA-4C84-A99D-B694FF992E17}"/>
-    <hyperlink ref="B10" r:id="rId34" xr:uid="{74CB7BCC-CA2D-4AF4-928D-28EB0796D88D}"/>
-    <hyperlink ref="B11" r:id="rId35" xr:uid="{98108173-10F7-4F9B-8691-4AB9AB57A9ED}"/>
-    <hyperlink ref="B12" r:id="rId36" xr:uid="{C8FA30AD-AFD0-4DA1-A1C8-6CAD8CC76866}"/>
-    <hyperlink ref="B13" r:id="rId37" xr:uid="{D9B1D20B-0694-4A13-B501-6E7E420F3F9A}"/>
-    <hyperlink ref="B14" r:id="rId38" xr:uid="{F8BE4EFB-28DC-4E5A-8F7C-A8CC696C1B7A}"/>
-    <hyperlink ref="B15" r:id="rId39" xr:uid="{F53D55E0-DD72-4A20-8FFD-CCCDCA8AA678}"/>
-    <hyperlink ref="B16" r:id="rId40" xr:uid="{A98EEE45-3012-4357-8215-E87F7C4CB4C7}"/>
-    <hyperlink ref="B17" r:id="rId41" xr:uid="{DB5D215F-4BF0-4CE1-AF82-8220F10EC2B9}"/>
-    <hyperlink ref="B18" r:id="rId42" xr:uid="{F89D786B-4927-4722-8E20-1E004E23BB41}"/>
-    <hyperlink ref="B19" r:id="rId43" xr:uid="{48E74DE6-84EA-4FB2-9672-F0507150620D}"/>
-    <hyperlink ref="B20" r:id="rId44" xr:uid="{ABF2C152-D98C-451B-9528-39A01BCAB834}"/>
-    <hyperlink ref="B21" r:id="rId45" xr:uid="{1081D6D9-6DD4-4B21-ACA9-ECDE770CD6C0}"/>
-    <hyperlink ref="B22" r:id="rId46" xr:uid="{B0A0CD63-0D62-4B82-9917-D9C8225E2B8B}"/>
-    <hyperlink ref="B24" r:id="rId47" xr:uid="{D79F38FC-EAC8-4D62-BF5C-E76EF028A238}"/>
-    <hyperlink ref="B25" r:id="rId48" xr:uid="{42AE3BE6-D646-4C2D-8F3B-C7E197FE6D9B}"/>
-    <hyperlink ref="B26" r:id="rId49" xr:uid="{025B8A5C-24C9-45C2-BB7C-A13AB0D718E4}"/>
-    <hyperlink ref="B27" r:id="rId50" xr:uid="{4F860961-BD21-42E6-8E1E-6B5389577624}"/>
-    <hyperlink ref="B28" r:id="rId51" xr:uid="{B3B3BE21-0169-4D64-B703-A86384752BD7}"/>
-    <hyperlink ref="B29" r:id="rId52" xr:uid="{99768915-3BF5-4664-B988-9082E4421EB5}"/>
-    <hyperlink ref="B30" r:id="rId53" xr:uid="{186F0900-59F4-4243-AD6E-6491033771EC}"/>
-    <hyperlink ref="B31" r:id="rId54" xr:uid="{3489E315-F152-459C-8E83-B51589CB050E}"/>
-    <hyperlink ref="B34" r:id="rId55" xr:uid="{C43AF435-2DAF-4D2E-8D96-D64933DA6C34}"/>
-    <hyperlink ref="B35" r:id="rId56" xr:uid="{F8614BC6-0DBE-4FA2-9C27-95CB209E4596}"/>
-    <hyperlink ref="B36" r:id="rId57" xr:uid="{2B20BCE9-FD3B-41DB-87EE-E41F287FA3E0}"/>
-    <hyperlink ref="B37" r:id="rId58" xr:uid="{4135073D-C588-4B3E-B438-DD2D2446834C}"/>
-    <hyperlink ref="B40" r:id="rId59" xr:uid="{8FBBB1F8-6D05-4457-981B-002A6CACFC70}"/>
-    <hyperlink ref="B41" r:id="rId60" xr:uid="{9CF2B564-8975-400B-88EE-C6FB5DFCB87A}"/>
-    <hyperlink ref="B42" r:id="rId61" xr:uid="{4E2CE84C-33D4-47A0-B6E1-50AD43D84BB1}"/>
-    <hyperlink ref="B43" r:id="rId62" xr:uid="{55375CE8-CD84-4A4A-B3F7-CEC2C6F6346D}"/>
-    <hyperlink ref="B44" r:id="rId63" xr:uid="{4AD4E97D-BCED-4256-9A19-7C3381142A5A}"/>
-    <hyperlink ref="B45" r:id="rId64" xr:uid="{33C30D40-3F62-47F2-A54F-9B2E53E5B54A}"/>
-    <hyperlink ref="B46" r:id="rId65" xr:uid="{B33DDE67-DCDE-4038-A2BF-A4DAB73F92AF}"/>
-    <hyperlink ref="B47" r:id="rId66" xr:uid="{BE0EE156-A659-4FEB-83EC-6CB40AC23D44}"/>
-    <hyperlink ref="B48" r:id="rId67" xr:uid="{65E55220-D57F-4EFD-A82C-A1F8E6C4A013}"/>
-    <hyperlink ref="B49" r:id="rId68" xr:uid="{FF321CE1-CC98-4C5A-B109-A64BD31278A3}"/>
-    <hyperlink ref="B50" r:id="rId69" xr:uid="{020C92E5-83AE-44B3-B176-D1F7420C3991}"/>
-    <hyperlink ref="B51" r:id="rId70" xr:uid="{94BD75A6-8668-4BFB-8527-5041D6587B5F}"/>
-    <hyperlink ref="B52" r:id="rId71" xr:uid="{B0CFBCE5-AA2A-4752-A2B3-7A9CB949CBB3}"/>
-    <hyperlink ref="B53" r:id="rId72" xr:uid="{1D14CA6B-ECF7-4A74-8E40-996F1DA35ECE}"/>
-    <hyperlink ref="B54" r:id="rId73" xr:uid="{DBFE28CA-47BA-46B4-A868-3FA67C9028B4}"/>
-    <hyperlink ref="B55" r:id="rId74" xr:uid="{5603A6BA-58C5-4740-8864-4FD734664CAF}"/>
-    <hyperlink ref="X18" r:id="rId75" xr:uid="{347A6128-A57B-4424-B511-9F06EAAF0509}"/>
-    <hyperlink ref="AB18" r:id="rId76" xr:uid="{7BBC1BCE-C54B-4400-9913-89E168858554}"/>
-    <hyperlink ref="AB4" r:id="rId77" xr:uid="{D83F1C5E-D2FD-4642-98AC-782531AF5D01}"/>
-    <hyperlink ref="AB6" r:id="rId78" xr:uid="{6FC83A04-7AA3-4251-91DF-203043F7F2BE}"/>
-    <hyperlink ref="AB7" r:id="rId79" xr:uid="{DE2AECA6-5FB3-4444-B691-F258AA0A7B82}"/>
-    <hyperlink ref="B39" r:id="rId80" xr:uid="{5F7BABB7-9F6A-49AE-97DB-661226398F36}"/>
-    <hyperlink ref="B38" r:id="rId81" xr:uid="{55928DE3-7626-4B1A-982F-014101BC8AF9}"/>
-    <hyperlink ref="B32" r:id="rId82" xr:uid="{387D61B4-C456-4712-ADFF-C25F5EA5CF0A}"/>
-    <hyperlink ref="B56" r:id="rId83" xr:uid="{E3D076F3-D6A7-42D2-B127-75ED12AB429B}"/>
-    <hyperlink ref="AB56" r:id="rId84" xr:uid="{CFCE0A2E-D256-4124-A68C-63C52A54091F}"/>
-    <hyperlink ref="B23" r:id="rId85" xr:uid="{09CE3DF3-049B-4C37-9115-D65923BCEA79}"/>
-    <hyperlink ref="B4" r:id="rId86" xr:uid="{392BF280-D2DE-4CC3-A0C7-A82B814D07F9}"/>
+    <hyperlink ref="B10" r:id="rId32" xr:uid="{74CB7BCC-CA2D-4AF4-928D-28EB0796D88D}"/>
+    <hyperlink ref="B11" r:id="rId33" xr:uid="{98108173-10F7-4F9B-8691-4AB9AB57A9ED}"/>
+    <hyperlink ref="B12" r:id="rId34" xr:uid="{C8FA30AD-AFD0-4DA1-A1C8-6CAD8CC76866}"/>
+    <hyperlink ref="B13" r:id="rId35" xr:uid="{D9B1D20B-0694-4A13-B501-6E7E420F3F9A}"/>
+    <hyperlink ref="B14" r:id="rId36" xr:uid="{F8BE4EFB-28DC-4E5A-8F7C-A8CC696C1B7A}"/>
+    <hyperlink ref="B15" r:id="rId37" xr:uid="{F53D55E0-DD72-4A20-8FFD-CCCDCA8AA678}"/>
+    <hyperlink ref="B16" r:id="rId38" xr:uid="{A98EEE45-3012-4357-8215-E87F7C4CB4C7}"/>
+    <hyperlink ref="B17" r:id="rId39" xr:uid="{DB5D215F-4BF0-4CE1-AF82-8220F10EC2B9}"/>
+    <hyperlink ref="B18" r:id="rId40" xr:uid="{F89D786B-4927-4722-8E20-1E004E23BB41}"/>
+    <hyperlink ref="B19" r:id="rId41" xr:uid="{48E74DE6-84EA-4FB2-9672-F0507150620D}"/>
+    <hyperlink ref="B20" r:id="rId42" xr:uid="{ABF2C152-D98C-451B-9528-39A01BCAB834}"/>
+    <hyperlink ref="B21" r:id="rId43" xr:uid="{1081D6D9-6DD4-4B21-ACA9-ECDE770CD6C0}"/>
+    <hyperlink ref="B22" r:id="rId44" xr:uid="{B0A0CD63-0D62-4B82-9917-D9C8225E2B8B}"/>
+    <hyperlink ref="B24" r:id="rId45" xr:uid="{D79F38FC-EAC8-4D62-BF5C-E76EF028A238}"/>
+    <hyperlink ref="B25" r:id="rId46" xr:uid="{42AE3BE6-D646-4C2D-8F3B-C7E197FE6D9B}"/>
+    <hyperlink ref="B26" r:id="rId47" xr:uid="{025B8A5C-24C9-45C2-BB7C-A13AB0D718E4}"/>
+    <hyperlink ref="B27" r:id="rId48" xr:uid="{4F860961-BD21-42E6-8E1E-6B5389577624}"/>
+    <hyperlink ref="B28" r:id="rId49" xr:uid="{B3B3BE21-0169-4D64-B703-A86384752BD7}"/>
+    <hyperlink ref="B29" r:id="rId50" xr:uid="{99768915-3BF5-4664-B988-9082E4421EB5}"/>
+    <hyperlink ref="B30" r:id="rId51" xr:uid="{186F0900-59F4-4243-AD6E-6491033771EC}"/>
+    <hyperlink ref="B31" r:id="rId52" xr:uid="{3489E315-F152-459C-8E83-B51589CB050E}"/>
+    <hyperlink ref="B34" r:id="rId53" xr:uid="{C43AF435-2DAF-4D2E-8D96-D64933DA6C34}"/>
+    <hyperlink ref="B35" r:id="rId54" xr:uid="{F8614BC6-0DBE-4FA2-9C27-95CB209E4596}"/>
+    <hyperlink ref="B36" r:id="rId55" xr:uid="{2B20BCE9-FD3B-41DB-87EE-E41F287FA3E0}"/>
+    <hyperlink ref="B37" r:id="rId56" xr:uid="{4135073D-C588-4B3E-B438-DD2D2446834C}"/>
+    <hyperlink ref="B40" r:id="rId57" xr:uid="{8FBBB1F8-6D05-4457-981B-002A6CACFC70}"/>
+    <hyperlink ref="B41" r:id="rId58" xr:uid="{9CF2B564-8975-400B-88EE-C6FB5DFCB87A}"/>
+    <hyperlink ref="B42" r:id="rId59" xr:uid="{4E2CE84C-33D4-47A0-B6E1-50AD43D84BB1}"/>
+    <hyperlink ref="B43" r:id="rId60" xr:uid="{55375CE8-CD84-4A4A-B3F7-CEC2C6F6346D}"/>
+    <hyperlink ref="B44" r:id="rId61" xr:uid="{4AD4E97D-BCED-4256-9A19-7C3381142A5A}"/>
+    <hyperlink ref="B45" r:id="rId62" xr:uid="{33C30D40-3F62-47F2-A54F-9B2E53E5B54A}"/>
+    <hyperlink ref="B46" r:id="rId63" xr:uid="{B33DDE67-DCDE-4038-A2BF-A4DAB73F92AF}"/>
+    <hyperlink ref="B47" r:id="rId64" xr:uid="{BE0EE156-A659-4FEB-83EC-6CB40AC23D44}"/>
+    <hyperlink ref="B48" r:id="rId65" xr:uid="{65E55220-D57F-4EFD-A82C-A1F8E6C4A013}"/>
+    <hyperlink ref="B49" r:id="rId66" xr:uid="{FF321CE1-CC98-4C5A-B109-A64BD31278A3}"/>
+    <hyperlink ref="B50" r:id="rId67" xr:uid="{020C92E5-83AE-44B3-B176-D1F7420C3991}"/>
+    <hyperlink ref="B51" r:id="rId68" xr:uid="{94BD75A6-8668-4BFB-8527-5041D6587B5F}"/>
+    <hyperlink ref="B52" r:id="rId69" xr:uid="{B0CFBCE5-AA2A-4752-A2B3-7A9CB949CBB3}"/>
+    <hyperlink ref="B53" r:id="rId70" xr:uid="{1D14CA6B-ECF7-4A74-8E40-996F1DA35ECE}"/>
+    <hyperlink ref="B54" r:id="rId71" xr:uid="{DBFE28CA-47BA-46B4-A868-3FA67C9028B4}"/>
+    <hyperlink ref="B55" r:id="rId72" xr:uid="{5603A6BA-58C5-4740-8864-4FD734664CAF}"/>
+    <hyperlink ref="X18" r:id="rId73" xr:uid="{347A6128-A57B-4424-B511-9F06EAAF0509}"/>
+    <hyperlink ref="AB18" r:id="rId74" xr:uid="{7BBC1BCE-C54B-4400-9913-89E168858554}"/>
+    <hyperlink ref="AB4" r:id="rId75" xr:uid="{D83F1C5E-D2FD-4642-98AC-782531AF5D01}"/>
+    <hyperlink ref="AB6" r:id="rId76" xr:uid="{6FC83A04-7AA3-4251-91DF-203043F7F2BE}"/>
+    <hyperlink ref="AB7" r:id="rId77" xr:uid="{DE2AECA6-5FB3-4444-B691-F258AA0A7B82}"/>
+    <hyperlink ref="B39" r:id="rId78" xr:uid="{5F7BABB7-9F6A-49AE-97DB-661226398F36}"/>
+    <hyperlink ref="B38" r:id="rId79" xr:uid="{55928DE3-7626-4B1A-982F-014101BC8AF9}"/>
+    <hyperlink ref="B32" r:id="rId80" xr:uid="{387D61B4-C456-4712-ADFF-C25F5EA5CF0A}"/>
+    <hyperlink ref="B56" r:id="rId81" xr:uid="{E3D076F3-D6A7-42D2-B127-75ED12AB429B}"/>
+    <hyperlink ref="AB56" r:id="rId82" xr:uid="{CFCE0A2E-D256-4124-A68C-63C52A54091F}"/>
+    <hyperlink ref="B23" r:id="rId83" xr:uid="{09CE3DF3-049B-4C37-9115-D65923BCEA79}"/>
+    <hyperlink ref="B4" r:id="rId84" xr:uid="{392BF280-D2DE-4CC3-A0C7-A82B814D07F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
 </worksheet>
 </file>
--- a/excel/samsung.xlsx
+++ b/excel/samsung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\AiogramTemplate\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4325A8BD-3E76-41C0-A8F9-D6DFB075F777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767134D0-9A3D-41F8-950B-9186F6F56A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3529,6 +3529,12 @@
     <t>https://ibb.co/zm3y28M</t>
   </si>
   <si>
+    <t>https://ibb.co/xMLwd0g</t>
+  </si>
+  <si>
+    <t>https://ibb.co/bKG7p13</t>
+  </si>
+  <si>
     <t>https://ibb.co/rMwznqG</t>
   </si>
   <si>
@@ -4260,12 +4266,6 @@
   </si>
   <si>
     <t>https://ibb.co/ScsjBNG</t>
-  </si>
-  <si>
-    <t>https://ibb.co/HnqRVDc</t>
-  </si>
-  <si>
-    <t>https://ibb.co/D9TjMgN</t>
   </si>
 </sst>
 </file>
@@ -4823,8 +4823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="131.25" customHeight="1"/>
@@ -5045,10 +5045,10 @@
     </row>
     <row r="3" spans="1:48" ht="131.25" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>1190</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>1188</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>810</v>
@@ -5102,7 +5102,7 @@
         <v>797</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>967</v>
@@ -5191,10 +5191,10 @@
     </row>
     <row r="4" spans="1:48" ht="131.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>601</v>
@@ -5248,7 +5248,7 @@
         <v>797</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>612</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="5" spans="1:48" ht="131.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>990</v>
@@ -5394,7 +5394,7 @@
         <v>797</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>148</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="6" spans="1:48" ht="131.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>991</v>
@@ -5540,7 +5540,7 @@
         <v>797</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>539</v>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="7" spans="1:48" ht="131.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>992</v>
@@ -5686,7 +5686,7 @@
         <v>797</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>927</v>
@@ -5769,10 +5769,10 @@
     </row>
     <row r="8" spans="1:48" ht="131.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>1224</v>
+        <v>993</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>624</v>
@@ -5826,7 +5826,7 @@
         <v>797</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>612</v>
@@ -5847,7 +5847,7 @@
         <v>610</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="AB8" s="13" t="s">
         <v>566</v>
@@ -5912,10 +5912,10 @@
     </row>
     <row r="9" spans="1:48" ht="131.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>1225</v>
+        <v>994</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>601</v>
@@ -5969,7 +5969,7 @@
         <v>797</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>542</v>
@@ -5990,7 +5990,7 @@
         <v>588</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="AB9" s="13" t="s">
         <v>566</v>
@@ -6055,10 +6055,10 @@
     </row>
     <row r="10" spans="1:48" ht="131.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>934</v>
@@ -6112,7 +6112,7 @@
         <v>797</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>927</v>
@@ -6133,7 +6133,7 @@
         <v>610</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="AB10" s="7" t="s">
         <v>537</v>
@@ -6195,10 +6195,10 @@
     </row>
     <row r="11" spans="1:48" ht="131.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>920</v>
@@ -6252,7 +6252,7 @@
         <v>797</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>913</v>
@@ -6273,7 +6273,7 @@
         <v>610</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="AB11" s="7" t="s">
         <v>537</v>
@@ -6338,10 +6338,10 @@
     </row>
     <row r="12" spans="1:48" ht="131.25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>578</v>
@@ -6395,7 +6395,7 @@
         <v>797</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U12" s="7" t="s">
         <v>568</v>
@@ -6416,7 +6416,7 @@
         <v>564</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="AB12" s="7" t="s">
         <v>537</v>
@@ -6481,10 +6481,10 @@
     </row>
     <row r="13" spans="1:48" ht="131.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>557</v>
@@ -6538,7 +6538,7 @@
         <v>797</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U13" s="7" t="s">
         <v>542</v>
@@ -6559,7 +6559,7 @@
         <v>538</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="AB13" s="7" t="s">
         <v>537</v>
@@ -6627,7 +6627,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>113</v>
@@ -6681,7 +6681,7 @@
         <v>797</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U14" s="7" t="s">
         <v>125</v>
@@ -6770,10 +6770,10 @@
     </row>
     <row r="15" spans="1:48" ht="131.25" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>677</v>
@@ -6827,7 +6827,7 @@
         <v>797</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>902</v>
@@ -6848,7 +6848,7 @@
         <v>892</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="AB15" s="7" t="s">
         <v>537</v>
@@ -6913,10 +6913,10 @@
     </row>
     <row r="16" spans="1:48" ht="131.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>744</v>
@@ -6970,7 +6970,7 @@
         <v>797</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U16" s="7" t="s">
         <v>879</v>
@@ -6991,7 +6991,7 @@
         <v>892</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="AB16" s="7" t="s">
         <v>537</v>
@@ -7056,7 +7056,7 @@
         <v>260</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>261</v>
@@ -7110,7 +7110,7 @@
         <v>797</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>125</v>
@@ -7131,7 +7131,7 @@
         <v>270</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="AB17" s="13" t="s">
         <v>127</v>
@@ -7202,16 +7202,16 @@
         <v>989</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>934</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>839</v>
@@ -7220,10 +7220,10 @@
         <v>884</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>59</v>
@@ -7235,34 +7235,34 @@
         <v>61</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>616</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>797</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="W18" s="7" t="s">
         <v>818</v>
@@ -7271,10 +7271,10 @@
         <v>566</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="AA18" s="7" t="s">
         <v>75</v>
@@ -7289,7 +7289,7 @@
         <v>891</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="AF18" s="8" t="s">
         <v>889</v>
@@ -7298,7 +7298,7 @@
         <v>811</v>
       </c>
       <c r="AH18" s="8" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="AI18" s="8">
         <v>186642</v>
@@ -7319,7 +7319,7 @@
         <v>605</v>
       </c>
       <c r="AO18" s="9" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="AP18" s="9" t="s">
         <v>162</v>
@@ -7348,7 +7348,7 @@
         <v>277</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>278</v>
@@ -7402,7 +7402,7 @@
         <v>797</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>288</v>
@@ -7494,7 +7494,7 @@
         <v>298</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>299</v>
@@ -7548,7 +7548,7 @@
         <v>797</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>125</v>
@@ -7637,10 +7637,10 @@
     </row>
     <row r="21" spans="1:48" ht="131.25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>677</v>
@@ -7694,7 +7694,7 @@
         <v>797</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>879</v>
@@ -7780,10 +7780,10 @@
     </row>
     <row r="22" spans="1:48" ht="131.25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>744</v>
@@ -7837,7 +7837,7 @@
         <v>797</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U22" s="7" t="s">
         <v>863</v>
@@ -7923,10 +7923,10 @@
     </row>
     <row r="23" spans="1:48" ht="131.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>810</v>
@@ -7980,7 +7980,7 @@
         <v>797</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>542</v>
@@ -8069,7 +8069,7 @@
         <v>318</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>319</v>
@@ -8123,7 +8123,7 @@
         <v>797</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>125</v>
@@ -8215,7 +8215,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>52</v>
@@ -8358,10 +8358,10 @@
     </row>
     <row r="26" spans="1:48" ht="131.25" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>842</v>
@@ -8415,7 +8415,7 @@
         <v>797</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U26" s="7" t="s">
         <v>835</v>
@@ -8501,10 +8501,10 @@
     </row>
     <row r="27" spans="1:48" ht="131.25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>829</v>
@@ -8558,7 +8558,7 @@
         <v>797</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>820</v>
@@ -8638,10 +8638,10 @@
     </row>
     <row r="28" spans="1:48" ht="131.25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>810</v>
@@ -8695,7 +8695,7 @@
         <v>797</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U28" s="7" t="s">
         <v>796</v>
@@ -8784,7 +8784,7 @@
         <v>336</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>319</v>
@@ -8838,7 +8838,7 @@
         <v>797</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -8930,7 +8930,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>52</v>
@@ -9076,7 +9076,7 @@
         <v>977</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>52</v>
@@ -9219,10 +9219,10 @@
     </row>
     <row r="32" spans="1:48" ht="131.25" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>677</v>
@@ -9234,7 +9234,7 @@
         <v>782</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>781</v>
@@ -9273,7 +9273,7 @@
         <v>774</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="T32" s="10" t="s">
         <v>773</v>
@@ -9359,7 +9359,7 @@
         <v>494</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>368</v>
@@ -9502,31 +9502,31 @@
     </row>
     <row r="34" spans="1:48" ht="131.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>500</v>
@@ -9538,70 +9538,70 @@
         <v>61</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="O34" s="10" t="s">
         <v>503</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="U34" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V34" s="7" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="W34" s="7" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="X34" s="7" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="Y34" s="7" t="s">
         <v>893</v>
       </c>
       <c r="Z34" s="7" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="AA34" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AB34" s="7" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="AC34" s="8" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="AD34" s="8" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="AE34" s="8" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="AF34" s="8" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="AG34" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH34" s="8" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="AI34" s="8">
         <v>780874</v>
@@ -9619,10 +9619,10 @@
         <v>491</v>
       </c>
       <c r="AN34" s="9" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="AO34" s="9" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="AP34" s="9" t="s">
         <v>162</v>
@@ -9640,7 +9640,7 @@
         <v>162</v>
       </c>
       <c r="AU34" s="9" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="AV34" s="9" t="s">
         <v>522</v>
@@ -9648,10 +9648,10 @@
     </row>
     <row r="35" spans="1:48" ht="131.25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>744</v>
@@ -9791,10 +9791,10 @@
     </row>
     <row r="36" spans="1:48" ht="131.25" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>744</v>
@@ -9937,7 +9937,7 @@
         <v>348</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>349</v>
@@ -9988,7 +9988,7 @@
         <v>67</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="T37" s="10" t="s">
         <v>356</v>
@@ -10080,34 +10080,34 @@
     </row>
     <row r="38" spans="1:48" ht="131.25" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>756</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>570</v>
@@ -10125,16 +10125,16 @@
         <v>0.83958333333333324</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="T38" s="10" t="s">
         <v>662</v>
@@ -10143,34 +10143,34 @@
         <v>691</v>
       </c>
       <c r="V38" s="14" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="W38" s="14" t="s">
         <v>689</v>
       </c>
       <c r="X38" s="14" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="Y38" s="14" t="s">
         <v>730</v>
       </c>
       <c r="Z38" s="14" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="AA38" s="14" t="s">
         <v>686</v>
       </c>
       <c r="AB38" s="14" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="AC38" s="15" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="AD38" s="15" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="AE38" s="15" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="AF38" s="15" t="s">
         <v>410</v>
@@ -10179,7 +10179,7 @@
         <v>164</v>
       </c>
       <c r="AH38" s="15" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="AI38" s="15">
         <v>557894</v>
@@ -10194,13 +10194,13 @@
         <v>2988</v>
       </c>
       <c r="AM38" s="16" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="AN38" s="16" t="s">
         <v>707</v>
       </c>
       <c r="AO38" s="16" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="AP38" s="16" t="s">
         <v>87</v>
@@ -10209,7 +10209,7 @@
         <v>87</v>
       </c>
       <c r="AR38" s="16" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="AS38" s="16" t="s">
         <v>643</v>
@@ -10218,7 +10218,7 @@
         <v>87</v>
       </c>
       <c r="AU38" s="16" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="AV38" s="16" t="s">
         <v>641</v>
@@ -10226,34 +10226,34 @@
     </row>
     <row r="39" spans="1:48" ht="131.25" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>570</v>
@@ -10262,70 +10262,70 @@
         <v>619</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="O39" s="18">
         <v>0.83958333333333324</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="U39" s="14" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="V39" s="20" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="W39" s="14" t="s">
         <v>689</v>
       </c>
       <c r="X39" s="14" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="Y39" s="14" t="s">
         <v>730</v>
       </c>
       <c r="Z39" s="14" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="AA39" s="14" t="s">
         <v>686</v>
       </c>
       <c r="AB39" s="14" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="AC39" s="15" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="AD39" s="15" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="AE39" s="15" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="AF39" s="15" t="s">
         <v>410</v>
       </c>
       <c r="AG39" s="15" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="AH39" s="15" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="AI39" s="15">
         <v>666321</v>
@@ -10340,13 +10340,13 @@
         <v>2645</v>
       </c>
       <c r="AM39" s="16" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="AN39" s="16" t="s">
         <v>707</v>
       </c>
       <c r="AO39" s="16" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="AP39" s="16" t="s">
         <v>87</v>
@@ -10355,7 +10355,7 @@
         <v>87</v>
       </c>
       <c r="AR39" s="16" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="AS39" s="16" t="s">
         <v>643</v>
@@ -10364,7 +10364,7 @@
         <v>87</v>
       </c>
       <c r="AU39" s="16" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="AV39" s="16" t="s">
         <v>641</v>
@@ -10372,10 +10372,10 @@
     </row>
     <row r="40" spans="1:48" ht="131.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>677</v>
@@ -10515,10 +10515,10 @@
     </row>
     <row r="41" spans="1:48" ht="131.25" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>677</v>
@@ -10658,10 +10658,10 @@
     </row>
     <row r="42" spans="1:48" ht="131.25" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>677</v>
@@ -10804,7 +10804,7 @@
         <v>373</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>349</v>
@@ -10950,7 +10950,7 @@
         <v>389</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>390</v>
@@ -11096,7 +11096,7 @@
         <v>418</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>419</v>
@@ -11242,7 +11242,7 @@
         <v>437</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>390</v>
@@ -11388,7 +11388,7 @@
         <v>454</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>390</v>
@@ -11531,34 +11531,34 @@
     </row>
     <row r="48" spans="1:48" ht="131.25" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>932</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>60</v>
@@ -11567,40 +11567,40 @@
         <v>61</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="U48" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V48" s="7" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="W48" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="Y48" s="7" t="s">
         <v>730</v>
@@ -11612,25 +11612,25 @@
         <v>686</v>
       </c>
       <c r="AB48" s="7" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="AC48" s="8" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="AD48" s="8" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="AE48" s="8" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="AF48" s="8" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="AG48" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH48" s="8" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="AI48" s="8">
         <v>755368</v>
@@ -11645,13 +11645,13 @@
         <v>3061</v>
       </c>
       <c r="AM48" s="9" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="AN48" s="9" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="AO48" s="9" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="AP48" s="9" t="s">
         <v>162</v>
@@ -11669,7 +11669,7 @@
         <v>162</v>
       </c>
       <c r="AU48" s="9" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="AV48" s="9" t="s">
         <v>203</v>
@@ -11677,34 +11677,34 @@
     </row>
     <row r="49" spans="1:48" ht="131.25" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>60</v>
@@ -11716,37 +11716,37 @@
         <v>340</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="O49" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="Q49" s="10" t="s">
         <v>836</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>691</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="W49" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X49" s="7" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="Y49" s="7" t="s">
         <v>730</v>
@@ -11758,25 +11758,25 @@
         <v>686</v>
       </c>
       <c r="AB49" s="7" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="AC49" s="8" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="AD49" s="8" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="AE49" s="8" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="AF49" s="8" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="AG49" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH49" s="8" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="AI49" s="8">
         <v>723645</v>
@@ -11791,13 +11791,13 @@
         <v>3105</v>
       </c>
       <c r="AM49" s="9" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="AN49" s="9" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="AO49" s="9" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="AP49" s="9" t="s">
         <v>162</v>
@@ -11815,7 +11815,7 @@
         <v>162</v>
       </c>
       <c r="AU49" s="9" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="AV49" s="9" t="s">
         <v>203</v>
@@ -11823,34 +11823,34 @@
     </row>
     <row r="50" spans="1:48" ht="131.25" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>60</v>
@@ -11859,70 +11859,70 @@
         <v>61</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="O50" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="U50" s="7" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="V50" s="7" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="W50" s="7" t="s">
         <v>689</v>
       </c>
       <c r="X50" s="7" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="Y50" s="7" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="Z50" s="7" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="AA50" s="7" t="s">
         <v>686</v>
       </c>
       <c r="AB50" s="7" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="AC50" s="8" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="AD50" s="8" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="AE50" s="8" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="AF50" s="8" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="AG50" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH50" s="8" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="AI50" s="8">
         <v>785648</v>
@@ -11937,13 +11937,13 @@
         <v>3177</v>
       </c>
       <c r="AM50" s="9" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="AN50" s="9" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="AO50" s="9" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="AP50" s="9" t="s">
         <v>162</v>
@@ -11961,7 +11961,7 @@
         <v>162</v>
       </c>
       <c r="AU50" s="9" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="AV50" s="9" t="s">
         <v>203</v>
@@ -11972,7 +11972,7 @@
         <v>237</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>238</v>
@@ -12118,7 +12118,7 @@
         <v>167</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>168</v>
@@ -12252,7 +12252,7 @@
         <v>204</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>168</v>
@@ -12386,7 +12386,7 @@
         <v>223</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>168</v>
@@ -12520,7 +12520,7 @@
         <v>466</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>390</v>
@@ -12663,34 +12663,34 @@
     </row>
     <row r="56" spans="1:48" ht="131.25" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>60</v>
@@ -12702,34 +12702,34 @@
         <v>340</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="P56" s="10" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="S56" s="10" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="T56" s="10" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="U56" s="21" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="V56" s="21" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="W56" s="21" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="X56" s="21" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="Y56" s="21" t="s">
         <v>730</v>
@@ -12741,25 +12741,25 @@
         <v>101</v>
       </c>
       <c r="AB56" s="13" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="AC56" s="22" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="AD56" s="22" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="AE56" s="22" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="AF56" s="22" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="AG56" s="22" t="s">
         <v>164</v>
       </c>
       <c r="AH56" s="22" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="AI56" s="22">
         <v>861235</v>
@@ -12777,10 +12777,10 @@
         <v>491</v>
       </c>
       <c r="AN56" s="23" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="AO56" s="23" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="AP56" s="23" t="s">
         <v>162</v>
@@ -12849,61 +12849,63 @@
     <hyperlink ref="B5" r:id="rId29" xr:uid="{64FE0D63-FAA9-45F8-9ECF-43E5DD163A2D}"/>
     <hyperlink ref="B6" r:id="rId30" xr:uid="{6A7CB81B-838C-4561-AD90-8702395B9EBA}"/>
     <hyperlink ref="B7" r:id="rId31" xr:uid="{717500D7-2530-4EC3-9379-67DEF891E54C}"/>
-    <hyperlink ref="B10" r:id="rId32" xr:uid="{74CB7BCC-CA2D-4AF4-928D-28EB0796D88D}"/>
-    <hyperlink ref="B11" r:id="rId33" xr:uid="{98108173-10F7-4F9B-8691-4AB9AB57A9ED}"/>
-    <hyperlink ref="B12" r:id="rId34" xr:uid="{C8FA30AD-AFD0-4DA1-A1C8-6CAD8CC76866}"/>
-    <hyperlink ref="B13" r:id="rId35" xr:uid="{D9B1D20B-0694-4A13-B501-6E7E420F3F9A}"/>
-    <hyperlink ref="B14" r:id="rId36" xr:uid="{F8BE4EFB-28DC-4E5A-8F7C-A8CC696C1B7A}"/>
-    <hyperlink ref="B15" r:id="rId37" xr:uid="{F53D55E0-DD72-4A20-8FFD-CCCDCA8AA678}"/>
-    <hyperlink ref="B16" r:id="rId38" xr:uid="{A98EEE45-3012-4357-8215-E87F7C4CB4C7}"/>
-    <hyperlink ref="B17" r:id="rId39" xr:uid="{DB5D215F-4BF0-4CE1-AF82-8220F10EC2B9}"/>
-    <hyperlink ref="B18" r:id="rId40" xr:uid="{F89D786B-4927-4722-8E20-1E004E23BB41}"/>
-    <hyperlink ref="B19" r:id="rId41" xr:uid="{48E74DE6-84EA-4FB2-9672-F0507150620D}"/>
-    <hyperlink ref="B20" r:id="rId42" xr:uid="{ABF2C152-D98C-451B-9528-39A01BCAB834}"/>
-    <hyperlink ref="B21" r:id="rId43" xr:uid="{1081D6D9-6DD4-4B21-ACA9-ECDE770CD6C0}"/>
-    <hyperlink ref="B22" r:id="rId44" xr:uid="{B0A0CD63-0D62-4B82-9917-D9C8225E2B8B}"/>
-    <hyperlink ref="B24" r:id="rId45" xr:uid="{D79F38FC-EAC8-4D62-BF5C-E76EF028A238}"/>
-    <hyperlink ref="B25" r:id="rId46" xr:uid="{42AE3BE6-D646-4C2D-8F3B-C7E197FE6D9B}"/>
-    <hyperlink ref="B26" r:id="rId47" xr:uid="{025B8A5C-24C9-45C2-BB7C-A13AB0D718E4}"/>
-    <hyperlink ref="B27" r:id="rId48" xr:uid="{4F860961-BD21-42E6-8E1E-6B5389577624}"/>
-    <hyperlink ref="B28" r:id="rId49" xr:uid="{B3B3BE21-0169-4D64-B703-A86384752BD7}"/>
-    <hyperlink ref="B29" r:id="rId50" xr:uid="{99768915-3BF5-4664-B988-9082E4421EB5}"/>
-    <hyperlink ref="B30" r:id="rId51" xr:uid="{186F0900-59F4-4243-AD6E-6491033771EC}"/>
-    <hyperlink ref="B31" r:id="rId52" xr:uid="{3489E315-F152-459C-8E83-B51589CB050E}"/>
-    <hyperlink ref="B34" r:id="rId53" xr:uid="{C43AF435-2DAF-4D2E-8D96-D64933DA6C34}"/>
-    <hyperlink ref="B35" r:id="rId54" xr:uid="{F8614BC6-0DBE-4FA2-9C27-95CB209E4596}"/>
-    <hyperlink ref="B36" r:id="rId55" xr:uid="{2B20BCE9-FD3B-41DB-87EE-E41F287FA3E0}"/>
-    <hyperlink ref="B37" r:id="rId56" xr:uid="{4135073D-C588-4B3E-B438-DD2D2446834C}"/>
-    <hyperlink ref="B40" r:id="rId57" xr:uid="{8FBBB1F8-6D05-4457-981B-002A6CACFC70}"/>
-    <hyperlink ref="B41" r:id="rId58" xr:uid="{9CF2B564-8975-400B-88EE-C6FB5DFCB87A}"/>
-    <hyperlink ref="B42" r:id="rId59" xr:uid="{4E2CE84C-33D4-47A0-B6E1-50AD43D84BB1}"/>
-    <hyperlink ref="B43" r:id="rId60" xr:uid="{55375CE8-CD84-4A4A-B3F7-CEC2C6F6346D}"/>
-    <hyperlink ref="B44" r:id="rId61" xr:uid="{4AD4E97D-BCED-4256-9A19-7C3381142A5A}"/>
-    <hyperlink ref="B45" r:id="rId62" xr:uid="{33C30D40-3F62-47F2-A54F-9B2E53E5B54A}"/>
-    <hyperlink ref="B46" r:id="rId63" xr:uid="{B33DDE67-DCDE-4038-A2BF-A4DAB73F92AF}"/>
-    <hyperlink ref="B47" r:id="rId64" xr:uid="{BE0EE156-A659-4FEB-83EC-6CB40AC23D44}"/>
-    <hyperlink ref="B48" r:id="rId65" xr:uid="{65E55220-D57F-4EFD-A82C-A1F8E6C4A013}"/>
-    <hyperlink ref="B49" r:id="rId66" xr:uid="{FF321CE1-CC98-4C5A-B109-A64BD31278A3}"/>
-    <hyperlink ref="B50" r:id="rId67" xr:uid="{020C92E5-83AE-44B3-B176-D1F7420C3991}"/>
-    <hyperlink ref="B51" r:id="rId68" xr:uid="{94BD75A6-8668-4BFB-8527-5041D6587B5F}"/>
-    <hyperlink ref="B52" r:id="rId69" xr:uid="{B0CFBCE5-AA2A-4752-A2B3-7A9CB949CBB3}"/>
-    <hyperlink ref="B53" r:id="rId70" xr:uid="{1D14CA6B-ECF7-4A74-8E40-996F1DA35ECE}"/>
-    <hyperlink ref="B54" r:id="rId71" xr:uid="{DBFE28CA-47BA-46B4-A868-3FA67C9028B4}"/>
-    <hyperlink ref="B55" r:id="rId72" xr:uid="{5603A6BA-58C5-4740-8864-4FD734664CAF}"/>
-    <hyperlink ref="X18" r:id="rId73" xr:uid="{347A6128-A57B-4424-B511-9F06EAAF0509}"/>
-    <hyperlink ref="AB18" r:id="rId74" xr:uid="{7BBC1BCE-C54B-4400-9913-89E168858554}"/>
-    <hyperlink ref="AB4" r:id="rId75" xr:uid="{D83F1C5E-D2FD-4642-98AC-782531AF5D01}"/>
-    <hyperlink ref="AB6" r:id="rId76" xr:uid="{6FC83A04-7AA3-4251-91DF-203043F7F2BE}"/>
-    <hyperlink ref="AB7" r:id="rId77" xr:uid="{DE2AECA6-5FB3-4444-B691-F258AA0A7B82}"/>
-    <hyperlink ref="B39" r:id="rId78" xr:uid="{5F7BABB7-9F6A-49AE-97DB-661226398F36}"/>
-    <hyperlink ref="B38" r:id="rId79" xr:uid="{55928DE3-7626-4B1A-982F-014101BC8AF9}"/>
-    <hyperlink ref="B32" r:id="rId80" xr:uid="{387D61B4-C456-4712-ADFF-C25F5EA5CF0A}"/>
-    <hyperlink ref="B56" r:id="rId81" xr:uid="{E3D076F3-D6A7-42D2-B127-75ED12AB429B}"/>
-    <hyperlink ref="AB56" r:id="rId82" xr:uid="{CFCE0A2E-D256-4124-A68C-63C52A54091F}"/>
-    <hyperlink ref="B23" r:id="rId83" xr:uid="{09CE3DF3-049B-4C37-9115-D65923BCEA79}"/>
-    <hyperlink ref="B4" r:id="rId84" xr:uid="{392BF280-D2DE-4CC3-A0C7-A82B814D07F9}"/>
+    <hyperlink ref="B8" r:id="rId32" xr:uid="{AF90A96D-A0A1-496B-A46B-C4DC20208446}"/>
+    <hyperlink ref="B9" r:id="rId33" xr:uid="{2FDB2E02-3CCA-4C84-A99D-B694FF992E17}"/>
+    <hyperlink ref="B10" r:id="rId34" xr:uid="{74CB7BCC-CA2D-4AF4-928D-28EB0796D88D}"/>
+    <hyperlink ref="B11" r:id="rId35" xr:uid="{98108173-10F7-4F9B-8691-4AB9AB57A9ED}"/>
+    <hyperlink ref="B12" r:id="rId36" xr:uid="{C8FA30AD-AFD0-4DA1-A1C8-6CAD8CC76866}"/>
+    <hyperlink ref="B13" r:id="rId37" xr:uid="{D9B1D20B-0694-4A13-B501-6E7E420F3F9A}"/>
+    <hyperlink ref="B14" r:id="rId38" xr:uid="{F8BE4EFB-28DC-4E5A-8F7C-A8CC696C1B7A}"/>
+    <hyperlink ref="B15" r:id="rId39" xr:uid="{F53D55E0-DD72-4A20-8FFD-CCCDCA8AA678}"/>
+    <hyperlink ref="B16" r:id="rId40" xr:uid="{A98EEE45-3012-4357-8215-E87F7C4CB4C7}"/>
+    <hyperlink ref="B17" r:id="rId41" xr:uid="{DB5D215F-4BF0-4CE1-AF82-8220F10EC2B9}"/>
+    <hyperlink ref="B18" r:id="rId42" xr:uid="{F89D786B-4927-4722-8E20-1E004E23BB41}"/>
+    <hyperlink ref="B19" r:id="rId43" xr:uid="{48E74DE6-84EA-4FB2-9672-F0507150620D}"/>
+    <hyperlink ref="B20" r:id="rId44" xr:uid="{ABF2C152-D98C-451B-9528-39A01BCAB834}"/>
+    <hyperlink ref="B21" r:id="rId45" xr:uid="{1081D6D9-6DD4-4B21-ACA9-ECDE770CD6C0}"/>
+    <hyperlink ref="B22" r:id="rId46" xr:uid="{B0A0CD63-0D62-4B82-9917-D9C8225E2B8B}"/>
+    <hyperlink ref="B24" r:id="rId47" xr:uid="{D79F38FC-EAC8-4D62-BF5C-E76EF028A238}"/>
+    <hyperlink ref="B25" r:id="rId48" xr:uid="{42AE3BE6-D646-4C2D-8F3B-C7E197FE6D9B}"/>
+    <hyperlink ref="B26" r:id="rId49" xr:uid="{025B8A5C-24C9-45C2-BB7C-A13AB0D718E4}"/>
+    <hyperlink ref="B27" r:id="rId50" xr:uid="{4F860961-BD21-42E6-8E1E-6B5389577624}"/>
+    <hyperlink ref="B28" r:id="rId51" xr:uid="{B3B3BE21-0169-4D64-B703-A86384752BD7}"/>
+    <hyperlink ref="B29" r:id="rId52" xr:uid="{99768915-3BF5-4664-B988-9082E4421EB5}"/>
+    <hyperlink ref="B30" r:id="rId53" xr:uid="{186F0900-59F4-4243-AD6E-6491033771EC}"/>
+    <hyperlink ref="B31" r:id="rId54" xr:uid="{3489E315-F152-459C-8E83-B51589CB050E}"/>
+    <hyperlink ref="B34" r:id="rId55" xr:uid="{C43AF435-2DAF-4D2E-8D96-D64933DA6C34}"/>
+    <hyperlink ref="B35" r:id="rId56" xr:uid="{F8614BC6-0DBE-4FA2-9C27-95CB209E4596}"/>
+    <hyperlink ref="B36" r:id="rId57" xr:uid="{2B20BCE9-FD3B-41DB-87EE-E41F287FA3E0}"/>
+    <hyperlink ref="B37" r:id="rId58" xr:uid="{4135073D-C588-4B3E-B438-DD2D2446834C}"/>
+    <hyperlink ref="B40" r:id="rId59" xr:uid="{8FBBB1F8-6D05-4457-981B-002A6CACFC70}"/>
+    <hyperlink ref="B41" r:id="rId60" xr:uid="{9CF2B564-8975-400B-88EE-C6FB5DFCB87A}"/>
+    <hyperlink ref="B42" r:id="rId61" xr:uid="{4E2CE84C-33D4-47A0-B6E1-50AD43D84BB1}"/>
+    <hyperlink ref="B43" r:id="rId62" xr:uid="{55375CE8-CD84-4A4A-B3F7-CEC2C6F6346D}"/>
+    <hyperlink ref="B44" r:id="rId63" xr:uid="{4AD4E97D-BCED-4256-9A19-7C3381142A5A}"/>
+    <hyperlink ref="B45" r:id="rId64" xr:uid="{33C30D40-3F62-47F2-A54F-9B2E53E5B54A}"/>
+    <hyperlink ref="B46" r:id="rId65" xr:uid="{B33DDE67-DCDE-4038-A2BF-A4DAB73F92AF}"/>
+    <hyperlink ref="B47" r:id="rId66" xr:uid="{BE0EE156-A659-4FEB-83EC-6CB40AC23D44}"/>
+    <hyperlink ref="B48" r:id="rId67" xr:uid="{65E55220-D57F-4EFD-A82C-A1F8E6C4A013}"/>
+    <hyperlink ref="B49" r:id="rId68" xr:uid="{FF321CE1-CC98-4C5A-B109-A64BD31278A3}"/>
+    <hyperlink ref="B50" r:id="rId69" xr:uid="{020C92E5-83AE-44B3-B176-D1F7420C3991}"/>
+    <hyperlink ref="B51" r:id="rId70" xr:uid="{94BD75A6-8668-4BFB-8527-5041D6587B5F}"/>
+    <hyperlink ref="B52" r:id="rId71" xr:uid="{B0CFBCE5-AA2A-4752-A2B3-7A9CB949CBB3}"/>
+    <hyperlink ref="B53" r:id="rId72" xr:uid="{1D14CA6B-ECF7-4A74-8E40-996F1DA35ECE}"/>
+    <hyperlink ref="B54" r:id="rId73" xr:uid="{DBFE28CA-47BA-46B4-A868-3FA67C9028B4}"/>
+    <hyperlink ref="B55" r:id="rId74" xr:uid="{5603A6BA-58C5-4740-8864-4FD734664CAF}"/>
+    <hyperlink ref="X18" r:id="rId75" xr:uid="{347A6128-A57B-4424-B511-9F06EAAF0509}"/>
+    <hyperlink ref="AB18" r:id="rId76" xr:uid="{7BBC1BCE-C54B-4400-9913-89E168858554}"/>
+    <hyperlink ref="AB4" r:id="rId77" xr:uid="{D83F1C5E-D2FD-4642-98AC-782531AF5D01}"/>
+    <hyperlink ref="AB6" r:id="rId78" xr:uid="{6FC83A04-7AA3-4251-91DF-203043F7F2BE}"/>
+    <hyperlink ref="AB7" r:id="rId79" xr:uid="{DE2AECA6-5FB3-4444-B691-F258AA0A7B82}"/>
+    <hyperlink ref="B39" r:id="rId80" xr:uid="{5F7BABB7-9F6A-49AE-97DB-661226398F36}"/>
+    <hyperlink ref="B38" r:id="rId81" xr:uid="{55928DE3-7626-4B1A-982F-014101BC8AF9}"/>
+    <hyperlink ref="B32" r:id="rId82" xr:uid="{387D61B4-C456-4712-ADFF-C25F5EA5CF0A}"/>
+    <hyperlink ref="B56" r:id="rId83" xr:uid="{E3D076F3-D6A7-42D2-B127-75ED12AB429B}"/>
+    <hyperlink ref="AB56" r:id="rId84" xr:uid="{CFCE0A2E-D256-4124-A68C-63C52A54091F}"/>
+    <hyperlink ref="B23" r:id="rId85" xr:uid="{09CE3DF3-049B-4C37-9115-D65923BCEA79}"/>
+    <hyperlink ref="B4" r:id="rId86" xr:uid="{392BF280-D2DE-4CC3-A0C7-A82B814D07F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
 </worksheet>
 </file>
--- a/excel/samsung.xlsx
+++ b/excel/samsung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\AiogramTemplate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767134D0-9A3D-41F8-950B-9186F6F56A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9F3DBE-ED92-4FA5-A157-492179F23622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="1227">
   <si>
     <t>Общие Характеристики</t>
   </si>
@@ -2349,9 +2349,6 @@
     <t xml:space="preserve"> 161.4 Х 76.3 Х 8 мм</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2020, Март 13</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 4.2, A2DP</t>
   </si>
   <si>
@@ -4266,6 +4263,12 @@
   </si>
   <si>
     <t>https://ibb.co/ScsjBNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020, Март 13.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020, Ноябрь 24.</t>
   </si>
 </sst>
 </file>
@@ -4823,8 +4826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="131.25" customHeight="1"/>
@@ -5045,31 +5048,31 @@
     </row>
     <row r="3" spans="1:48" ht="131.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>598</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>551</v>
@@ -5081,70 +5084,70 @@
         <v>549</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>537</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AB3" s="13" t="s">
         <v>566</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AD3" s="8" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AI3" s="8">
         <v>125789</v>
@@ -5159,7 +5162,7 @@
         <v>590</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AN3" s="9" t="s">
         <v>605</v>
@@ -5174,51 +5177,51 @@
         <v>525</v>
       </c>
       <c r="AR3" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AS3" s="9" t="s">
         <v>603</v>
       </c>
       <c r="AT3" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="131.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>601</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>598</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>596</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>550</v>
@@ -5227,7 +5230,7 @@
         <v>549</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>547</v>
@@ -5236,7 +5239,7 @@
         <v>0.83958333333333324</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>544</v>
@@ -5245,16 +5248,16 @@
         <v>543</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>612</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="W4" s="7" t="s">
         <v>150</v>
@@ -5263,13 +5266,13 @@
         <v>537</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Z4" s="7" t="s">
         <v>152</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AB4" s="13" t="s">
         <v>566</v>
@@ -5278,19 +5281,19 @@
         <v>587</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG4" s="8" t="s">
         <v>294</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AI4" s="8">
         <v>102548</v>
@@ -5320,27 +5323,27 @@
         <v>87</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AS4" s="9" t="s">
         <v>603</v>
       </c>
       <c r="AT4" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AU4" s="9" t="s">
         <v>580</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="131.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>140</v>
@@ -5391,10 +5394,10 @@
         <v>147</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>148</v>
@@ -5483,31 +5486,31 @@
     </row>
     <row r="6" spans="1:48" ht="131.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>571</v>
@@ -5519,34 +5522,34 @@
         <v>549</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>539</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="W6" s="7" t="s">
         <v>540</v>
@@ -5555,34 +5558,34 @@
         <v>537</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AB6" s="13" t="s">
         <v>566</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AF6" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AH6" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AI6" s="8">
         <v>138456</v>
@@ -5612,7 +5615,7 @@
         <v>525</v>
       </c>
       <c r="AR6" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AS6" s="9" t="s">
         <v>526</v>
@@ -5621,7 +5624,7 @@
         <v>164</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AV6" s="9" t="s">
         <v>523</v>
@@ -5629,34 +5632,34 @@
     </row>
     <row r="7" spans="1:48" ht="131.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>621</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>550</v>
@@ -5665,34 +5668,34 @@
         <v>549</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="W7" s="7" t="s">
         <v>540</v>
@@ -5713,22 +5716,22 @@
         <v>566</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AD7" s="8" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AE7" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AF7" s="8" t="s">
         <v>156</v>
       </c>
       <c r="AG7" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AH7" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AK7" s="8">
         <v>178</v>
@@ -5752,16 +5755,16 @@
         <v>87</v>
       </c>
       <c r="AR7" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AS7" s="9" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>164</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AV7" s="9" t="s">
         <v>579</v>
@@ -5769,13 +5772,13 @@
     </row>
     <row r="8" spans="1:48" ht="131.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>624</v>
+        <v>1225</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>623</v>
@@ -5823,10 +5826,10 @@
         <v>613</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>612</v>
@@ -5847,7 +5850,7 @@
         <v>610</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AB8" s="13" t="s">
         <v>566</v>
@@ -5912,13 +5915,13 @@
     </row>
     <row r="9" spans="1:48" ht="131.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>601</v>
+        <v>1226</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>600</v>
@@ -5966,10 +5969,10 @@
         <v>591</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>542</v>
@@ -5990,7 +5993,7 @@
         <v>588</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AB9" s="13" t="s">
         <v>566</v>
@@ -6055,34 +6058,34 @@
     </row>
     <row r="10" spans="1:48" ht="131.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>621</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>550</v>
@@ -6091,7 +6094,7 @@
         <v>549</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>617</v>
@@ -6100,25 +6103,25 @@
         <v>616</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>613</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="W10" s="7" t="s">
         <v>540</v>
@@ -6133,28 +6136,28 @@
         <v>610</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AB10" s="7" t="s">
         <v>537</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AD10" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AF10" s="8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AG10" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AK10" s="8">
         <v>235</v>
@@ -6178,16 +6181,16 @@
         <v>525</v>
       </c>
       <c r="AR10" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AS10" s="9" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>525</v>
       </c>
       <c r="AU10" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AV10" s="9" t="s">
         <v>579</v>
@@ -6195,31 +6198,31 @@
     </row>
     <row r="11" spans="1:48" ht="131.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>571</v>
@@ -6234,34 +6237,34 @@
         <v>548</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q11" s="10" t="s">
         <v>614</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="X11" s="13" t="s">
         <v>566</v>
@@ -6273,28 +6276,28 @@
         <v>610</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AB11" s="7" t="s">
         <v>537</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AD11" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AE11" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AF11" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG11" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AH11" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AJ11" s="8">
         <v>75800</v>
@@ -6312,7 +6315,7 @@
         <v>529</v>
       </c>
       <c r="AO11" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AP11" s="9" t="s">
         <v>525</v>
@@ -6321,27 +6324,27 @@
         <v>525</v>
       </c>
       <c r="AR11" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AS11" s="9" t="s">
         <v>526</v>
       </c>
       <c r="AT11" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AU11" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="131.25" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>1221</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>1222</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>578</v>
@@ -6392,10 +6395,10 @@
         <v>543</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U12" s="7" t="s">
         <v>568</v>
@@ -6416,7 +6419,7 @@
         <v>564</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AB12" s="7" t="s">
         <v>537</v>
@@ -6481,10 +6484,10 @@
     </row>
     <row r="13" spans="1:48" ht="131.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>557</v>
@@ -6535,10 +6538,10 @@
         <v>543</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U13" s="7" t="s">
         <v>542</v>
@@ -6559,7 +6562,7 @@
         <v>538</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AB13" s="7" t="s">
         <v>537</v>
@@ -6627,7 +6630,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>113</v>
@@ -6678,10 +6681,10 @@
         <v>124</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U14" s="7" t="s">
         <v>125</v>
@@ -6770,34 +6773,34 @@
     </row>
     <row r="15" spans="1:48" ht="131.25" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>550</v>
@@ -6812,28 +6815,28 @@
         <v>617</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="W15" s="7" t="s">
         <v>540</v>
@@ -6842,34 +6845,34 @@
         <v>537</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="Z15" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AB15" s="7" t="s">
         <v>537</v>
       </c>
       <c r="AC15" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AD15" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AE15" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AF15" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AG15" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AH15" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AJ15" s="8">
         <v>118303</v>
@@ -6887,7 +6890,7 @@
         <v>605</v>
       </c>
       <c r="AO15" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AP15" s="9" t="s">
         <v>525</v>
@@ -6896,10 +6899,10 @@
         <v>525</v>
       </c>
       <c r="AR15" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AS15" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AT15" s="9" t="s">
         <v>164</v>
@@ -6913,34 +6916,34 @@
     </row>
     <row r="16" spans="1:48" ht="131.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>550</v>
@@ -6958,7 +6961,7 @@
         <v>616</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>614</v>
@@ -6967,16 +6970,16 @@
         <v>613</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="W16" s="7" t="s">
         <v>540</v>
@@ -6985,34 +6988,34 @@
         <v>566</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="Z16" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AB16" s="7" t="s">
         <v>537</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AD16" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AE16" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AF16" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AG16" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AH16" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AK16" s="8">
         <v>264</v>
@@ -7027,7 +7030,7 @@
         <v>529</v>
       </c>
       <c r="AO16" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AP16" s="9" t="s">
         <v>87</v>
@@ -7045,7 +7048,7 @@
         <v>87</v>
       </c>
       <c r="AU16" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AV16" s="9" t="s">
         <v>579</v>
@@ -7056,7 +7059,7 @@
         <v>260</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>261</v>
@@ -7068,7 +7071,7 @@
         <v>263</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>264</v>
@@ -7107,10 +7110,10 @@
         <v>267</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>125</v>
@@ -7131,7 +7134,7 @@
         <v>270</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AB17" s="13" t="s">
         <v>127</v>
@@ -7199,31 +7202,31 @@
     </row>
     <row r="18" spans="1:48" ht="131.25" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>1033</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>1034</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>59</v>
@@ -7235,46 +7238,46 @@
         <v>61</v>
       </c>
       <c r="M18" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N18" s="10" t="s">
         <v>1035</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>1036</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>616</v>
       </c>
       <c r="P18" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q18" s="10" t="s">
         <v>1037</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="R18" s="10" t="s">
         <v>1038</v>
       </c>
-      <c r="R18" s="10" t="s">
-        <v>1039</v>
-      </c>
       <c r="S18" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U18" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="V18" s="7" t="s">
         <v>1041</v>
       </c>
-      <c r="V18" s="7" t="s">
-        <v>1042</v>
-      </c>
       <c r="W18" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="X18" s="13" t="s">
         <v>566</v>
       </c>
       <c r="Y18" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Z18" s="7" t="s">
         <v>1043</v>
-      </c>
-      <c r="Z18" s="7" t="s">
-        <v>1044</v>
       </c>
       <c r="AA18" s="7" t="s">
         <v>75</v>
@@ -7283,22 +7286,22 @@
         <v>566</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AD18" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AE18" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AF18" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="AG18" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="AH18" s="8" t="s">
         <v>1045</v>
-      </c>
-      <c r="AF18" s="8" t="s">
-        <v>889</v>
-      </c>
-      <c r="AG18" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="AH18" s="8" t="s">
-        <v>1046</v>
       </c>
       <c r="AI18" s="8">
         <v>186642</v>
@@ -7319,7 +7322,7 @@
         <v>605</v>
       </c>
       <c r="AO18" s="9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AP18" s="9" t="s">
         <v>162</v>
@@ -7337,7 +7340,7 @@
         <v>87</v>
       </c>
       <c r="AU18" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AV18" s="9" t="s">
         <v>203</v>
@@ -7348,7 +7351,7 @@
         <v>277</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>278</v>
@@ -7399,10 +7402,10 @@
         <v>287</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>288</v>
@@ -7494,7 +7497,7 @@
         <v>298</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>299</v>
@@ -7506,7 +7509,7 @@
         <v>301</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>302</v>
@@ -7545,10 +7548,10 @@
         <v>305</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>125</v>
@@ -7637,34 +7640,34 @@
     </row>
     <row r="21" spans="1:48" ht="131.25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>621</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>550</v>
@@ -7673,34 +7676,34 @@
         <v>549</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="W21" s="7" t="s">
         <v>540</v>
@@ -7709,10 +7712,10 @@
         <v>566</v>
       </c>
       <c r="Y21" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>101</v>
@@ -7721,22 +7724,22 @@
         <v>566</v>
       </c>
       <c r="AC21" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AD21" s="8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AG21" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AH21" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AJ21" s="8">
         <v>175851</v>
@@ -7754,7 +7757,7 @@
         <v>605</v>
       </c>
       <c r="AO21" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AP21" s="9" t="s">
         <v>525</v>
@@ -7763,7 +7766,7 @@
         <v>525</v>
       </c>
       <c r="AR21" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AS21" s="9" t="s">
         <v>603</v>
@@ -7780,34 +7783,34 @@
     </row>
     <row r="22" spans="1:48" ht="131.25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>570</v>
@@ -7819,67 +7822,67 @@
         <v>618</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O22" s="10" t="s">
         <v>616</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="W22" s="7" t="s">
         <v>540</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AB22" s="7" t="s">
         <v>537</v>
       </c>
       <c r="AC22" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AD22" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AE22" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF22" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AG22" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AH22" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AJ22" s="8">
         <v>177562</v>
@@ -7891,13 +7894,13 @@
         <v>1184</v>
       </c>
       <c r="AM22" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AN22" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AO22" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AP22" s="9" t="s">
         <v>525</v>
@@ -7915,7 +7918,7 @@
         <v>525</v>
       </c>
       <c r="AU22" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AV22" s="9" t="s">
         <v>579</v>
@@ -7923,34 +7926,34 @@
     </row>
     <row r="23" spans="1:48" ht="131.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>621</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>550</v>
@@ -7968,61 +7971,61 @@
         <v>546</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>542</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Z23" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AB23" s="13" t="s">
         <v>566</v>
       </c>
       <c r="AC23" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AD23" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF23" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AG23" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AH23" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AJ23" s="8">
         <v>192677</v>
@@ -8040,7 +8043,7 @@
         <v>529</v>
       </c>
       <c r="AO23" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AP23" s="9" t="s">
         <v>525</v>
@@ -8058,7 +8061,7 @@
         <v>525</v>
       </c>
       <c r="AU23" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AV23" s="9" t="s">
         <v>579</v>
@@ -8069,7 +8072,7 @@
         <v>318</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>319</v>
@@ -8120,10 +8123,10 @@
         <v>100</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>125</v>
@@ -8215,7 +8218,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>52</v>
@@ -8266,7 +8269,7 @@
         <v>107</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T25" s="10" t="s">
         <v>68</v>
@@ -8358,34 +8361,34 @@
     </row>
     <row r="26" spans="1:48" ht="131.25" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>550</v>
@@ -8394,10 +8397,10 @@
         <v>619</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="O26" s="19" t="s">
         <v>546</v>
@@ -8406,34 +8409,34 @@
         <v>0.86</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="W26" s="7" t="s">
         <v>540</v>
       </c>
       <c r="X26" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="Y26" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AA26" s="7" t="s">
         <v>101</v>
@@ -8442,22 +8445,22 @@
         <v>566</v>
       </c>
       <c r="AC26" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AD26" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AE26" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF26" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AG26" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AH26" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AJ26" s="8">
         <v>210563</v>
@@ -8475,7 +8478,7 @@
         <v>605</v>
       </c>
       <c r="AO26" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AP26" s="9" t="s">
         <v>525</v>
@@ -8484,7 +8487,7 @@
         <v>525</v>
       </c>
       <c r="AR26" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AS26" s="9" t="s">
         <v>603</v>
@@ -8501,34 +8504,34 @@
     </row>
     <row r="27" spans="1:48" ht="131.25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>570</v>
@@ -8537,67 +8540,67 @@
         <v>549</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>546</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="X27" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="Y27" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Z27" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AB27" s="7" t="s">
         <v>537</v>
       </c>
       <c r="AC27" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AD27" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AE27" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AF27" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AG27" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AH27" s="8" t="s">
         <v>365</v>
@@ -8612,7 +8615,7 @@
         <v>605</v>
       </c>
       <c r="AO27" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AP27" s="9" t="s">
         <v>525</v>
@@ -8638,34 +8641,34 @@
     </row>
     <row r="28" spans="1:48" ht="131.25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>570</v>
@@ -8674,67 +8677,67 @@
         <v>549</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="O28" s="18">
         <v>0.83958333333333324</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="W28" s="7" t="s">
         <v>540</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Y28" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="Z28" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AA28" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AB28" s="13" t="s">
         <v>127</v>
       </c>
       <c r="AC28" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AD28" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AF28" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AG28" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AH28" s="8" t="s">
         <v>365</v>
@@ -8755,7 +8758,7 @@
         <v>529</v>
       </c>
       <c r="AO28" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AP28" s="9" t="s">
         <v>525</v>
@@ -8773,7 +8776,7 @@
         <v>525</v>
       </c>
       <c r="AU28" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AV28" s="9" t="s">
         <v>579</v>
@@ -8784,7 +8787,7 @@
         <v>336</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>319</v>
@@ -8835,10 +8838,10 @@
         <v>181</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -8930,7 +8933,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>52</v>
@@ -8981,7 +8984,7 @@
         <v>67</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T30" s="10" t="s">
         <v>68</v>
@@ -9073,19 +9076,19 @@
     </row>
     <row r="31" spans="1:48" ht="131.25" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>978</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>979</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>55</v>
@@ -9094,10 +9097,10 @@
         <v>56</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>980</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>981</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>59</v>
@@ -9121,22 +9124,22 @@
         <v>65</v>
       </c>
       <c r="Q31" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="R31" s="10" t="s">
         <v>982</v>
       </c>
-      <c r="R31" s="10" t="s">
-        <v>983</v>
-      </c>
       <c r="S31" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="T31" s="10" t="s">
         <v>68</v>
       </c>
       <c r="U31" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="V31" s="7" t="s">
         <v>984</v>
-      </c>
-      <c r="V31" s="7" t="s">
-        <v>985</v>
       </c>
       <c r="W31" s="7" t="s">
         <v>71</v>
@@ -9145,10 +9148,10 @@
         <v>72</v>
       </c>
       <c r="Y31" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="Z31" s="7" t="s">
         <v>986</v>
-      </c>
-      <c r="Z31" s="7" t="s">
-        <v>987</v>
       </c>
       <c r="AA31" s="7" t="s">
         <v>75</v>
@@ -9163,7 +9166,7 @@
         <v>78</v>
       </c>
       <c r="AE31" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AF31" s="8" t="s">
         <v>312</v>
@@ -9219,34 +9222,34 @@
     </row>
     <row r="32" spans="1:48" ht="131.25" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>570</v>
@@ -9255,82 +9258,82 @@
         <v>549</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O32" s="18">
         <v>0.67361111111111116</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="V32" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="W32" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Y32" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Z32" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AA32" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AB32" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AC32" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AD32" s="8" t="s">
         <v>381</v>
       </c>
       <c r="AE32" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AF32" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AG32" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH32" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AJ32" s="8">
         <v>379422</v>
       </c>
       <c r="AM32" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AN32" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AO32" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AP32" s="9" t="s">
         <v>525</v>
@@ -9339,7 +9342,7 @@
         <v>525</v>
       </c>
       <c r="AR32" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AS32" s="9" t="s">
         <v>526</v>
@@ -9348,10 +9351,10 @@
         <v>525</v>
       </c>
       <c r="AU32" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AV32" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="33" spans="1:48" ht="131.25" customHeight="1">
@@ -9359,7 +9362,7 @@
         <v>494</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>368</v>
@@ -9502,31 +9505,31 @@
     </row>
     <row r="34" spans="1:48" ht="131.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>1053</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>1054</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>500</v>
@@ -9538,70 +9541,70 @@
         <v>61</v>
       </c>
       <c r="M34" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N34" s="10" t="s">
         <v>1055</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>1056</v>
       </c>
       <c r="O34" s="10" t="s">
         <v>503</v>
       </c>
       <c r="P34" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Q34" s="10" t="s">
         <v>1057</v>
       </c>
-      <c r="Q34" s="10" t="s">
+      <c r="R34" s="10" t="s">
         <v>1058</v>
       </c>
-      <c r="R34" s="10" t="s">
+      <c r="S34" s="10" t="s">
         <v>1059</v>
       </c>
-      <c r="S34" s="10" t="s">
+      <c r="T34" s="10" t="s">
         <v>1060</v>
       </c>
-      <c r="T34" s="10" t="s">
+      <c r="U34" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="V34" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="U34" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="V34" s="7" t="s">
+      <c r="W34" s="7" t="s">
         <v>1062</v>
       </c>
-      <c r="W34" s="7" t="s">
+      <c r="X34" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="X34" s="7" t="s">
+      <c r="Y34" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="Z34" s="7" t="s">
         <v>1064</v>
-      </c>
-      <c r="Y34" s="7" t="s">
-        <v>893</v>
-      </c>
-      <c r="Z34" s="7" t="s">
-        <v>1065</v>
       </c>
       <c r="AA34" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AB34" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AC34" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="AC34" s="8" t="s">
+      <c r="AD34" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="AD34" s="8" t="s">
+      <c r="AE34" s="8" t="s">
         <v>1068</v>
       </c>
-      <c r="AE34" s="8" t="s">
+      <c r="AF34" s="8" t="s">
         <v>1069</v>
-      </c>
-      <c r="AF34" s="8" t="s">
-        <v>1070</v>
       </c>
       <c r="AG34" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH34" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AI34" s="8">
         <v>780874</v>
@@ -9619,10 +9622,10 @@
         <v>491</v>
       </c>
       <c r="AN34" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AO34" s="9" t="s">
         <v>1072</v>
-      </c>
-      <c r="AO34" s="9" t="s">
-        <v>1073</v>
       </c>
       <c r="AP34" s="9" t="s">
         <v>162</v>
@@ -9640,7 +9643,7 @@
         <v>162</v>
       </c>
       <c r="AU34" s="9" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AV34" s="9" t="s">
         <v>522</v>
@@ -9648,34 +9651,34 @@
     </row>
     <row r="35" spans="1:48" ht="131.25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>550</v>
@@ -9684,70 +9687,70 @@
         <v>549</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="X35" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y35" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Z35" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA35" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AB35" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AC35" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AD35" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AE35" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AF35" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AG35" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH35" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AJ35" s="8">
         <v>438356</v>
@@ -9762,10 +9765,10 @@
         <v>530</v>
       </c>
       <c r="AN35" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AO35" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AP35" s="9" t="s">
         <v>525</v>
@@ -9774,51 +9777,51 @@
         <v>525</v>
       </c>
       <c r="AR35" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AS35" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AT35" s="9" t="s">
         <v>525</v>
       </c>
       <c r="AU35" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AV35" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="36" spans="1:48" ht="131.25" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>570</v>
@@ -9827,70 +9830,70 @@
         <v>549</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U36" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="V36" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="W36" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="X36" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y36" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Z36" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA36" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AB36" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AC36" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AD36" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AE36" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AF36" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AG36" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AH36" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AJ36" s="8">
         <v>442975</v>
@@ -9902,13 +9905,13 @@
         <v>2490</v>
       </c>
       <c r="AM36" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AN36" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AO36" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AP36" s="9" t="s">
         <v>87</v>
@@ -9917,19 +9920,19 @@
         <v>87</v>
       </c>
       <c r="AR36" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AS36" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AT36" s="9" t="s">
         <v>525</v>
       </c>
       <c r="AU36" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AV36" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:48" ht="131.25" customHeight="1">
@@ -9937,7 +9940,7 @@
         <v>348</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>349</v>
@@ -9949,7 +9952,7 @@
         <v>351</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>352</v>
@@ -9988,7 +9991,7 @@
         <v>67</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="T37" s="10" t="s">
         <v>356</v>
@@ -10080,34 +10083,34 @@
     </row>
     <row r="38" spans="1:48" ht="131.25" customHeight="1">
       <c r="A38" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>1146</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="I38" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>1150</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>1151</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>570</v>
@@ -10116,61 +10119,61 @@
         <v>619</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="O38" s="18">
         <v>0.83958333333333324</v>
       </c>
       <c r="P38" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="R38" s="10" t="s">
         <v>1152</v>
       </c>
-      <c r="Q38" s="10" t="s">
-        <v>836</v>
-      </c>
-      <c r="R38" s="10" t="s">
+      <c r="S38" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="U38" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="V38" s="14" t="s">
         <v>1153</v>
       </c>
-      <c r="S38" s="10" t="s">
-        <v>1040</v>
-      </c>
-      <c r="T38" s="10" t="s">
-        <v>662</v>
-      </c>
-      <c r="U38" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="V38" s="14" t="s">
+      <c r="W38" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="X38" s="14" t="s">
         <v>1154</v>
       </c>
-      <c r="W38" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="X38" s="14" t="s">
+      <c r="Y38" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z38" s="14" t="s">
         <v>1155</v>
       </c>
-      <c r="Y38" s="14" t="s">
-        <v>730</v>
-      </c>
-      <c r="Z38" s="14" t="s">
+      <c r="AA38" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB38" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AC38" s="15" t="s">
         <v>1156</v>
       </c>
-      <c r="AA38" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="AB38" s="14" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AC38" s="15" t="s">
+      <c r="AD38" s="15" t="s">
         <v>1157</v>
       </c>
-      <c r="AD38" s="15" t="s">
+      <c r="AE38" s="15" t="s">
         <v>1158</v>
-      </c>
-      <c r="AE38" s="15" t="s">
-        <v>1159</v>
       </c>
       <c r="AF38" s="15" t="s">
         <v>410</v>
@@ -10179,7 +10182,7 @@
         <v>164</v>
       </c>
       <c r="AH38" s="15" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AI38" s="15">
         <v>557894</v>
@@ -10194,13 +10197,13 @@
         <v>2988</v>
       </c>
       <c r="AM38" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AN38" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="AO38" s="16" t="s">
         <v>1161</v>
-      </c>
-      <c r="AN38" s="16" t="s">
-        <v>707</v>
-      </c>
-      <c r="AO38" s="16" t="s">
-        <v>1162</v>
       </c>
       <c r="AP38" s="16" t="s">
         <v>87</v>
@@ -10209,51 +10212,51 @@
         <v>87</v>
       </c>
       <c r="AR38" s="16" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AS38" s="16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AT38" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AU38" s="16" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AV38" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="39" spans="1:48" ht="131.25" customHeight="1">
       <c r="A39" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>1166</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>1168</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>1172</v>
-      </c>
       <c r="J39" s="10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>570</v>
@@ -10262,70 +10265,70 @@
         <v>619</v>
       </c>
       <c r="M39" s="10" t="s">
+        <v>1172</v>
+      </c>
+      <c r="N39" s="10" t="s">
         <v>1173</v>
-      </c>
-      <c r="N39" s="10" t="s">
-        <v>1174</v>
       </c>
       <c r="O39" s="18">
         <v>0.83958333333333324</v>
       </c>
       <c r="P39" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Q39" s="10" t="s">
         <v>1175</v>
       </c>
-      <c r="Q39" s="10" t="s">
+      <c r="R39" s="10" t="s">
         <v>1176</v>
       </c>
-      <c r="R39" s="10" t="s">
+      <c r="S39" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="T39" s="10" t="s">
         <v>1177</v>
       </c>
-      <c r="S39" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="T39" s="10" t="s">
+      <c r="U39" s="14" t="s">
         <v>1178</v>
       </c>
-      <c r="U39" s="14" t="s">
+      <c r="V39" s="20" t="s">
         <v>1179</v>
       </c>
-      <c r="V39" s="20" t="s">
+      <c r="W39" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="X39" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="Y39" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z39" s="14" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AA39" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB39" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AC39" s="15" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AD39" s="15" t="s">
         <v>1180</v>
       </c>
-      <c r="W39" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="X39" s="14" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Y39" s="14" t="s">
-        <v>730</v>
-      </c>
-      <c r="Z39" s="14" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AA39" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="AB39" s="14" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AC39" s="15" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AD39" s="15" t="s">
+      <c r="AE39" s="15" t="s">
         <v>1181</v>
-      </c>
-      <c r="AE39" s="15" t="s">
-        <v>1182</v>
       </c>
       <c r="AF39" s="15" t="s">
         <v>410</v>
       </c>
       <c r="AG39" s="15" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AH39" s="15" t="s">
         <v>1183</v>
-      </c>
-      <c r="AH39" s="15" t="s">
-        <v>1184</v>
       </c>
       <c r="AI39" s="15">
         <v>666321</v>
@@ -10340,13 +10343,13 @@
         <v>2645</v>
       </c>
       <c r="AM39" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AN39" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="AO39" s="16" t="s">
         <v>1161</v>
-      </c>
-      <c r="AN39" s="16" t="s">
-        <v>707</v>
-      </c>
-      <c r="AO39" s="16" t="s">
-        <v>1162</v>
       </c>
       <c r="AP39" s="16" t="s">
         <v>87</v>
@@ -10355,51 +10358,51 @@
         <v>87</v>
       </c>
       <c r="AR39" s="16" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AS39" s="16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AT39" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AU39" s="16" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AV39" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="40" spans="1:48" ht="131.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>550</v>
@@ -10408,70 +10411,70 @@
         <v>549</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="V40" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="W40" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="X40" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Y40" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Z40" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AA40" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AB40" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AC40" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AD40" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AE40" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF40" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AG40" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AH40" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AJ40" s="8">
         <v>411193</v>
@@ -10483,13 +10486,13 @@
         <v>2481</v>
       </c>
       <c r="AM40" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AN40" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AO40" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AP40" s="9" t="s">
         <v>525</v>
@@ -10498,51 +10501,51 @@
         <v>525</v>
       </c>
       <c r="AR40" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AS40" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AT40" s="9" t="s">
         <v>525</v>
       </c>
       <c r="AU40" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AV40" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="41" spans="1:48" ht="131.25" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>550</v>
@@ -10554,67 +10557,67 @@
         <v>618</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="W41" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="X41" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Y41" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Z41" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AA41" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AB41" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AC41" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AD41" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AE41" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AF41" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AG41" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AH41" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AJ41" s="8">
         <v>414557</v>
@@ -10626,13 +10629,13 @@
         <v>2486</v>
       </c>
       <c r="AM41" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AN41" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AO41" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AP41" s="9" t="s">
         <v>525</v>
@@ -10641,51 +10644,51 @@
         <v>525</v>
       </c>
       <c r="AR41" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AS41" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AT41" s="9" t="s">
         <v>525</v>
       </c>
       <c r="AU41" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AV41" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="42" spans="1:48" ht="131.25" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>550</v>
@@ -10694,70 +10697,70 @@
         <v>549</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="V42" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W42" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="X42" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Y42" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Z42" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AA42" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AB42" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AC42" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AD42" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AE42" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF42" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AG42" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AH42" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AJ42" s="8">
         <v>409277</v>
@@ -10769,13 +10772,13 @@
         <v>2027</v>
       </c>
       <c r="AM42" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AN42" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AO42" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AP42" s="9" t="s">
         <v>87</v>
@@ -10784,19 +10787,19 @@
         <v>87</v>
       </c>
       <c r="AR42" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AS42" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AT42" s="9" t="s">
         <v>87</v>
       </c>
       <c r="AU42" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AV42" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="43" spans="1:48" ht="131.25" customHeight="1">
@@ -10804,7 +10807,7 @@
         <v>373</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>349</v>
@@ -10816,7 +10819,7 @@
         <v>115</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>375</v>
@@ -10855,7 +10858,7 @@
         <v>67</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="T43" s="10" t="s">
         <v>378</v>
@@ -10950,7 +10953,7 @@
         <v>389</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>390</v>
@@ -11096,7 +11099,7 @@
         <v>418</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>419</v>
@@ -11242,7 +11245,7 @@
         <v>437</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>390</v>
@@ -11388,7 +11391,7 @@
         <v>454</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>390</v>
@@ -11531,34 +11534,34 @@
     </row>
     <row r="48" spans="1:48" ht="131.25" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>1078</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="J48" s="10" t="s">
         <v>1080</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>1081</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>60</v>
@@ -11567,70 +11570,70 @@
         <v>61</v>
       </c>
       <c r="M48" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N48" s="10" t="s">
         <v>1082</v>
-      </c>
-      <c r="N48" s="10" t="s">
-        <v>1083</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P48" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="R48" s="10" t="s">
         <v>1084</v>
       </c>
-      <c r="Q48" s="10" t="s">
-        <v>836</v>
-      </c>
-      <c r="R48" s="10" t="s">
+      <c r="S48" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="T48" s="10" t="s">
         <v>1085</v>
       </c>
-      <c r="S48" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="T48" s="10" t="s">
+      <c r="U48" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="V48" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="U48" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="V48" s="7" t="s">
+      <c r="W48" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="X48" s="7" t="s">
         <v>1087</v>
       </c>
-      <c r="W48" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="X48" s="7" t="s">
-        <v>1088</v>
-      </c>
       <c r="Y48" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Z48" s="7" t="s">
         <v>189</v>
       </c>
       <c r="AA48" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AB48" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AC48" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="AC48" s="8" t="s">
+      <c r="AD48" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="AD48" s="8" t="s">
+      <c r="AE48" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="AE48" s="8" t="s">
+      <c r="AF48" s="8" t="s">
         <v>1092</v>
-      </c>
-      <c r="AF48" s="8" t="s">
-        <v>1093</v>
       </c>
       <c r="AG48" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH48" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AI48" s="8">
         <v>755368</v>
@@ -11645,13 +11648,13 @@
         <v>3061</v>
       </c>
       <c r="AM48" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AN48" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AO48" s="9" t="s">
         <v>1095</v>
-      </c>
-      <c r="AN48" s="9" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AO48" s="9" t="s">
-        <v>1096</v>
       </c>
       <c r="AP48" s="9" t="s">
         <v>162</v>
@@ -11669,7 +11672,7 @@
         <v>162</v>
       </c>
       <c r="AU48" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AV48" s="9" t="s">
         <v>203</v>
@@ -11677,34 +11680,34 @@
     </row>
     <row r="49" spans="1:48" ht="131.25" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>1098</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>1099</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>1100</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>1103</v>
-      </c>
       <c r="J49" s="10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>60</v>
@@ -11716,67 +11719,67 @@
         <v>340</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="O49" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P49" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Q49" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="R49" s="10" t="s">
         <v>1105</v>
       </c>
-      <c r="Q49" s="10" t="s">
-        <v>836</v>
-      </c>
-      <c r="R49" s="10" t="s">
-        <v>1106</v>
-      </c>
       <c r="S49" s="10" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="T49" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="V49" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="U49" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="V49" s="7" t="s">
+      <c r="W49" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="X49" s="7" t="s">
         <v>1087</v>
       </c>
-      <c r="W49" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="X49" s="7" t="s">
-        <v>1088</v>
-      </c>
       <c r="Y49" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Z49" s="7" t="s">
         <v>189</v>
       </c>
       <c r="AA49" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AB49" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AC49" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="AC49" s="8" t="s">
+      <c r="AD49" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="AD49" s="8" t="s">
+      <c r="AE49" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="AE49" s="8" t="s">
-        <v>1092</v>
-      </c>
       <c r="AF49" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AG49" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH49" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AI49" s="8">
         <v>723645</v>
@@ -11791,13 +11794,13 @@
         <v>3105</v>
       </c>
       <c r="AM49" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AN49" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AO49" s="9" t="s">
         <v>1095</v>
-      </c>
-      <c r="AN49" s="9" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AO49" s="9" t="s">
-        <v>1096</v>
       </c>
       <c r="AP49" s="9" t="s">
         <v>162</v>
@@ -11815,7 +11818,7 @@
         <v>162</v>
       </c>
       <c r="AU49" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AV49" s="9" t="s">
         <v>203</v>
@@ -11823,34 +11826,34 @@
     </row>
     <row r="50" spans="1:48" ht="131.25" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>1110</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>1112</v>
-      </c>
       <c r="J50" s="10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>60</v>
@@ -11859,70 +11862,70 @@
         <v>61</v>
       </c>
       <c r="M50" s="10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N50" s="10" t="s">
         <v>1113</v>
-      </c>
-      <c r="N50" s="10" t="s">
-        <v>1114</v>
       </c>
       <c r="O50" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P50" s="10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="Q50" s="10" t="s">
         <v>1115</v>
       </c>
-      <c r="Q50" s="10" t="s">
+      <c r="R50" s="10" t="s">
         <v>1116</v>
       </c>
-      <c r="R50" s="10" t="s">
+      <c r="S50" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="T50" s="10" t="s">
         <v>1117</v>
       </c>
-      <c r="S50" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="T50" s="10" t="s">
+      <c r="U50" s="7" t="s">
         <v>1118</v>
       </c>
-      <c r="U50" s="7" t="s">
+      <c r="V50" s="7" t="s">
         <v>1119</v>
       </c>
-      <c r="V50" s="7" t="s">
+      <c r="W50" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="X50" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="Y50" s="7" t="s">
         <v>1120</v>
       </c>
-      <c r="W50" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="X50" s="7" t="s">
+      <c r="Z50" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AA50" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB50" s="7" t="s">
         <v>1088</v>
       </c>
-      <c r="Y50" s="7" t="s">
-        <v>1121</v>
-      </c>
-      <c r="Z50" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AA50" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AB50" s="7" t="s">
+      <c r="AC50" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="AC50" s="8" t="s">
+      <c r="AD50" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="AD50" s="8" t="s">
+      <c r="AE50" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="AE50" s="8" t="s">
+      <c r="AF50" s="8" t="s">
         <v>1092</v>
-      </c>
-      <c r="AF50" s="8" t="s">
-        <v>1093</v>
       </c>
       <c r="AG50" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH50" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AI50" s="8">
         <v>785648</v>
@@ -11937,13 +11940,13 @@
         <v>3177</v>
       </c>
       <c r="AM50" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AN50" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AO50" s="9" t="s">
         <v>1095</v>
-      </c>
-      <c r="AN50" s="9" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AO50" s="9" t="s">
-        <v>1096</v>
       </c>
       <c r="AP50" s="9" t="s">
         <v>162</v>
@@ -11961,7 +11964,7 @@
         <v>162</v>
       </c>
       <c r="AU50" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AV50" s="9" t="s">
         <v>203</v>
@@ -11972,7 +11975,7 @@
         <v>237</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>238</v>
@@ -12118,7 +12121,7 @@
         <v>167</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>168</v>
@@ -12252,7 +12255,7 @@
         <v>204</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>168</v>
@@ -12386,7 +12389,7 @@
         <v>223</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>168</v>
@@ -12520,7 +12523,7 @@
         <v>466</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>390</v>
@@ -12663,34 +12666,34 @@
     </row>
     <row r="56" spans="1:48" ht="131.25" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="J56" s="10" t="s">
         <v>1129</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>1130</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>60</v>
@@ -12702,37 +12705,37 @@
         <v>340</v>
       </c>
       <c r="N56" s="10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="P56" s="10" t="s">
         <v>1131</v>
       </c>
-      <c r="P56" s="10" t="s">
+      <c r="Q56" s="10" t="s">
         <v>1132</v>
       </c>
-      <c r="Q56" s="10" t="s">
+      <c r="R56" s="10" t="s">
         <v>1133</v>
       </c>
-      <c r="R56" s="10" t="s">
+      <c r="S56" s="10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="T56" s="10" t="s">
         <v>1134</v>
       </c>
-      <c r="S56" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="T56" s="10" t="s">
+      <c r="U56" s="21" t="s">
         <v>1135</v>
       </c>
-      <c r="U56" s="21" t="s">
+      <c r="V56" s="21" t="s">
         <v>1136</v>
       </c>
-      <c r="V56" s="21" t="s">
+      <c r="W56" s="21" t="s">
+        <v>1062</v>
+      </c>
+      <c r="X56" s="21" t="s">
         <v>1137</v>
       </c>
-      <c r="W56" s="21" t="s">
-        <v>1063</v>
-      </c>
-      <c r="X56" s="21" t="s">
-        <v>1138</v>
-      </c>
       <c r="Y56" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Z56" s="21" t="s">
         <v>483</v>
@@ -12741,25 +12744,25 @@
         <v>101</v>
       </c>
       <c r="AB56" s="13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AC56" s="22" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AD56" s="22" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AE56" s="22" t="s">
         <v>1139</v>
       </c>
-      <c r="AC56" s="22" t="s">
-        <v>1067</v>
-      </c>
-      <c r="AD56" s="22" t="s">
-        <v>1068</v>
-      </c>
-      <c r="AE56" s="22" t="s">
-        <v>1140</v>
-      </c>
       <c r="AF56" s="22" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AG56" s="22" t="s">
         <v>164</v>
       </c>
       <c r="AH56" s="22" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AI56" s="22">
         <v>861235</v>
@@ -12777,10 +12780,10 @@
         <v>491</v>
       </c>
       <c r="AN56" s="23" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AO56" s="23" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AP56" s="23" t="s">
         <v>162</v>

--- a/excel/samsung.xlsx
+++ b/excel/samsung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\AiogramTemplate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9F3DBE-ED92-4FA5-A157-492179F23622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD33EEAF-4DBF-4FB6-8821-0A4CB8C5699E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3526,12 +3526,6 @@
     <t>https://ibb.co/zm3y28M</t>
   </si>
   <si>
-    <t>https://ibb.co/xMLwd0g</t>
-  </si>
-  <si>
-    <t>https://ibb.co/bKG7p13</t>
-  </si>
-  <si>
     <t>https://ibb.co/rMwznqG</t>
   </si>
   <si>
@@ -4269,6 +4263,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 2020, Ноябрь 24.</t>
+  </si>
+  <si>
+    <t>https://ibb.co/VCKhg84</t>
+  </si>
+  <si>
+    <t>https://ibb.co/3chD8J8</t>
   </si>
 </sst>
 </file>
@@ -4827,7 +4827,7 @@
   <dimension ref="A1:AV57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="131.25" customHeight="1"/>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="3" spans="1:48" ht="131.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>809</v>
@@ -5105,7 +5105,7 @@
         <v>796</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>966</v>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="4" spans="1:48" ht="131.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>601</v>
@@ -5251,7 +5251,7 @@
         <v>796</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>612</v>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="5" spans="1:48" ht="131.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>989</v>
@@ -5397,7 +5397,7 @@
         <v>796</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>148</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="6" spans="1:48" ht="131.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>990</v>
@@ -5543,7 +5543,7 @@
         <v>796</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>539</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="7" spans="1:48" ht="131.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>991</v>
@@ -5689,7 +5689,7 @@
         <v>796</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>926</v>
@@ -5772,13 +5772,13 @@
     </row>
     <row r="8" spans="1:48" ht="131.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>992</v>
+        <v>1225</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>623</v>
@@ -5829,7 +5829,7 @@
         <v>796</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>612</v>
@@ -5850,7 +5850,7 @@
         <v>610</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AB8" s="13" t="s">
         <v>566</v>
@@ -5915,13 +5915,13 @@
     </row>
     <row r="9" spans="1:48" ht="131.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>993</v>
+        <v>1226</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>600</v>
@@ -5972,7 +5972,7 @@
         <v>796</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>542</v>
@@ -5993,7 +5993,7 @@
         <v>588</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AB9" s="13" t="s">
         <v>566</v>
@@ -6058,10 +6058,10 @@
     </row>
     <row r="10" spans="1:48" ht="131.25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>933</v>
@@ -6115,7 +6115,7 @@
         <v>796</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>926</v>
@@ -6136,7 +6136,7 @@
         <v>610</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AB10" s="7" t="s">
         <v>537</v>
@@ -6198,10 +6198,10 @@
     </row>
     <row r="11" spans="1:48" ht="131.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>919</v>
@@ -6255,7 +6255,7 @@
         <v>796</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>912</v>
@@ -6276,7 +6276,7 @@
         <v>610</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AB11" s="7" t="s">
         <v>537</v>
@@ -6341,10 +6341,10 @@
     </row>
     <row r="12" spans="1:48" ht="131.25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>578</v>
@@ -6398,7 +6398,7 @@
         <v>796</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U12" s="7" t="s">
         <v>568</v>
@@ -6419,7 +6419,7 @@
         <v>564</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AB12" s="7" t="s">
         <v>537</v>
@@ -6484,10 +6484,10 @@
     </row>
     <row r="13" spans="1:48" ht="131.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>557</v>
@@ -6541,7 +6541,7 @@
         <v>796</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U13" s="7" t="s">
         <v>542</v>
@@ -6562,7 +6562,7 @@
         <v>538</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AB13" s="7" t="s">
         <v>537</v>
@@ -6630,7 +6630,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>113</v>
@@ -6684,7 +6684,7 @@
         <v>796</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U14" s="7" t="s">
         <v>125</v>
@@ -6773,10 +6773,10 @@
     </row>
     <row r="15" spans="1:48" ht="131.25" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>676</v>
@@ -6830,7 +6830,7 @@
         <v>796</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>901</v>
@@ -6851,7 +6851,7 @@
         <v>891</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AB15" s="7" t="s">
         <v>537</v>
@@ -6916,10 +6916,10 @@
     </row>
     <row r="16" spans="1:48" ht="131.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>743</v>
@@ -6973,7 +6973,7 @@
         <v>796</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U16" s="7" t="s">
         <v>878</v>
@@ -6994,7 +6994,7 @@
         <v>891</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AB16" s="7" t="s">
         <v>537</v>
@@ -7059,7 +7059,7 @@
         <v>260</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>261</v>
@@ -7113,7 +7113,7 @@
         <v>796</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>125</v>
@@ -7134,7 +7134,7 @@
         <v>270</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AB17" s="13" t="s">
         <v>127</v>
@@ -7205,16 +7205,16 @@
         <v>988</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>933</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>838</v>
@@ -7223,10 +7223,10 @@
         <v>883</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>59</v>
@@ -7238,34 +7238,34 @@
         <v>61</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>616</v>
       </c>
       <c r="P18" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>1036</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>1037</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>1038</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>796</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="W18" s="7" t="s">
         <v>817</v>
@@ -7274,10 +7274,10 @@
         <v>566</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AA18" s="7" t="s">
         <v>75</v>
@@ -7292,7 +7292,7 @@
         <v>890</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF18" s="8" t="s">
         <v>888</v>
@@ -7301,7 +7301,7 @@
         <v>810</v>
       </c>
       <c r="AH18" s="8" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="AI18" s="8">
         <v>186642</v>
@@ -7322,7 +7322,7 @@
         <v>605</v>
       </c>
       <c r="AO18" s="9" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AP18" s="9" t="s">
         <v>162</v>
@@ -7351,7 +7351,7 @@
         <v>277</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>278</v>
@@ -7405,7 +7405,7 @@
         <v>796</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>288</v>
@@ -7497,7 +7497,7 @@
         <v>298</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>299</v>
@@ -7551,7 +7551,7 @@
         <v>796</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>125</v>
@@ -7640,10 +7640,10 @@
     </row>
     <row r="21" spans="1:48" ht="131.25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>676</v>
@@ -7697,7 +7697,7 @@
         <v>796</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>878</v>
@@ -7783,10 +7783,10 @@
     </row>
     <row r="22" spans="1:48" ht="131.25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>743</v>
@@ -7840,7 +7840,7 @@
         <v>796</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U22" s="7" t="s">
         <v>862</v>
@@ -7926,10 +7926,10 @@
     </row>
     <row r="23" spans="1:48" ht="131.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>809</v>
@@ -7983,7 +7983,7 @@
         <v>796</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>542</v>
@@ -8072,7 +8072,7 @@
         <v>318</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>319</v>
@@ -8126,7 +8126,7 @@
         <v>796</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>125</v>
@@ -8218,7 +8218,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>52</v>
@@ -8361,10 +8361,10 @@
     </row>
     <row r="26" spans="1:48" ht="131.25" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>841</v>
@@ -8418,7 +8418,7 @@
         <v>796</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U26" s="7" t="s">
         <v>834</v>
@@ -8504,10 +8504,10 @@
     </row>
     <row r="27" spans="1:48" ht="131.25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>828</v>
@@ -8561,7 +8561,7 @@
         <v>796</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>819</v>
@@ -8641,10 +8641,10 @@
     </row>
     <row r="28" spans="1:48" ht="131.25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>809</v>
@@ -8698,7 +8698,7 @@
         <v>796</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U28" s="7" t="s">
         <v>795</v>
@@ -8787,7 +8787,7 @@
         <v>336</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>319</v>
@@ -8841,7 +8841,7 @@
         <v>796</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -8933,7 +8933,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>52</v>
@@ -9079,7 +9079,7 @@
         <v>976</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>52</v>
@@ -9222,10 +9222,10 @@
     </row>
     <row r="32" spans="1:48" ht="131.25" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>676</v>
@@ -9237,7 +9237,7 @@
         <v>781</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>780</v>
@@ -9276,7 +9276,7 @@
         <v>773</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="T32" s="10" t="s">
         <v>772</v>
@@ -9362,7 +9362,7 @@
         <v>494</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>368</v>
@@ -9505,31 +9505,31 @@
     </row>
     <row r="34" spans="1:48" ht="131.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>1051</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>1053</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>500</v>
@@ -9541,70 +9541,70 @@
         <v>61</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="O34" s="10" t="s">
         <v>503</v>
       </c>
       <c r="P34" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="R34" s="10" t="s">
         <v>1056</v>
       </c>
-      <c r="Q34" s="10" t="s">
+      <c r="S34" s="10" t="s">
         <v>1057</v>
       </c>
-      <c r="R34" s="10" t="s">
+      <c r="T34" s="10" t="s">
         <v>1058</v>
-      </c>
-      <c r="S34" s="10" t="s">
-        <v>1059</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>1060</v>
       </c>
       <c r="U34" s="7" t="s">
         <v>690</v>
       </c>
       <c r="V34" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="X34" s="7" t="s">
         <v>1061</v>
-      </c>
-      <c r="W34" s="7" t="s">
-        <v>1062</v>
-      </c>
-      <c r="X34" s="7" t="s">
-        <v>1063</v>
       </c>
       <c r="Y34" s="7" t="s">
         <v>892</v>
       </c>
       <c r="Z34" s="7" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="AA34" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AB34" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AC34" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AD34" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="AC34" s="8" t="s">
+      <c r="AE34" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="AD34" s="8" t="s">
+      <c r="AF34" s="8" t="s">
         <v>1067</v>
-      </c>
-      <c r="AE34" s="8" t="s">
-        <v>1068</v>
-      </c>
-      <c r="AF34" s="8" t="s">
-        <v>1069</v>
       </c>
       <c r="AG34" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH34" s="8" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AI34" s="8">
         <v>780874</v>
@@ -9622,10 +9622,10 @@
         <v>491</v>
       </c>
       <c r="AN34" s="9" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AO34" s="9" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AP34" s="9" t="s">
         <v>162</v>
@@ -9643,7 +9643,7 @@
         <v>162</v>
       </c>
       <c r="AU34" s="9" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AV34" s="9" t="s">
         <v>522</v>
@@ -9651,10 +9651,10 @@
     </row>
     <row r="35" spans="1:48" ht="131.25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>743</v>
@@ -9794,10 +9794,10 @@
     </row>
     <row r="36" spans="1:48" ht="131.25" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>743</v>
@@ -9940,7 +9940,7 @@
         <v>348</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>349</v>
@@ -9991,7 +9991,7 @@
         <v>67</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="T37" s="10" t="s">
         <v>356</v>
@@ -10083,34 +10083,34 @@
     </row>
     <row r="38" spans="1:48" ht="131.25" customHeight="1">
       <c r="A38" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>1143</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>1146</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>1147</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>1148</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>1149</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>755</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>570</v>
@@ -10128,16 +10128,16 @@
         <v>0.83958333333333324</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>835</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="T38" s="10" t="s">
         <v>661</v>
@@ -10146,34 +10146,34 @@
         <v>690</v>
       </c>
       <c r="V38" s="14" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="W38" s="14" t="s">
         <v>688</v>
       </c>
       <c r="X38" s="14" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="Y38" s="14" t="s">
         <v>729</v>
       </c>
       <c r="Z38" s="14" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AA38" s="14" t="s">
         <v>685</v>
       </c>
       <c r="AB38" s="14" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AC38" s="15" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AD38" s="15" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AE38" s="15" t="s">
         <v>1156</v>
-      </c>
-      <c r="AD38" s="15" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AE38" s="15" t="s">
-        <v>1158</v>
       </c>
       <c r="AF38" s="15" t="s">
         <v>410</v>
@@ -10182,7 +10182,7 @@
         <v>164</v>
       </c>
       <c r="AH38" s="15" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AI38" s="15">
         <v>557894</v>
@@ -10197,13 +10197,13 @@
         <v>2988</v>
       </c>
       <c r="AM38" s="16" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AN38" s="16" t="s">
         <v>706</v>
       </c>
       <c r="AO38" s="16" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AP38" s="16" t="s">
         <v>87</v>
@@ -10212,7 +10212,7 @@
         <v>87</v>
       </c>
       <c r="AR38" s="16" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AS38" s="16" t="s">
         <v>642</v>
@@ -10221,7 +10221,7 @@
         <v>87</v>
       </c>
       <c r="AU38" s="16" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AV38" s="16" t="s">
         <v>640</v>
@@ -10229,34 +10229,34 @@
     </row>
     <row r="39" spans="1:48" ht="131.25" customHeight="1">
       <c r="A39" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>1166</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>1168</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>1170</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>1171</v>
-      </c>
       <c r="J39" s="10" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>570</v>
@@ -10265,70 +10265,70 @@
         <v>619</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="O39" s="18">
         <v>0.83958333333333324</v>
       </c>
       <c r="P39" s="10" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>1173</v>
+      </c>
+      <c r="R39" s="10" t="s">
         <v>1174</v>
       </c>
-      <c r="Q39" s="10" t="s">
+      <c r="S39" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="T39" s="10" t="s">
         <v>1175</v>
       </c>
-      <c r="R39" s="10" t="s">
+      <c r="U39" s="14" t="s">
         <v>1176</v>
       </c>
-      <c r="S39" s="10" t="s">
-        <v>1059</v>
-      </c>
-      <c r="T39" s="10" t="s">
+      <c r="V39" s="20" t="s">
         <v>1177</v>
-      </c>
-      <c r="U39" s="14" t="s">
-        <v>1178</v>
-      </c>
-      <c r="V39" s="20" t="s">
-        <v>1179</v>
       </c>
       <c r="W39" s="14" t="s">
         <v>688</v>
       </c>
       <c r="X39" s="14" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="Y39" s="14" t="s">
         <v>729</v>
       </c>
       <c r="Z39" s="14" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AA39" s="14" t="s">
         <v>685</v>
       </c>
       <c r="AB39" s="14" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AC39" s="15" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AD39" s="15" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AE39" s="15" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="AF39" s="15" t="s">
         <v>410</v>
       </c>
       <c r="AG39" s="15" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="AH39" s="15" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="AI39" s="15">
         <v>666321</v>
@@ -10343,13 +10343,13 @@
         <v>2645</v>
       </c>
       <c r="AM39" s="16" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AN39" s="16" t="s">
         <v>706</v>
       </c>
       <c r="AO39" s="16" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AP39" s="16" t="s">
         <v>87</v>
@@ -10358,7 +10358,7 @@
         <v>87</v>
       </c>
       <c r="AR39" s="16" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AS39" s="16" t="s">
         <v>642</v>
@@ -10367,7 +10367,7 @@
         <v>87</v>
       </c>
       <c r="AU39" s="16" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AV39" s="16" t="s">
         <v>640</v>
@@ -10375,10 +10375,10 @@
     </row>
     <row r="40" spans="1:48" ht="131.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>676</v>
@@ -10518,10 +10518,10 @@
     </row>
     <row r="41" spans="1:48" ht="131.25" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>676</v>
@@ -10661,10 +10661,10 @@
     </row>
     <row r="42" spans="1:48" ht="131.25" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>676</v>
@@ -10807,7 +10807,7 @@
         <v>373</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>349</v>
@@ -10953,7 +10953,7 @@
         <v>389</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>390</v>
@@ -11099,7 +11099,7 @@
         <v>418</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>419</v>
@@ -11245,7 +11245,7 @@
         <v>437</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>390</v>
@@ -11391,7 +11391,7 @@
         <v>454</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>390</v>
@@ -11534,34 +11534,34 @@
     </row>
     <row r="48" spans="1:48" ht="131.25" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>931</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="J48" s="10" t="s">
         <v>1078</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>1080</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>60</v>
@@ -11570,40 +11570,40 @@
         <v>61</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>835</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="U48" s="7" t="s">
         <v>690</v>
       </c>
       <c r="V48" s="7" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="W48" s="7" t="s">
         <v>688</v>
       </c>
       <c r="X48" s="7" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="Y48" s="7" t="s">
         <v>729</v>
@@ -11615,25 +11615,25 @@
         <v>685</v>
       </c>
       <c r="AB48" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AC48" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AD48" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="AC48" s="8" t="s">
+      <c r="AE48" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="AD48" s="8" t="s">
+      <c r="AF48" s="8" t="s">
         <v>1090</v>
-      </c>
-      <c r="AE48" s="8" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AF48" s="8" t="s">
-        <v>1092</v>
       </c>
       <c r="AG48" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH48" s="8" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="AI48" s="8">
         <v>755368</v>
@@ -11648,13 +11648,13 @@
         <v>3061</v>
       </c>
       <c r="AM48" s="9" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AN48" s="9" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AO48" s="9" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AP48" s="9" t="s">
         <v>162</v>
@@ -11672,7 +11672,7 @@
         <v>162</v>
       </c>
       <c r="AU48" s="9" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AV48" s="9" t="s">
         <v>203</v>
@@ -11680,34 +11680,34 @@
     </row>
     <row r="49" spans="1:48" ht="131.25" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>1097</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>1098</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>1099</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>1100</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>1102</v>
-      </c>
       <c r="J49" s="10" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>60</v>
@@ -11719,37 +11719,37 @@
         <v>340</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="O49" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="Q49" s="10" t="s">
         <v>835</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="T49" s="10" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>690</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="W49" s="7" t="s">
         <v>688</v>
       </c>
       <c r="X49" s="7" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="Y49" s="7" t="s">
         <v>729</v>
@@ -11761,25 +11761,25 @@
         <v>685</v>
       </c>
       <c r="AB49" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AC49" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AD49" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="AC49" s="8" t="s">
+      <c r="AE49" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="AD49" s="8" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AE49" s="8" t="s">
-        <v>1091</v>
-      </c>
       <c r="AF49" s="8" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="AG49" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH49" s="8" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="AI49" s="8">
         <v>723645</v>
@@ -11794,13 +11794,13 @@
         <v>3105</v>
       </c>
       <c r="AM49" s="9" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AN49" s="9" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AO49" s="9" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AP49" s="9" t="s">
         <v>162</v>
@@ -11818,7 +11818,7 @@
         <v>162</v>
       </c>
       <c r="AU49" s="9" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AV49" s="9" t="s">
         <v>203</v>
@@ -11826,34 +11826,34 @@
     </row>
     <row r="50" spans="1:48" ht="131.25" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>1111</v>
-      </c>
       <c r="J50" s="10" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>60</v>
@@ -11862,70 +11862,70 @@
         <v>61</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="O50" s="10" t="s">
         <v>64</v>
       </c>
       <c r="P50" s="10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R50" s="10" t="s">
         <v>1114</v>
       </c>
-      <c r="Q50" s="10" t="s">
+      <c r="S50" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="T50" s="10" t="s">
         <v>1115</v>
       </c>
-      <c r="R50" s="10" t="s">
+      <c r="U50" s="7" t="s">
         <v>1116</v>
       </c>
-      <c r="S50" s="10" t="s">
-        <v>1059</v>
-      </c>
-      <c r="T50" s="10" t="s">
+      <c r="V50" s="7" t="s">
         <v>1117</v>
-      </c>
-      <c r="U50" s="7" t="s">
-        <v>1118</v>
-      </c>
-      <c r="V50" s="7" t="s">
-        <v>1119</v>
       </c>
       <c r="W50" s="7" t="s">
         <v>688</v>
       </c>
       <c r="X50" s="7" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="Y50" s="7" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="Z50" s="7" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="AA50" s="7" t="s">
         <v>685</v>
       </c>
       <c r="AB50" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AC50" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AD50" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="AC50" s="8" t="s">
+      <c r="AE50" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="AD50" s="8" t="s">
+      <c r="AF50" s="8" t="s">
         <v>1090</v>
-      </c>
-      <c r="AE50" s="8" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AF50" s="8" t="s">
-        <v>1092</v>
       </c>
       <c r="AG50" s="8" t="s">
         <v>164</v>
       </c>
       <c r="AH50" s="8" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="AI50" s="8">
         <v>785648</v>
@@ -11940,13 +11940,13 @@
         <v>3177</v>
       </c>
       <c r="AM50" s="9" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AN50" s="9" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AO50" s="9" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AP50" s="9" t="s">
         <v>162</v>
@@ -11964,7 +11964,7 @@
         <v>162</v>
       </c>
       <c r="AU50" s="9" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AV50" s="9" t="s">
         <v>203</v>
@@ -11975,7 +11975,7 @@
         <v>237</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>238</v>
@@ -12121,7 +12121,7 @@
         <v>167</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>168</v>
@@ -12255,7 +12255,7 @@
         <v>204</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>168</v>
@@ -12389,7 +12389,7 @@
         <v>223</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>168</v>
@@ -12523,7 +12523,7 @@
         <v>466</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>390</v>
@@ -12666,34 +12666,34 @@
     </row>
     <row r="56" spans="1:48" ht="131.25" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>1123</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="H56" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="J56" s="10" t="s">
         <v>1127</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>1129</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>60</v>
@@ -12705,34 +12705,34 @@
         <v>340</v>
       </c>
       <c r="N56" s="10" t="s">
+        <v>1128</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q56" s="10" t="s">
         <v>1130</v>
       </c>
-      <c r="P56" s="10" t="s">
+      <c r="R56" s="10" t="s">
         <v>1131</v>
       </c>
-      <c r="Q56" s="10" t="s">
+      <c r="S56" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="T56" s="10" t="s">
         <v>1132</v>
       </c>
-      <c r="R56" s="10" t="s">
+      <c r="U56" s="21" t="s">
         <v>1133</v>
       </c>
-      <c r="S56" s="10" t="s">
-        <v>1141</v>
-      </c>
-      <c r="T56" s="10" t="s">
+      <c r="V56" s="21" t="s">
         <v>1134</v>
       </c>
-      <c r="U56" s="21" t="s">
+      <c r="W56" s="21" t="s">
+        <v>1060</v>
+      </c>
+      <c r="X56" s="21" t="s">
         <v>1135</v>
-      </c>
-      <c r="V56" s="21" t="s">
-        <v>1136</v>
-      </c>
-      <c r="W56" s="21" t="s">
-        <v>1062</v>
-      </c>
-      <c r="X56" s="21" t="s">
-        <v>1137</v>
       </c>
       <c r="Y56" s="21" t="s">
         <v>729</v>
@@ -12744,25 +12744,25 @@
         <v>101</v>
       </c>
       <c r="AB56" s="13" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="AC56" s="22" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AD56" s="22" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AE56" s="22" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AF56" s="22" t="s">
         <v>1067</v>
-      </c>
-      <c r="AE56" s="22" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AF56" s="22" t="s">
-        <v>1069</v>
       </c>
       <c r="AG56" s="22" t="s">
         <v>164</v>
       </c>
       <c r="AH56" s="22" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="AI56" s="22">
         <v>861235</v>
@@ -12780,10 +12780,10 @@
         <v>491</v>
       </c>
       <c r="AN56" s="23" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AO56" s="23" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="AP56" s="23" t="s">
         <v>162</v>
@@ -12852,63 +12852,61 @@
     <hyperlink ref="B5" r:id="rId29" xr:uid="{64FE0D63-FAA9-45F8-9ECF-43E5DD163A2D}"/>
     <hyperlink ref="B6" r:id="rId30" xr:uid="{6A7CB81B-838C-4561-AD90-8702395B9EBA}"/>
     <hyperlink ref="B7" r:id="rId31" xr:uid="{717500D7-2530-4EC3-9379-67DEF891E54C}"/>
-    <hyperlink ref="B8" r:id="rId32" xr:uid="{AF90A96D-A0A1-496B-A46B-C4DC20208446}"/>
-    <hyperlink ref="B9" r:id="rId33" xr:uid="{2FDB2E02-3CCA-4C84-A99D-B694FF992E17}"/>
-    <hyperlink ref="B10" r:id="rId34" xr:uid="{74CB7BCC-CA2D-4AF4-928D-28EB0796D88D}"/>
-    <hyperlink ref="B11" r:id="rId35" xr:uid="{98108173-10F7-4F9B-8691-4AB9AB57A9ED}"/>
-    <hyperlink ref="B12" r:id="rId36" xr:uid="{C8FA30AD-AFD0-4DA1-A1C8-6CAD8CC76866}"/>
-    <hyperlink ref="B13" r:id="rId37" xr:uid="{D9B1D20B-0694-4A13-B501-6E7E420F3F9A}"/>
-    <hyperlink ref="B14" r:id="rId38" xr:uid="{F8BE4EFB-28DC-4E5A-8F7C-A8CC696C1B7A}"/>
-    <hyperlink ref="B15" r:id="rId39" xr:uid="{F53D55E0-DD72-4A20-8FFD-CCCDCA8AA678}"/>
-    <hyperlink ref="B16" r:id="rId40" xr:uid="{A98EEE45-3012-4357-8215-E87F7C4CB4C7}"/>
-    <hyperlink ref="B17" r:id="rId41" xr:uid="{DB5D215F-4BF0-4CE1-AF82-8220F10EC2B9}"/>
-    <hyperlink ref="B18" r:id="rId42" xr:uid="{F89D786B-4927-4722-8E20-1E004E23BB41}"/>
-    <hyperlink ref="B19" r:id="rId43" xr:uid="{48E74DE6-84EA-4FB2-9672-F0507150620D}"/>
-    <hyperlink ref="B20" r:id="rId44" xr:uid="{ABF2C152-D98C-451B-9528-39A01BCAB834}"/>
-    <hyperlink ref="B21" r:id="rId45" xr:uid="{1081D6D9-6DD4-4B21-ACA9-ECDE770CD6C0}"/>
-    <hyperlink ref="B22" r:id="rId46" xr:uid="{B0A0CD63-0D62-4B82-9917-D9C8225E2B8B}"/>
-    <hyperlink ref="B24" r:id="rId47" xr:uid="{D79F38FC-EAC8-4D62-BF5C-E76EF028A238}"/>
-    <hyperlink ref="B25" r:id="rId48" xr:uid="{42AE3BE6-D646-4C2D-8F3B-C7E197FE6D9B}"/>
-    <hyperlink ref="B26" r:id="rId49" xr:uid="{025B8A5C-24C9-45C2-BB7C-A13AB0D718E4}"/>
-    <hyperlink ref="B27" r:id="rId50" xr:uid="{4F860961-BD21-42E6-8E1E-6B5389577624}"/>
-    <hyperlink ref="B28" r:id="rId51" xr:uid="{B3B3BE21-0169-4D64-B703-A86384752BD7}"/>
-    <hyperlink ref="B29" r:id="rId52" xr:uid="{99768915-3BF5-4664-B988-9082E4421EB5}"/>
-    <hyperlink ref="B30" r:id="rId53" xr:uid="{186F0900-59F4-4243-AD6E-6491033771EC}"/>
-    <hyperlink ref="B31" r:id="rId54" xr:uid="{3489E315-F152-459C-8E83-B51589CB050E}"/>
-    <hyperlink ref="B34" r:id="rId55" xr:uid="{C43AF435-2DAF-4D2E-8D96-D64933DA6C34}"/>
-    <hyperlink ref="B35" r:id="rId56" xr:uid="{F8614BC6-0DBE-4FA2-9C27-95CB209E4596}"/>
-    <hyperlink ref="B36" r:id="rId57" xr:uid="{2B20BCE9-FD3B-41DB-87EE-E41F287FA3E0}"/>
-    <hyperlink ref="B37" r:id="rId58" xr:uid="{4135073D-C588-4B3E-B438-DD2D2446834C}"/>
-    <hyperlink ref="B40" r:id="rId59" xr:uid="{8FBBB1F8-6D05-4457-981B-002A6CACFC70}"/>
-    <hyperlink ref="B41" r:id="rId60" xr:uid="{9CF2B564-8975-400B-88EE-C6FB5DFCB87A}"/>
-    <hyperlink ref="B42" r:id="rId61" xr:uid="{4E2CE84C-33D4-47A0-B6E1-50AD43D84BB1}"/>
-    <hyperlink ref="B43" r:id="rId62" xr:uid="{55375CE8-CD84-4A4A-B3F7-CEC2C6F6346D}"/>
-    <hyperlink ref="B44" r:id="rId63" xr:uid="{4AD4E97D-BCED-4256-9A19-7C3381142A5A}"/>
-    <hyperlink ref="B45" r:id="rId64" xr:uid="{33C30D40-3F62-47F2-A54F-9B2E53E5B54A}"/>
-    <hyperlink ref="B46" r:id="rId65" xr:uid="{B33DDE67-DCDE-4038-A2BF-A4DAB73F92AF}"/>
-    <hyperlink ref="B47" r:id="rId66" xr:uid="{BE0EE156-A659-4FEB-83EC-6CB40AC23D44}"/>
-    <hyperlink ref="B48" r:id="rId67" xr:uid="{65E55220-D57F-4EFD-A82C-A1F8E6C4A013}"/>
-    <hyperlink ref="B49" r:id="rId68" xr:uid="{FF321CE1-CC98-4C5A-B109-A64BD31278A3}"/>
-    <hyperlink ref="B50" r:id="rId69" xr:uid="{020C92E5-83AE-44B3-B176-D1F7420C3991}"/>
-    <hyperlink ref="B51" r:id="rId70" xr:uid="{94BD75A6-8668-4BFB-8527-5041D6587B5F}"/>
-    <hyperlink ref="B52" r:id="rId71" xr:uid="{B0CFBCE5-AA2A-4752-A2B3-7A9CB949CBB3}"/>
-    <hyperlink ref="B53" r:id="rId72" xr:uid="{1D14CA6B-ECF7-4A74-8E40-996F1DA35ECE}"/>
-    <hyperlink ref="B54" r:id="rId73" xr:uid="{DBFE28CA-47BA-46B4-A868-3FA67C9028B4}"/>
-    <hyperlink ref="B55" r:id="rId74" xr:uid="{5603A6BA-58C5-4740-8864-4FD734664CAF}"/>
-    <hyperlink ref="X18" r:id="rId75" xr:uid="{347A6128-A57B-4424-B511-9F06EAAF0509}"/>
-    <hyperlink ref="AB18" r:id="rId76" xr:uid="{7BBC1BCE-C54B-4400-9913-89E168858554}"/>
-    <hyperlink ref="AB4" r:id="rId77" xr:uid="{D83F1C5E-D2FD-4642-98AC-782531AF5D01}"/>
-    <hyperlink ref="AB6" r:id="rId78" xr:uid="{6FC83A04-7AA3-4251-91DF-203043F7F2BE}"/>
-    <hyperlink ref="AB7" r:id="rId79" xr:uid="{DE2AECA6-5FB3-4444-B691-F258AA0A7B82}"/>
-    <hyperlink ref="B39" r:id="rId80" xr:uid="{5F7BABB7-9F6A-49AE-97DB-661226398F36}"/>
-    <hyperlink ref="B38" r:id="rId81" xr:uid="{55928DE3-7626-4B1A-982F-014101BC8AF9}"/>
-    <hyperlink ref="B32" r:id="rId82" xr:uid="{387D61B4-C456-4712-ADFF-C25F5EA5CF0A}"/>
-    <hyperlink ref="B56" r:id="rId83" xr:uid="{E3D076F3-D6A7-42D2-B127-75ED12AB429B}"/>
-    <hyperlink ref="AB56" r:id="rId84" xr:uid="{CFCE0A2E-D256-4124-A68C-63C52A54091F}"/>
-    <hyperlink ref="B23" r:id="rId85" xr:uid="{09CE3DF3-049B-4C37-9115-D65923BCEA79}"/>
-    <hyperlink ref="B4" r:id="rId86" xr:uid="{392BF280-D2DE-4CC3-A0C7-A82B814D07F9}"/>
+    <hyperlink ref="B10" r:id="rId32" xr:uid="{74CB7BCC-CA2D-4AF4-928D-28EB0796D88D}"/>
+    <hyperlink ref="B11" r:id="rId33" xr:uid="{98108173-10F7-4F9B-8691-4AB9AB57A9ED}"/>
+    <hyperlink ref="B12" r:id="rId34" xr:uid="{C8FA30AD-AFD0-4DA1-A1C8-6CAD8CC76866}"/>
+    <hyperlink ref="B13" r:id="rId35" xr:uid="{D9B1D20B-0694-4A13-B501-6E7E420F3F9A}"/>
+    <hyperlink ref="B14" r:id="rId36" xr:uid="{F8BE4EFB-28DC-4E5A-8F7C-A8CC696C1B7A}"/>
+    <hyperlink ref="B15" r:id="rId37" xr:uid="{F53D55E0-DD72-4A20-8FFD-CCCDCA8AA678}"/>
+    <hyperlink ref="B16" r:id="rId38" xr:uid="{A98EEE45-3012-4357-8215-E87F7C4CB4C7}"/>
+    <hyperlink ref="B17" r:id="rId39" xr:uid="{DB5D215F-4BF0-4CE1-AF82-8220F10EC2B9}"/>
+    <hyperlink ref="B18" r:id="rId40" xr:uid="{F89D786B-4927-4722-8E20-1E004E23BB41}"/>
+    <hyperlink ref="B19" r:id="rId41" xr:uid="{48E74DE6-84EA-4FB2-9672-F0507150620D}"/>
+    <hyperlink ref="B20" r:id="rId42" xr:uid="{ABF2C152-D98C-451B-9528-39A01BCAB834}"/>
+    <hyperlink ref="B21" r:id="rId43" xr:uid="{1081D6D9-6DD4-4B21-ACA9-ECDE770CD6C0}"/>
+    <hyperlink ref="B22" r:id="rId44" xr:uid="{B0A0CD63-0D62-4B82-9917-D9C8225E2B8B}"/>
+    <hyperlink ref="B24" r:id="rId45" xr:uid="{D79F38FC-EAC8-4D62-BF5C-E76EF028A238}"/>
+    <hyperlink ref="B25" r:id="rId46" xr:uid="{42AE3BE6-D646-4C2D-8F3B-C7E197FE6D9B}"/>
+    <hyperlink ref="B26" r:id="rId47" xr:uid="{025B8A5C-24C9-45C2-BB7C-A13AB0D718E4}"/>
+    <hyperlink ref="B27" r:id="rId48" xr:uid="{4F860961-BD21-42E6-8E1E-6B5389577624}"/>
+    <hyperlink ref="B28" r:id="rId49" xr:uid="{B3B3BE21-0169-4D64-B703-A86384752BD7}"/>
+    <hyperlink ref="B29" r:id="rId50" xr:uid="{99768915-3BF5-4664-B988-9082E4421EB5}"/>
+    <hyperlink ref="B30" r:id="rId51" xr:uid="{186F0900-59F4-4243-AD6E-6491033771EC}"/>
+    <hyperlink ref="B31" r:id="rId52" xr:uid="{3489E315-F152-459C-8E83-B51589CB050E}"/>
+    <hyperlink ref="B34" r:id="rId53" xr:uid="{C43AF435-2DAF-4D2E-8D96-D64933DA6C34}"/>
+    <hyperlink ref="B35" r:id="rId54" xr:uid="{F8614BC6-0DBE-4FA2-9C27-95CB209E4596}"/>
+    <hyperlink ref="B36" r:id="rId55" xr:uid="{2B20BCE9-FD3B-41DB-87EE-E41F287FA3E0}"/>
+    <hyperlink ref="B37" r:id="rId56" xr:uid="{4135073D-C588-4B3E-B438-DD2D2446834C}"/>
+    <hyperlink ref="B40" r:id="rId57" xr:uid="{8FBBB1F8-6D05-4457-981B-002A6CACFC70}"/>
+    <hyperlink ref="B41" r:id="rId58" xr:uid="{9CF2B564-8975-400B-88EE-C6FB5DFCB87A}"/>
+    <hyperlink ref="B42" r:id="rId59" xr:uid="{4E2CE84C-33D4-47A0-B6E1-50AD43D84BB1}"/>
+    <hyperlink ref="B43" r:id="rId60" xr:uid="{55375CE8-CD84-4A4A-B3F7-CEC2C6F6346D}"/>
+    <hyperlink ref="B44" r:id="rId61" xr:uid="{4AD4E97D-BCED-4256-9A19-7C3381142A5A}"/>
+    <hyperlink ref="B45" r:id="rId62" xr:uid="{33C30D40-3F62-47F2-A54F-9B2E53E5B54A}"/>
+    <hyperlink ref="B46" r:id="rId63" xr:uid="{B33DDE67-DCDE-4038-A2BF-A4DAB73F92AF}"/>
+    <hyperlink ref="B47" r:id="rId64" xr:uid="{BE0EE156-A659-4FEB-83EC-6CB40AC23D44}"/>
+    <hyperlink ref="B48" r:id="rId65" xr:uid="{65E55220-D57F-4EFD-A82C-A1F8E6C4A013}"/>
+    <hyperlink ref="B49" r:id="rId66" xr:uid="{FF321CE1-CC98-4C5A-B109-A64BD31278A3}"/>
+    <hyperlink ref="B50" r:id="rId67" xr:uid="{020C92E5-83AE-44B3-B176-D1F7420C3991}"/>
+    <hyperlink ref="B51" r:id="rId68" xr:uid="{94BD75A6-8668-4BFB-8527-5041D6587B5F}"/>
+    <hyperlink ref="B52" r:id="rId69" xr:uid="{B0CFBCE5-AA2A-4752-A2B3-7A9CB949CBB3}"/>
+    <hyperlink ref="B53" r:id="rId70" xr:uid="{1D14CA6B-ECF7-4A74-8E40-996F1DA35ECE}"/>
+    <hyperlink ref="B54" r:id="rId71" xr:uid="{DBFE28CA-47BA-46B4-A868-3FA67C9028B4}"/>
+    <hyperlink ref="B55" r:id="rId72" xr:uid="{5603A6BA-58C5-4740-8864-4FD734664CAF}"/>
+    <hyperlink ref="X18" r:id="rId73" xr:uid="{347A6128-A57B-4424-B511-9F06EAAF0509}"/>
+    <hyperlink ref="AB18" r:id="rId74" xr:uid="{7BBC1BCE-C54B-4400-9913-89E168858554}"/>
+    <hyperlink ref="AB4" r:id="rId75" xr:uid="{D83F1C5E-D2FD-4642-98AC-782531AF5D01}"/>
+    <hyperlink ref="AB6" r:id="rId76" xr:uid="{6FC83A04-7AA3-4251-91DF-203043F7F2BE}"/>
+    <hyperlink ref="AB7" r:id="rId77" xr:uid="{DE2AECA6-5FB3-4444-B691-F258AA0A7B82}"/>
+    <hyperlink ref="B39" r:id="rId78" xr:uid="{5F7BABB7-9F6A-49AE-97DB-661226398F36}"/>
+    <hyperlink ref="B38" r:id="rId79" xr:uid="{55928DE3-7626-4B1A-982F-014101BC8AF9}"/>
+    <hyperlink ref="B32" r:id="rId80" xr:uid="{387D61B4-C456-4712-ADFF-C25F5EA5CF0A}"/>
+    <hyperlink ref="B56" r:id="rId81" xr:uid="{E3D076F3-D6A7-42D2-B127-75ED12AB429B}"/>
+    <hyperlink ref="AB56" r:id="rId82" xr:uid="{CFCE0A2E-D256-4124-A68C-63C52A54091F}"/>
+    <hyperlink ref="B23" r:id="rId83" xr:uid="{09CE3DF3-049B-4C37-9115-D65923BCEA79}"/>
+    <hyperlink ref="B4" r:id="rId84" xr:uid="{392BF280-D2DE-4CC3-A0C7-A82B814D07F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
 </worksheet>
 </file>